--- a/fluttre  (1) (1).xlsx
+++ b/fluttre  (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="608" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF599442-C760-48BE-9E77-14654B932C06}"/>
+  <xr:revisionPtr revIDLastSave="657" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90B2C5E-7982-4A45-BFBD-0257EE8ED9CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1412">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -6918,16 +6918,7 @@
     <t>ChangeNotifierProvider</t>
   </si>
   <si>
-    <t xml:space="preserve"> @override
-  Widget build(BuildContext context) {
-    return ChangeNotifierProvider(</t>
-  </si>
-  <si>
     <t>create</t>
-  </si>
-  <si>
-    <t>وهناى تضع كود المسار الصفحه الذي يوجد فيه الداته 
-التي تشارك كل الصفحات</t>
   </si>
   <si>
     <t xml:space="preserve"> create:(context) =&gt;  Cart(),</t>
@@ -6942,11 +6933,103 @@
       ),</t>
   </si>
   <si>
-    <t>Consumer&lt;Cart&gt;(builder: ((context, classInstancee, child) {
-          return Text("${classInstancee.dd}");</t>
-  </si>
-  <si>
     <t>وهذه طريقة استدعاء الداته التي نرغب في وضعها في كل صفحه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وهناى تضع كود المسار الصفحه الذي يوجد فيه الداته 
+التي تشارك كل الصفحات وتكون داخل 
+ChangeNotifierProvider
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumer&lt;card&gt;(
+  builder: ((context, classInstancee, child) {
+  return Text("${classInstancee.dd}");
+})),</t>
+  </si>
+  <si>
+    <t>class Cart extends ChangeNotifier{
+  List stcle=[];
+  String dd ="1111111111";
+add(Itme aaa){
+stcle.add(aaa);
+}
+  }</t>
+  </si>
+  <si>
+    <t>تصنع صفحه وتضع فيها كلاس وفي داخله أي ميثد تريدها
+علشان تستخدمه في أي صفحه تريدها</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Consumer&lt;card&gt;(
+الكود في الأعلى يستدعي الكلاس الي فيه الداته 
+  builder: ((context, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classInstancee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, child) {
+وهذا الكود يمثل الي بداخل الكلاس يعني لازم تكتبه 
+ثما تحط نقطة وتطلع لك الداتات الي في الكلاس
+  return Text("${classInstancee.dd}");
+})),
+وتقدر تط اي ودجت بعد
+return</t>
+    </r>
+  </si>
+  <si>
+    <t>خصائص ChangeNotifierProvider</t>
+  </si>
+  <si>
+    <t>لصنع داته تستخدمها في أي صفحه
+ولها طريقتين</t>
+  </si>
+  <si>
+    <t>ولها طريقتين الاولى</t>
+  </si>
+  <si>
+    <t>ChangeNotifierProvider(
+      create: (context) {
+        return Cart();
+      },
+      child: const MaterialApp(
+        home: Home(),</t>
+  </si>
+  <si>
+    <t>وهذا الكود تحطه في الصفحه الرئيسية للمشروع</t>
+  </si>
+  <si>
+    <t>class _HomeState extends State&lt;Home&gt; {
+  @override
+  Widget build(BuildContext context) {
+    final classInstancee = Provider.of&lt;Cart&gt;(context);
+    return Scaffold(</t>
+  </si>
+  <si>
+    <t>تحطه في اول الصفحه الي يتم فيها استدعا الميثد</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL93xoMrxRJIviJiC76oO5aV8bDp2s3OrA</t>
+  </si>
+  <si>
+    <t>قناة تشرح Provider</t>
   </si>
 </sst>
 </file>
@@ -7289,7 +7372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7439,6 +7522,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7532,11 +7618,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7871,10 +7957,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -7974,11 +8060,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -8011,11 +8097,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -8042,10 +8128,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -8104,10 +8190,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="58"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -8150,10 +8236,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -8172,10 +8258,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -8225,10 +8311,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="51"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -8305,11 +8391,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -8367,11 +8453,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -8417,11 +8503,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -8448,11 +8534,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="51"/>
-      <c r="C99" s="51"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -8589,10 +8675,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="51" t="s">
+      <c r="A119" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="51"/>
+      <c r="B119" s="52"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -8642,11 +8728,11 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="51" t="s">
+      <c r="A126" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B126" s="51"/>
-      <c r="C126" s="51"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
@@ -8689,11 +8775,11 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="51" t="s">
+      <c r="A133" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="B133" s="51"/>
-      <c r="C133" s="51"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -8736,11 +8822,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="51" t="s">
+      <c r="A140" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B140" s="51"/>
-      <c r="C140" s="51"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="52"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
@@ -8767,11 +8853,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="51" t="s">
+      <c r="A145" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="52"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
@@ -8814,11 +8900,11 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="51" t="s">
+      <c r="A152" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B152" s="51"/>
-      <c r="C152" s="51"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="52"/>
     </row>
     <row r="153" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
@@ -8837,11 +8923,11 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="51" t="s">
+      <c r="A157" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="51"/>
-      <c r="C157" s="51"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
@@ -8877,11 +8963,11 @@
       <c r="A163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="58" t="s">
+      <c r="A164" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="58"/>
-      <c r="C164" s="58"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="59"/>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
@@ -8924,11 +9010,11 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="57" t="s">
+      <c r="A171" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
+      <c r="B171" s="58"/>
+      <c r="C171" s="58"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
@@ -8963,11 +9049,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="57" t="s">
+      <c r="A177" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
+      <c r="B177" s="58"/>
+      <c r="C177" s="58"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
@@ -9002,11 +9088,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="57" t="s">
+      <c r="A183" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B183" s="57"/>
-      <c r="C183" s="57"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="58"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9049,11 +9135,11 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="51" t="s">
+      <c r="A190" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="52"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -9077,18 +9163,18 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="51" t="s">
+      <c r="A197" s="52" t="s">
         <v>1271</v>
       </c>
-      <c r="B197" s="51"/>
-      <c r="C197" s="51"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="52"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="57" t="s">
+      <c r="A198" s="58" t="s">
         <v>1272</v>
       </c>
-      <c r="B198" s="57"/>
-      <c r="C198" s="57"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="58"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
@@ -9125,11 +9211,11 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="60" t="s">
+      <c r="A204" s="61" t="s">
         <v>1271</v>
       </c>
-      <c r="B204" s="60"/>
-      <c r="C204" s="60"/>
+      <c r="B204" s="61"/>
+      <c r="C204" s="61"/>
     </row>
     <row r="205" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
@@ -9294,11 +9380,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="61" t="s">
+      <c r="A233" s="62" t="s">
         <v>1281</v>
       </c>
-      <c r="B233" s="61"/>
-      <c r="C233" s="61"/>
+      <c r="B233" s="62"/>
+      <c r="C233" s="62"/>
     </row>
     <row r="234" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -9449,11 +9535,11 @@
       <c r="A265" s="3"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="58" t="s">
+      <c r="A266" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="B266" s="58"/>
-      <c r="C266" s="58"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="59"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
@@ -9480,11 +9566,11 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="51" t="s">
+      <c r="A272" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="B272" s="51"/>
-      <c r="C272" s="51"/>
+      <c r="B272" s="52"/>
+      <c r="C272" s="52"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
@@ -9519,11 +9605,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="51" t="s">
+      <c r="A278" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="B278" s="51"/>
-      <c r="C278" s="51"/>
+      <c r="B278" s="52"/>
+      <c r="C278" s="52"/>
     </row>
     <row r="279" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -9542,11 +9628,11 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="51" t="s">
+      <c r="A283" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="B283" s="51"/>
-      <c r="C283" s="51"/>
+      <c r="B283" s="52"/>
+      <c r="C283" s="52"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
@@ -9592,7 +9678,7 @@
       <c r="A289" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B289" s="52" t="s">
+      <c r="B289" s="53" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9600,7 +9686,7 @@
       <c r="A290" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B290" s="52"/>
+      <c r="B290" s="53"/>
     </row>
     <row r="291" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
@@ -9640,11 +9726,11 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="51" t="s">
+      <c r="A297" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="B297" s="51"/>
-      <c r="C297" s="51"/>
+      <c r="B297" s="52"/>
+      <c r="C297" s="52"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
@@ -9727,11 +9813,11 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="57" t="s">
+      <c r="A309" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="B309" s="57"/>
-      <c r="C309" s="57"/>
+      <c r="B309" s="58"/>
+      <c r="C309" s="58"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
@@ -9806,11 +9892,11 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="51" t="s">
+      <c r="A320" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="B320" s="51"/>
-      <c r="C320" s="51"/>
+      <c r="B320" s="52"/>
+      <c r="C320" s="52"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
@@ -9829,11 +9915,11 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="51" t="s">
+      <c r="A325" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="B325" s="51"/>
-      <c r="C325" s="51"/>
+      <c r="B325" s="52"/>
+      <c r="C325" s="52"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
@@ -9860,11 +9946,11 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="51" t="s">
+      <c r="A330" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="B330" s="51"/>
-      <c r="C330" s="51"/>
+      <c r="B330" s="52"/>
+      <c r="C330" s="52"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
@@ -9891,16 +9977,16 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="51" t="s">
+      <c r="A335" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B335" s="51"/>
+      <c r="B335" s="52"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="57" t="s">
+      <c r="A336" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="B336" s="57"/>
+      <c r="B336" s="58"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
@@ -9909,7 +9995,7 @@
       <c r="B337" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C337" s="52" t="s">
+      <c r="C337" s="53" t="s">
         <v>497</v>
       </c>
     </row>
@@ -9920,7 +10006,7 @@
       <c r="B338" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C338" s="53"/>
+      <c r="C338" s="54"/>
     </row>
     <row r="339" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
@@ -9929,7 +10015,7 @@
       <c r="B339" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C339" s="53"/>
+      <c r="C339" s="54"/>
     </row>
     <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -9940,11 +10026,11 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="54" t="s">
+      <c r="A342" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="B342" s="55"/>
-      <c r="C342" s="56"/>
+      <c r="B342" s="56"/>
+      <c r="C342" s="57"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
@@ -9994,11 +10080,11 @@
       <c r="A348" s="3"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="51" t="s">
+      <c r="A351" s="52" t="s">
         <v>498</v>
       </c>
-      <c r="B351" s="51"/>
-      <c r="C351" s="51"/>
+      <c r="B351" s="52"/>
+      <c r="C351" s="52"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
@@ -10036,11 +10122,11 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="51" t="s">
+      <c r="A357" s="52" t="s">
         <v>579</v>
       </c>
-      <c r="B357" s="51"/>
-      <c r="C357" s="51"/>
+      <c r="B357" s="52"/>
+      <c r="C357" s="52"/>
     </row>
     <row r="358" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
@@ -10067,11 +10153,11 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="51" t="s">
+      <c r="A362" s="52" t="s">
         <v>586</v>
       </c>
-      <c r="B362" s="51"/>
-      <c r="C362" s="51"/>
+      <c r="B362" s="52"/>
+      <c r="C362" s="52"/>
     </row>
     <row r="363" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
@@ -10098,11 +10184,11 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="51" t="s">
+      <c r="A367" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="B367" s="51"/>
-      <c r="C367" s="51"/>
+      <c r="B367" s="52"/>
+      <c r="C367" s="52"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
@@ -10129,11 +10215,11 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="51" t="s">
+      <c r="A373" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="B373" s="51"/>
-      <c r="C373" s="51"/>
+      <c r="B373" s="52"/>
+      <c r="C373" s="52"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
@@ -10176,11 +10262,11 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="51" t="s">
+      <c r="A381" s="52" t="s">
         <v>917</v>
       </c>
-      <c r="B381" s="51"/>
-      <c r="C381" s="51"/>
+      <c r="B381" s="52"/>
+      <c r="C381" s="52"/>
     </row>
     <row r="382" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
@@ -10210,11 +10296,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="57" t="s">
+      <c r="A385" s="58" t="s">
         <v>924</v>
       </c>
-      <c r="B385" s="57"/>
-      <c r="C385" s="57"/>
+      <c r="B385" s="58"/>
+      <c r="C385" s="58"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -10281,7 +10367,7 @@
       <c r="A394" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B394" s="53" t="s">
+      <c r="B394" s="54" t="s">
         <v>938</v>
       </c>
     </row>
@@ -10289,7 +10375,7 @@
       <c r="A395" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B395" s="53"/>
+      <c r="B395" s="54"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
@@ -10308,11 +10394,11 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="51" t="s">
+      <c r="A400" s="52" t="s">
         <v>945</v>
       </c>
-      <c r="B400" s="51"/>
-      <c r="C400" s="51"/>
+      <c r="B400" s="52"/>
+      <c r="C400" s="52"/>
     </row>
     <row r="401" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A401" s="11" t="s">
@@ -10326,7 +10412,7 @@
       <c r="A402" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B402" s="52" t="s">
+      <c r="B402" s="53" t="s">
         <v>950</v>
       </c>
     </row>
@@ -10334,7 +10420,7 @@
       <c r="A403" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B403" s="53"/>
+      <c r="B403" s="54"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
@@ -10374,11 +10460,11 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="51" t="s">
+      <c r="A409" s="52" t="s">
         <v>991</v>
       </c>
-      <c r="B409" s="51"/>
-      <c r="C409" s="51"/>
+      <c r="B409" s="52"/>
+      <c r="C409" s="52"/>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
@@ -10423,11 +10509,11 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="51" t="s">
+      <c r="A417" s="52" t="s">
         <v>997</v>
       </c>
-      <c r="B417" s="51"/>
-      <c r="C417" s="51"/>
+      <c r="B417" s="52"/>
+      <c r="C417" s="52"/>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
@@ -10507,7 +10593,7 @@
       <c r="A428" s="45" t="s">
         <v>1177</v>
       </c>
-      <c r="B428" s="62" t="s">
+      <c r="B428" s="63" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -10515,7 +10601,7 @@
       <c r="A429" s="45" t="s">
         <v>1179</v>
       </c>
-      <c r="B429" s="62"/>
+      <c r="B429" s="63"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
@@ -10641,17 +10727,17 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="51" t="s">
+      <c r="A453" s="52" t="s">
         <v>1112</v>
       </c>
-      <c r="B453" s="51"/>
-      <c r="C453" s="51"/>
+      <c r="B453" s="52"/>
+      <c r="C453" s="52"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="57" t="s">
+      <c r="A454" s="58" t="s">
         <v>1128</v>
       </c>
-      <c r="B454" s="57"/>
+      <c r="B454" s="58"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
@@ -10718,17 +10804,17 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="57" t="s">
+      <c r="A468" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="B468" s="57"/>
+      <c r="B468" s="58"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="51" t="s">
+      <c r="A477" s="52" t="s">
         <v>1132</v>
       </c>
-      <c r="B477" s="51"/>
-      <c r="C477" s="51"/>
+      <c r="B477" s="52"/>
+      <c r="C477" s="52"/>
     </row>
     <row r="479" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
@@ -10834,11 +10920,11 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="51" t="s">
+      <c r="A494" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="B494" s="51"/>
-      <c r="C494" s="51"/>
+      <c r="B494" s="52"/>
+      <c r="C494" s="52"/>
     </row>
     <row r="495" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A495" s="26" t="s">
@@ -10859,11 +10945,11 @@
       </c>
     </row>
     <row r="498" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A498" s="63" t="s">
+      <c r="A498" s="64" t="s">
         <v>1185</v>
       </c>
-      <c r="B498" s="63"/>
-      <c r="C498" s="63"/>
+      <c r="B498" s="64"/>
+      <c r="C498" s="64"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="47" t="s">
@@ -10889,11 +10975,11 @@
       <c r="A503" s="46"/>
     </row>
     <row r="504" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A504" s="63" t="s">
+      <c r="A504" s="64" t="s">
         <v>1193</v>
       </c>
-      <c r="B504" s="63"/>
-      <c r="C504" s="63"/>
+      <c r="B504" s="64"/>
+      <c r="C504" s="64"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
@@ -11013,11 +11099,11 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="51" t="s">
+      <c r="A527" s="52" t="s">
         <v>1231</v>
       </c>
-      <c r="B527" s="51"/>
-      <c r="C527" s="51"/>
+      <c r="B527" s="52"/>
+      <c r="C527" s="52"/>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
@@ -11057,11 +11143,11 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="51" t="s">
+      <c r="A534" s="52" t="s">
         <v>1230</v>
       </c>
-      <c r="B534" s="51"/>
-      <c r="C534" s="51"/>
+      <c r="B534" s="52"/>
+      <c r="C534" s="52"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
@@ -11092,11 +11178,11 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="51" t="s">
+      <c r="A541" s="52" t="s">
         <v>1232</v>
       </c>
-      <c r="B541" s="51"/>
-      <c r="C541" s="51"/>
+      <c r="B541" s="52"/>
+      <c r="C541" s="52"/>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
@@ -11132,11 +11218,11 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="51" t="s">
+      <c r="A549" s="52" t="s">
         <v>1241</v>
       </c>
-      <c r="B549" s="51"/>
-      <c r="C549" s="51"/>
+      <c r="B549" s="52"/>
+      <c r="C549" s="52"/>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
@@ -11173,11 +11259,11 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="51" t="s">
+      <c r="A556" s="52" t="s">
         <v>1347</v>
       </c>
-      <c r="B556" s="51"/>
-      <c r="C556" s="51"/>
+      <c r="B556" s="52"/>
+      <c r="C556" s="52"/>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
@@ -11188,222 +11274,222 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="83" t="s">
+      <c r="A558" s="1" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="83" t="s">
+      <c r="A559" s="1" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A560" s="83" t="s">
+      <c r="A560" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A561" s="83" t="s">
+      <c r="A561" s="1" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A562" s="83" t="s">
+      <c r="A562" s="1" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A563" s="83" t="s">
+      <c r="A563" s="1" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A564" s="83" t="s">
+      <c r="A564" s="1" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A565" s="83" t="s">
+      <c r="A565" s="1" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A566" s="83" t="s">
+      <c r="A566" s="1" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A567" s="83" t="s">
+      <c r="A567" s="1" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A568" s="83" t="s">
+      <c r="A568" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A569" s="83" t="s">
+      <c r="A569" s="1" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A570" s="83" t="s">
+      <c r="A570" s="1" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A571" s="83" t="s">
+      <c r="A571" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A572" s="83" t="s">
+      <c r="A572" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A573" s="83" t="s">
+      <c r="A573" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A574" s="83" t="s">
+      <c r="A574" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A575" s="83" t="s">
+      <c r="A575" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A576" s="83" t="s">
+      <c r="A576" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A577" s="83" t="s">
+      <c r="A577" s="1" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A578" s="83" t="s">
+      <c r="A578" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A579" s="83" t="s">
+      <c r="A579" s="1" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A580" s="83" t="s">
+      <c r="A580" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A581" s="83" t="s">
+      <c r="A581" s="1" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A582" s="83" t="s">
+      <c r="A582" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A583" s="83" t="s">
+      <c r="A583" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A584" s="83" t="s">
+      <c r="A584" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A585" s="83" t="s">
+      <c r="A585" s="1" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A586" s="83" t="s">
+      <c r="A586" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A587" s="83" t="s">
+      <c r="A587" s="1" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A588" s="83" t="s">
+      <c r="A588" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A589" s="83" t="s">
+      <c r="A589" s="1" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A590" s="83" t="s">
+      <c r="A590" s="1" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A591" s="83" t="s">
+      <c r="A591" s="1" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A592" s="83" t="s">
+      <c r="A592" s="1" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A593" s="83" t="s">
+      <c r="A593" s="1" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A594" s="83" t="s">
+      <c r="A594" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A595" s="83" t="s">
+      <c r="A595" s="1" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A596" s="83" t="s">
+      <c r="A596" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A597" s="83" t="s">
+      <c r="A597" s="1" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A598" s="83" t="s">
+      <c r="A598" s="1" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A599" s="83" t="s">
+      <c r="A599" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A600" s="83" t="s">
+      <c r="A600" s="1" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A601" s="83" t="s">
+      <c r="A601" s="1" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -11504,46 +11590,46 @@
   <dimension ref="G7:J13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="65" t="s">
         <v>1092</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65">
-        <v>7</v>
-      </c>
-      <c r="J7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66">
+        <v>7.2</v>
+      </c>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="7:10" ht="27.5" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="65" t="s">
         <v>1093</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="66">
-        <v>0.375</v>
-      </c>
-      <c r="J12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="67">
+        <v>0</v>
+      </c>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11559,10 +11645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DCBDB7-EC77-4BC4-A473-C8B731D3E8F1}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11589,10 +11675,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>1337</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -11630,61 +11716,149 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>1392</v>
       </c>
-      <c r="B9" s="59"/>
-    </row>
-    <row r="10" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+    </row>
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1396</v>
-      </c>
+      <c r="B10" s="51" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
     </row>
     <row r="12" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B13" s="51" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A15" s="84" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="154" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+    </row>
+    <row r="20" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A20" s="84" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="154" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="154" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1411</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{5081839A-41BA-42D0-B6CA-E71530448E95}"/>
+    <hyperlink ref="A24" r:id="rId2" xr:uid="{D471B1F0-E4B0-4C5D-91F1-177CBC03329D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11692,8 +11866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
   <dimension ref="A1:D478"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView rightToLeft="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11737,11 +11911,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>1109</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
     </row>
     <row r="12" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -11832,11 +12006,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>1316</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
     </row>
     <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -11862,10 +12036,10 @@
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="69" t="s">
         <v>1039</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="41"/>
     </row>
     <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -11885,11 +12059,11 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
@@ -11943,11 +12117,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="69" t="s">
         <v>694</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
     </row>
     <row r="50" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -12069,11 +12243,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="72" t="s">
         <v>728</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
     </row>
     <row r="62" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
@@ -12082,7 +12256,7 @@
       <c r="B62" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="75" t="s">
         <v>749</v>
       </c>
     </row>
@@ -12093,7 +12267,7 @@
       <c r="B63" s="27" t="s">
         <v>733</v>
       </c>
-      <c r="C63" s="75"/>
+      <c r="C63" s="76"/>
     </row>
     <row r="64" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
@@ -12102,7 +12276,7 @@
       <c r="B64" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="C64" s="75"/>
+      <c r="C64" s="76"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
@@ -12163,10 +12337,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="73" t="s">
         <v>745</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="77" t="s">
         <v>755</v>
       </c>
       <c r="C71" s="30" t="s">
@@ -12174,12 +12348,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="72"/>
-      <c r="B72" s="77"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="78"/>
       <c r="C72" s="25"/>
     </row>
     <row r="73" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="73" t="s">
         <v>747</v>
       </c>
       <c r="B73" s="29" t="s">
@@ -12190,7 +12364,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="73"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="31" t="s">
         <v>746</v>
       </c>
@@ -12220,11 +12394,11 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="79" t="s">
         <v>761</v>
       </c>
-      <c r="B77" s="79"/>
-      <c r="C77" s="80"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="35" t="s">
         <v>772</v>
       </c>
@@ -12413,11 +12587,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -12460,11 +12634,11 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
     </row>
     <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -12539,11 +12713,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="51" t="s">
+      <c r="A117" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="52"/>
     </row>
     <row r="118" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -12551,11 +12725,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -12638,10 +12812,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="81" t="s">
+      <c r="A131" s="82" t="s">
         <v>638</v>
       </c>
-      <c r="B131" s="81"/>
+      <c r="B131" s="82"/>
     </row>
     <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -12660,18 +12834,18 @@
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="58" t="s">
+      <c r="A135" s="59" t="s">
         <v>639</v>
       </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="58"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="59"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="61" t="s">
+      <c r="A136" s="62" t="s">
         <v>642</v>
       </c>
-      <c r="B136" s="61"/>
-      <c r="C136" s="61"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
     </row>
     <row r="137" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
@@ -12686,11 +12860,11 @@
       <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="61" t="s">
+      <c r="A139" s="62" t="s">
         <v>643</v>
       </c>
-      <c r="B139" s="61"/>
-      <c r="C139" s="61"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
@@ -12713,11 +12887,11 @@
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="61" t="s">
+      <c r="A145" s="62" t="s">
         <v>645</v>
       </c>
-      <c r="B145" s="61"/>
-      <c r="C145" s="61"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
     </row>
     <row r="146" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
@@ -12730,11 +12904,11 @@
       <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="62" t="s">
         <v>646</v>
       </c>
-      <c r="B148" s="61"/>
-      <c r="C148" s="61"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
     </row>
     <row r="149" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -12798,11 +12972,11 @@
       <c r="B162" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="51" t="s">
+      <c r="A166" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="B166" s="51"/>
-      <c r="C166" s="51"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
     </row>
     <row r="167" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -12814,24 +12988,24 @@
     </row>
     <row r="169" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="51" t="s">
+      <c r="A170" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="B170" s="51"/>
-      <c r="C170" s="51"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="B171" s="52"/>
+      <c r="B171" s="53"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="51" t="s">
+      <c r="A173" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="B173" s="51"/>
-      <c r="C173" s="51"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
     </row>
     <row r="174" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -12858,11 +13032,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="57" t="s">
+      <c r="A178" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
+      <c r="B178" s="58"/>
+      <c r="C178" s="58"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -12881,11 +13055,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="57" t="s">
+      <c r="A183" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="B183" s="57"/>
-      <c r="C183" s="57"/>
+      <c r="B183" s="58"/>
+      <c r="C183" s="58"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -12904,11 +13078,11 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="57" t="s">
+      <c r="A187" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="B187" s="57"/>
-      <c r="C187" s="57"/>
+      <c r="B187" s="58"/>
+      <c r="C187" s="58"/>
     </row>
     <row r="188" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -12927,11 +13101,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="57" t="s">
+      <c r="A192" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="B192" s="57"/>
-      <c r="C192" s="57"/>
+      <c r="B192" s="58"/>
+      <c r="C192" s="58"/>
     </row>
     <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -12974,11 +13148,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="51" t="s">
+      <c r="A200" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="B200" s="51"/>
-      <c r="C200" s="51"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="52"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -13013,11 +13187,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="57" t="s">
+      <c r="A207" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="B207" s="57"/>
-      <c r="C207" s="57"/>
+      <c r="B207" s="58"/>
+      <c r="C207" s="58"/>
     </row>
     <row r="208" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -13036,11 +13210,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="51" t="s">
+      <c r="A211" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="B211" s="51"/>
-      <c r="C211" s="51"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="52"/>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -13056,11 +13230,11 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="51" t="s">
+      <c r="A215" s="52" t="s">
         <v>464</v>
       </c>
-      <c r="B215" s="51"/>
-      <c r="C215" s="51"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="52"/>
     </row>
     <row r="216" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
@@ -13101,11 +13275,11 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="57" t="s">
+      <c r="A221" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B221" s="57"/>
-      <c r="C221" s="57"/>
+      <c r="B221" s="58"/>
+      <c r="C221" s="58"/>
     </row>
     <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
@@ -13151,11 +13325,11 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="57" t="s">
+      <c r="A228" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="B228" s="57"/>
-      <c r="C228" s="57"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="58"/>
     </row>
     <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -13190,11 +13364,11 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="51" t="s">
+      <c r="A235" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="B235" s="51"/>
-      <c r="C235" s="51"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="52"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -13240,11 +13414,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="57" t="s">
+      <c r="A242" s="58" t="s">
         <v>679</v>
       </c>
-      <c r="B242" s="57"/>
-      <c r="C242" s="57"/>
+      <c r="B242" s="58"/>
+      <c r="C242" s="58"/>
     </row>
     <row r="243" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A243" s="24" t="s">
@@ -13289,11 +13463,11 @@
       <c r="C248" s="19"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="51" t="s">
+      <c r="A251" s="52" t="s">
         <v>526</v>
       </c>
-      <c r="B251" s="51"/>
-      <c r="C251" s="51"/>
+      <c r="B251" s="52"/>
+      <c r="C251" s="52"/>
     </row>
     <row r="252" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -13320,11 +13494,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="51" t="s">
+      <c r="A256" s="52" t="s">
         <v>555</v>
       </c>
-      <c r="B256" s="51"/>
-      <c r="C256" s="51"/>
+      <c r="B256" s="52"/>
+      <c r="C256" s="52"/>
     </row>
     <row r="257" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -13367,11 +13541,11 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="51" t="s">
+      <c r="A263" s="52" t="s">
         <v>556</v>
       </c>
-      <c r="B263" s="51"/>
-      <c r="C263" s="51"/>
+      <c r="B263" s="52"/>
+      <c r="C263" s="52"/>
     </row>
     <row r="264" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -13454,11 +13628,11 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="57" t="s">
+      <c r="A274" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="B274" s="57"/>
-      <c r="C274" s="57"/>
+      <c r="B274" s="58"/>
+      <c r="C274" s="58"/>
     </row>
     <row r="275" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -13466,11 +13640,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="51" t="s">
+      <c r="A278" s="52" t="s">
         <v>593</v>
       </c>
-      <c r="B278" s="51"/>
-      <c r="C278" s="51"/>
+      <c r="B278" s="52"/>
+      <c r="C278" s="52"/>
     </row>
     <row r="279" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -13526,11 +13700,11 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="51" t="s">
+      <c r="A288" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="B288" s="51"/>
-      <c r="C288" s="51"/>
+      <c r="B288" s="52"/>
+      <c r="C288" s="52"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -13557,11 +13731,11 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="51" t="s">
+      <c r="A293" s="52" t="s">
         <v>612</v>
       </c>
-      <c r="B293" s="51"/>
-      <c r="C293" s="51"/>
+      <c r="B293" s="52"/>
+      <c r="C293" s="52"/>
     </row>
     <row r="294" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
@@ -13612,11 +13786,11 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="51" t="s">
+      <c r="A301" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="B301" s="51"/>
-      <c r="C301" s="51"/>
+      <c r="B301" s="52"/>
+      <c r="C301" s="52"/>
       <c r="D301" s="3" t="s">
         <v>637</v>
       </c>
@@ -13665,11 +13839,11 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="51" t="s">
+      <c r="A310" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="B310" s="51"/>
-      <c r="C310" s="51"/>
+      <c r="B310" s="52"/>
+      <c r="C310" s="52"/>
     </row>
     <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
@@ -13721,17 +13895,17 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="52" t="s">
+      <c r="A316" s="53" t="s">
         <v>677</v>
       </c>
-      <c r="B316" s="53"/>
+      <c r="B316" s="54"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="51" t="s">
+      <c r="A318" s="52" t="s">
         <v>776</v>
       </c>
-      <c r="B318" s="51"/>
-      <c r="C318" s="51"/>
+      <c r="B318" s="52"/>
+      <c r="C318" s="52"/>
     </row>
     <row r="319" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A319" s="36" t="s">
@@ -13809,11 +13983,11 @@
       <c r="C327" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="57" t="s">
+      <c r="A329" s="58" t="s">
         <v>797</v>
       </c>
-      <c r="B329" s="57"/>
-      <c r="C329" s="57"/>
+      <c r="B329" s="58"/>
+      <c r="C329" s="58"/>
     </row>
     <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
@@ -13849,11 +14023,11 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="57" t="s">
+      <c r="A334" s="58" t="s">
         <v>807</v>
       </c>
-      <c r="B334" s="57"/>
-      <c r="C334" s="57"/>
+      <c r="B334" s="58"/>
+      <c r="C334" s="58"/>
     </row>
     <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -13880,11 +14054,11 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="51" t="s">
+      <c r="A339" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="B339" s="51"/>
-      <c r="C339" s="51"/>
+      <c r="B339" s="52"/>
+      <c r="C339" s="52"/>
     </row>
     <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -13903,11 +14077,11 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="57" t="s">
+      <c r="A343" s="58" t="s">
         <v>818</v>
       </c>
-      <c r="B343" s="57"/>
-      <c r="C343" s="57"/>
+      <c r="B343" s="58"/>
+      <c r="C343" s="58"/>
     </row>
     <row r="344" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
@@ -13994,11 +14168,11 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="51" t="s">
+      <c r="A354" s="52" t="s">
         <v>843</v>
       </c>
-      <c r="B354" s="51"/>
-      <c r="C354" s="51"/>
+      <c r="B354" s="52"/>
+      <c r="C354" s="52"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
@@ -14036,11 +14210,11 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="69" t="s">
+      <c r="A362" s="70" t="s">
         <v>844</v>
       </c>
-      <c r="B362" s="69"/>
-      <c r="C362" s="69"/>
+      <c r="B362" s="70"/>
+      <c r="C362" s="70"/>
     </row>
     <row r="363" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
@@ -14054,11 +14228,11 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="51" t="s">
+      <c r="A366" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="B366" s="51"/>
-      <c r="C366" s="51"/>
+      <c r="B366" s="52"/>
+      <c r="C366" s="52"/>
     </row>
     <row r="367" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
@@ -14144,11 +14318,11 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="57" t="s">
+      <c r="A378" s="58" t="s">
         <v>874</v>
       </c>
-      <c r="B378" s="57"/>
-      <c r="C378" s="57"/>
+      <c r="B378" s="58"/>
+      <c r="C378" s="58"/>
     </row>
     <row r="379" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
@@ -14202,11 +14376,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="57" t="s">
+      <c r="A385" s="58" t="s">
         <v>889</v>
       </c>
-      <c r="B385" s="57"/>
-      <c r="C385" s="57"/>
+      <c r="B385" s="58"/>
+      <c r="C385" s="58"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -14260,11 +14434,11 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="51" t="s">
+      <c r="A393" s="52" t="s">
         <v>905</v>
       </c>
-      <c r="B393" s="51"/>
-      <c r="C393" s="51"/>
+      <c r="B393" s="52"/>
+      <c r="C393" s="52"/>
     </row>
     <row r="394" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
@@ -14291,11 +14465,11 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="57" t="s">
+      <c r="A397" s="58" t="s">
         <v>912</v>
       </c>
-      <c r="B397" s="57"/>
-      <c r="C397" s="57"/>
+      <c r="B397" s="58"/>
+      <c r="C397" s="58"/>
     </row>
     <row r="398" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
@@ -14314,11 +14488,11 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="51" t="s">
+      <c r="A401" s="52" t="s">
         <v>968</v>
       </c>
-      <c r="B401" s="51"/>
-      <c r="C401" s="51"/>
+      <c r="B401" s="52"/>
+      <c r="C401" s="52"/>
     </row>
     <row r="403" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -14353,11 +14527,11 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="51" t="s">
+      <c r="A409" s="52" t="s">
         <v>969</v>
       </c>
-      <c r="B409" s="51"/>
-      <c r="C409" s="51"/>
+      <c r="B409" s="52"/>
+      <c r="C409" s="52"/>
     </row>
     <row r="410" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
@@ -14414,11 +14588,11 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="51" t="s">
+      <c r="A417" s="52" t="s">
         <v>1004</v>
       </c>
-      <c r="B417" s="51"/>
-      <c r="C417" s="51"/>
+      <c r="B417" s="52"/>
+      <c r="C417" s="52"/>
     </row>
     <row r="418" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -14427,7 +14601,7 @@
       <c r="B418" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="C418" s="67" t="s">
+      <c r="C418" s="68" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -14438,7 +14612,7 @@
       <c r="B419" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C419" s="67"/>
+      <c r="C419" s="68"/>
     </row>
     <row r="420" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
@@ -14447,7 +14621,7 @@
       <c r="B420" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="C420" s="67"/>
+      <c r="C420" s="68"/>
     </row>
     <row r="421" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
@@ -14456,7 +14630,7 @@
       <c r="B421" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C421" s="67"/>
+      <c r="C421" s="68"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
@@ -14465,7 +14639,7 @@
       <c r="B422" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C422" s="67"/>
+      <c r="C422" s="68"/>
     </row>
     <row r="423" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
@@ -14474,7 +14648,7 @@
       <c r="B423" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C423" s="67"/>
+      <c r="C423" s="68"/>
     </row>
     <row r="424" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
@@ -14483,7 +14657,7 @@
       <c r="B424" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C424" s="67"/>
+      <c r="C424" s="68"/>
     </row>
     <row r="425" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
@@ -14492,7 +14666,7 @@
       <c r="B425" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="C425" s="67"/>
+      <c r="C425" s="68"/>
     </row>
     <row r="426" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
@@ -14501,7 +14675,7 @@
       <c r="B426" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C426" s="67"/>
+      <c r="C426" s="68"/>
     </row>
     <row r="427" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
@@ -14515,11 +14689,11 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="57" t="s">
+      <c r="A429" s="58" t="s">
         <v>1032</v>
       </c>
-      <c r="B429" s="57"/>
-      <c r="C429" s="57"/>
+      <c r="B429" s="58"/>
+      <c r="C429" s="58"/>
     </row>
     <row r="430" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
@@ -14546,11 +14720,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="57" t="s">
+      <c r="A435" s="58" t="s">
         <v>1044</v>
       </c>
-      <c r="B435" s="57"/>
-      <c r="C435" s="57"/>
+      <c r="B435" s="58"/>
+      <c r="C435" s="58"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
@@ -14593,11 +14767,11 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="57" t="s">
+      <c r="A442" s="58" t="s">
         <v>1061</v>
       </c>
-      <c r="B442" s="57"/>
-      <c r="C442" s="57"/>
+      <c r="B442" s="58"/>
+      <c r="C442" s="58"/>
     </row>
     <row r="443" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
@@ -14640,11 +14814,11 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="57" t="s">
+      <c r="A449" s="58" t="s">
         <v>1066</v>
       </c>
-      <c r="B449" s="57"/>
-      <c r="C449" s="57"/>
+      <c r="B449" s="58"/>
+      <c r="C449" s="58"/>
     </row>
     <row r="450" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
@@ -14698,11 +14872,11 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="51" t="s">
+      <c r="A458" s="52" t="s">
         <v>1088</v>
       </c>
-      <c r="B458" s="51"/>
-      <c r="C458" s="51"/>
+      <c r="B458" s="52"/>
+      <c r="C458" s="52"/>
     </row>
     <row r="459" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
@@ -14732,11 +14906,11 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="57" t="s">
+      <c r="A462" s="58" t="s">
         <v>1089</v>
       </c>
-      <c r="B462" s="57"/>
-      <c r="C462" s="57"/>
+      <c r="B462" s="58"/>
+      <c r="C462" s="58"/>
     </row>
     <row r="463" spans="1:3" ht="378" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
@@ -14755,11 +14929,11 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="57" t="s">
+      <c r="A466" s="58" t="s">
         <v>1098</v>
       </c>
-      <c r="B466" s="57"/>
-      <c r="C466" s="57"/>
+      <c r="B466" s="58"/>
+      <c r="C466" s="58"/>
     </row>
     <row r="467" spans="1:3" ht="224" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
@@ -14797,11 +14971,11 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="51" t="s">
+      <c r="A472" s="52" t="s">
         <v>1317</v>
       </c>
-      <c r="B472" s="51"/>
-      <c r="C472" s="51"/>
+      <c r="B472" s="52"/>
+      <c r="C472" s="52"/>
     </row>
     <row r="473" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
@@ -14810,7 +14984,7 @@
       <c r="B473" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="C473" s="68" t="s">
+      <c r="C473" s="69" t="s">
         <v>1322</v>
       </c>
     </row>
@@ -14821,7 +14995,7 @@
       <c r="B474" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C474" s="68"/>
+      <c r="C474" s="69"/>
     </row>
     <row r="475" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
@@ -14830,7 +15004,7 @@
       <c r="B475" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="C475" s="68" t="s">
+      <c r="C475" s="69" t="s">
         <v>358</v>
       </c>
     </row>
@@ -14841,7 +15015,7 @@
       <c r="B476" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C476" s="68"/>
+      <c r="C476" s="69"/>
     </row>
     <row r="477" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
@@ -14850,7 +15024,7 @@
       <c r="B477" s="18" t="s">
         <v>1326</v>
       </c>
-      <c r="C477" s="68" t="s">
+      <c r="C477" s="69" t="s">
         <v>360</v>
       </c>
     </row>
@@ -14861,7 +15035,7 @@
       <c r="B478" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="C478" s="68"/>
+      <c r="C478" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="74">

--- a/fluttre  (1) (1).xlsx
+++ b/fluttre  (1) (1).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="657" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90B2C5E-7982-4A45-BFBD-0257EE8ED9CD}"/>
+  <xr:revisionPtr revIDLastSave="738" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D097C399-15E8-4B7C-9026-58065E171690}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="fluttre" sheetId="1" r:id="rId1"/>
     <sheet name="المقدمة" sheetId="3" r:id="rId2"/>
-    <sheet name="provider" sheetId="4" r:id="rId3"/>
-    <sheet name="dart" sheetId="2" r:id="rId4"/>
+    <sheet name="firebase قاعد البينات السحابية" sheetId="5" r:id="rId3"/>
+    <sheet name="provider" sheetId="4" r:id="rId4"/>
+    <sheet name="dart" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1436">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -7031,12 +7032,227 @@
   <si>
     <t>قناة تشرح Provider</t>
   </si>
+  <si>
+    <t>firebase</t>
+  </si>
+  <si>
+    <t>قاعدة بينات سحابية من قوقل</t>
+  </si>
+  <si>
+    <t>طريقة التثبية في المشروع</t>
+  </si>
+  <si>
+    <t>import 'package:firebase_core/firebase_core.dart';</t>
+  </si>
+  <si>
+    <t>firebase_auth: ^4.4.2</t>
+  </si>
+  <si>
+    <t>import 'package:firebase_auth/firebase_auth.dart';</t>
+  </si>
+  <si>
+    <t>https://console.firebase.google.com/u/0/</t>
+  </si>
+  <si>
+    <t>تضع هذا الكود في ملف pubspec.yaml</t>
+  </si>
+  <si>
+    <t>وهذ الكود في الصفحه الرئيسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  firebase_core: ^2.10.0</t>
+  </si>
+  <si>
+    <t>تروح لموقع الفاير بيس وتسوي حساب 
+تروح لكلمة 
+Add project
+لفتح مشروع جديد
+ثم تحط اسم المشروع  وتضغط انتر
+وتقفل الزر الي يجيك ازرق حق الاحصائيات
+وتروح على الصورة الي فيها نظام اندرويد وتضغط</t>
+  </si>
+  <si>
+    <t>وبعدين في الموقع بيجيك اسم المشروع حقك بعد الكلمة
+Android package name
+واسم المشروع في ملف الاندرويد الي بلون الأزرق</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;app&gt;build.gradle&gt;
+وتنسخ الكلمة هذي وتبحث في الملف
+applicationId
+تنسخ الي بلون الأحمر وتحطها في الموقع
+applicationId "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.example.flutter_application_16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> android&gt;app&gt;build.gradle&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minSdkVersion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 21</t>
+    </r>
+  </si>
+  <si>
+    <t>وبعدها في نفس الملف تحث عن الكلمة الي لونها احمر وتمسح الي 
+بعدها وتكتب 21
+كيف تعرف بانها 21؟
+فوق الكلمة الي بلون الأحمر في نفس الملف في رابط ادخل علية
+وابحث عن min sdk
+وبتلقى الرقم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Download and then add config file</t>
+  </si>
+  <si>
+    <t>وبعد ماتخلص تروح للموقع ويظهر لك ملف  للتحميل حمله
+وتنقله لملف android&gt;app</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'com.google.gms:google-services:4.3.15'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>android&gt;build.gradle&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dependencies</t>
+    </r>
+  </si>
+  <si>
+    <t>وبعدها في نفس الموقع تضغط انتر ثما ترح للكلمة بلون الأحمر
+وتروح للملف بلون الأزرق وتضيفها مع اخوتها</t>
+  </si>
+  <si>
+    <t>android&gt;app&gt;build.gradle</t>
+  </si>
+  <si>
+    <t>وفي نفس الصفحه حق قوقل بتلقى 
+  id 'com.google.gms.google-services'
+انسخها وتحطها في  الملف بلون الأحمر
+وابحث عن كلمة apply plugin
+وتضيف قبلها apply plugin ثما تحط بعدها id</t>
+  </si>
+  <si>
+    <t>Future&lt;void&gt; main() async {
+    WidgetsFlutterBinding.ensureInitialized();
+    await Firebase.initializeApp();
+    runApp(const MyApp());
+ }</t>
+  </si>
+  <si>
+    <t>بعدها اضغط انتر وترح للملف min وتحذف الفونكشن
+void main(){
+}
+وتحط مكانها
+بعدها الأفضل تطفي المحاكي وتشغله علشان اذا في مشكله بتظهر</t>
+  </si>
+  <si>
+    <t>ارسال البينات</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7224,6 +7440,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -7372,7 +7595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7528,29 +7751,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7558,10 +7775,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7573,14 +7796,14 @@
     <xf numFmtId="20" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7615,14 +7838,8 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7945,8 +8162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="B561" sqref="B561"/>
+    <sheetView rightToLeft="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7957,10 +8174,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -8128,10 +8345,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="63"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -8190,10 +8407,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="58"/>
+      <c r="B36" s="54"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -8236,10 +8453,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="58"/>
+      <c r="B49" s="54"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -8258,10 +8475,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="58"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -8391,11 +8608,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -8963,11 +9180,11 @@
       <c r="A163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="59" t="s">
+      <c r="A164" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="58"/>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
@@ -9010,11 +9227,11 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="58" t="s">
+      <c r="A171" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B171" s="58"/>
-      <c r="C171" s="58"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="54"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
@@ -9049,11 +9266,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="58" t="s">
+      <c r="A177" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="B177" s="58"/>
-      <c r="C177" s="58"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="54"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
@@ -9088,11 +9305,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="58" t="s">
+      <c r="A183" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
@@ -9170,11 +9387,11 @@
       <c r="C197" s="52"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="58" t="s">
+      <c r="A198" s="54" t="s">
         <v>1272</v>
       </c>
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="54"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
@@ -9211,11 +9428,11 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="61" t="s">
+      <c r="A204" s="59" t="s">
         <v>1271</v>
       </c>
-      <c r="B204" s="61"/>
-      <c r="C204" s="61"/>
+      <c r="B204" s="59"/>
+      <c r="C204" s="59"/>
     </row>
     <row r="205" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
@@ -9380,11 +9597,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="62" t="s">
+      <c r="A233" s="60" t="s">
         <v>1281</v>
       </c>
-      <c r="B233" s="62"/>
-      <c r="C233" s="62"/>
+      <c r="B233" s="60"/>
+      <c r="C233" s="60"/>
     </row>
     <row r="234" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
@@ -9535,11 +9752,11 @@
       <c r="A265" s="3"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="59" t="s">
+      <c r="A266" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B266" s="59"/>
-      <c r="C266" s="59"/>
+      <c r="B266" s="58"/>
+      <c r="C266" s="58"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
@@ -9678,7 +9895,7 @@
       <c r="A289" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B289" s="53" t="s">
+      <c r="B289" s="57" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9686,7 +9903,7 @@
       <c r="A290" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B290" s="53"/>
+      <c r="B290" s="57"/>
     </row>
     <row r="291" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
@@ -9813,11 +10030,11 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="58" t="s">
+      <c r="A309" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="B309" s="58"/>
-      <c r="C309" s="58"/>
+      <c r="B309" s="54"/>
+      <c r="C309" s="54"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
@@ -9983,10 +10200,10 @@
       <c r="B335" s="52"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="58" t="s">
+      <c r="A336" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="B336" s="58"/>
+      <c r="B336" s="54"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
@@ -9995,7 +10212,7 @@
       <c r="B337" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C337" s="53" t="s">
+      <c r="C337" s="57" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10006,7 +10223,7 @@
       <c r="B338" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C338" s="54"/>
+      <c r="C338" s="56"/>
     </row>
     <row r="339" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
@@ -10015,7 +10232,7 @@
       <c r="B339" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C339" s="54"/>
+      <c r="C339" s="56"/>
     </row>
     <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -10026,11 +10243,11 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="55" t="s">
+      <c r="A342" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="B342" s="56"/>
-      <c r="C342" s="57"/>
+      <c r="B342" s="64"/>
+      <c r="C342" s="63"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
@@ -10296,11 +10513,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="58" t="s">
+      <c r="A385" s="54" t="s">
         <v>924</v>
       </c>
-      <c r="B385" s="58"/>
-      <c r="C385" s="58"/>
+      <c r="B385" s="54"/>
+      <c r="C385" s="54"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -10367,7 +10584,7 @@
       <c r="A394" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B394" s="54" t="s">
+      <c r="B394" s="56" t="s">
         <v>938</v>
       </c>
     </row>
@@ -10375,7 +10592,7 @@
       <c r="A395" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="B395" s="54"/>
+      <c r="B395" s="56"/>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
@@ -10412,7 +10629,7 @@
       <c r="A402" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B402" s="53" t="s">
+      <c r="B402" s="57" t="s">
         <v>950</v>
       </c>
     </row>
@@ -10420,7 +10637,7 @@
       <c r="A403" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B403" s="54"/>
+      <c r="B403" s="56"/>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
@@ -10593,7 +10810,7 @@
       <c r="A428" s="45" t="s">
         <v>1177</v>
       </c>
-      <c r="B428" s="63" t="s">
+      <c r="B428" s="55" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -10601,7 +10818,7 @@
       <c r="A429" s="45" t="s">
         <v>1179</v>
       </c>
-      <c r="B429" s="63"/>
+      <c r="B429" s="55"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
@@ -10734,10 +10951,10 @@
       <c r="C453" s="52"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="58" t="s">
+      <c r="A454" s="54" t="s">
         <v>1128</v>
       </c>
-      <c r="B454" s="58"/>
+      <c r="B454" s="54"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
@@ -10804,10 +11021,10 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="58" t="s">
+      <c r="A468" s="54" t="s">
         <v>1129</v>
       </c>
-      <c r="B468" s="58"/>
+      <c r="B468" s="54"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="52" t="s">
@@ -10945,11 +11162,11 @@
       </c>
     </row>
     <row r="498" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A498" s="64" t="s">
+      <c r="A498" s="53" t="s">
         <v>1185</v>
       </c>
-      <c r="B498" s="64"/>
-      <c r="C498" s="64"/>
+      <c r="B498" s="53"/>
+      <c r="C498" s="53"/>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="47" t="s">
@@ -10975,11 +11192,11 @@
       <c r="A503" s="46"/>
     </row>
     <row r="504" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A504" s="64" t="s">
+      <c r="A504" s="53" t="s">
         <v>1193</v>
       </c>
-      <c r="B504" s="64"/>
-      <c r="C504" s="64"/>
+      <c r="B504" s="53"/>
+      <c r="C504" s="53"/>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
@@ -11495,16 +11712,47 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A556:C556"/>
-    <mergeCell ref="A549:C549"/>
-    <mergeCell ref="A498:C498"/>
-    <mergeCell ref="A504:C504"/>
-    <mergeCell ref="A453:C453"/>
-    <mergeCell ref="A454:B454"/>
-    <mergeCell ref="A527:C527"/>
-    <mergeCell ref="A534:C534"/>
-    <mergeCell ref="A541:C541"/>
-    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="B402:B403"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A233:C233"/>
     <mergeCell ref="A417:C417"/>
     <mergeCell ref="B428:B429"/>
     <mergeCell ref="A494:C494"/>
@@ -11521,47 +11769,16 @@
     <mergeCell ref="A325:C325"/>
     <mergeCell ref="A309:C309"/>
     <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="B402:B403"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A556:C556"/>
+    <mergeCell ref="A549:C549"/>
+    <mergeCell ref="A498:C498"/>
+    <mergeCell ref="A504:C504"/>
+    <mergeCell ref="A453:C453"/>
+    <mergeCell ref="A454:B454"/>
+    <mergeCell ref="A527:C527"/>
+    <mergeCell ref="A534:C534"/>
+    <mergeCell ref="A541:C541"/>
+    <mergeCell ref="A477:C477"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -11590,7 +11807,7 @@
   <dimension ref="G7:J13"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11601,7 +11818,7 @@
       </c>
       <c r="H7" s="65"/>
       <c r="I7" s="66">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="J7" s="66"/>
     </row>
@@ -11621,7 +11838,7 @@
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="67">
-        <v>0</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="J12" s="66"/>
     </row>
@@ -11644,10 +11861,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B2E3C-F508-4BEB-A92C-BE6576F671A4}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="68.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B3" s="68"/>
+    </row>
+    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="98" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="98" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="52" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B16" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{254B2BB8-DC48-46D4-B80E-73F7285469BF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DCBDB7-EC77-4BC4-A473-C8B731D3E8F1}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -11675,10 +12035,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>1337</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -11716,10 +12076,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>1392</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
     </row>
     <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -11731,11 +12091,11 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="60" t="s">
         <v>1403</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
     </row>
     <row r="12" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -11767,10 +12127,10 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="1" t="s">
         <v>1407</v>
       </c>
       <c r="C15" s="3"/>
@@ -11806,10 +12166,10 @@
       <c r="C19" s="69"/>
     </row>
     <row r="20" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="1" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -11862,11 +12222,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
   <dimension ref="A1:D478"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A176" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A218" workbookViewId="0">
       <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
@@ -11911,11 +12271,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="54" t="s">
         <v>1109</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="12" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -12006,11 +12366,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="54" t="s">
         <v>1316</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -12812,10 +13172,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="82" t="s">
+      <c r="A131" s="70" t="s">
         <v>638</v>
       </c>
-      <c r="B131" s="82"/>
+      <c r="B131" s="70"/>
     </row>
     <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -12834,18 +13194,18 @@
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="58" t="s">
         <v>639</v>
       </c>
-      <c r="B135" s="59"/>
-      <c r="C135" s="59"/>
+      <c r="B135" s="58"/>
+      <c r="C135" s="58"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="62" t="s">
+      <c r="A136" s="60" t="s">
         <v>642</v>
       </c>
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="60"/>
     </row>
     <row r="137" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
@@ -12860,11 +13220,11 @@
       <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="62" t="s">
+      <c r="A139" s="60" t="s">
         <v>643</v>
       </c>
-      <c r="B139" s="62"/>
-      <c r="C139" s="62"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
@@ -12887,11 +13247,11 @@
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="62" t="s">
+      <c r="A145" s="60" t="s">
         <v>645</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
     </row>
     <row r="146" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
@@ -12904,11 +13264,11 @@
       <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="62" t="s">
+      <c r="A148" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
     </row>
     <row r="149" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -12995,10 +13355,10 @@
       <c r="C170" s="52"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="53" t="s">
+      <c r="A171" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="B171" s="53"/>
+      <c r="B171" s="57"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="52" t="s">
@@ -13032,11 +13392,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="58" t="s">
+      <c r="A178" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="B178" s="58"/>
-      <c r="C178" s="58"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="54"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -13055,11 +13415,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="58" t="s">
+      <c r="A183" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="58"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="54"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -13078,11 +13438,11 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="58" t="s">
+      <c r="A187" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="B187" s="58"/>
-      <c r="C187" s="58"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="54"/>
     </row>
     <row r="188" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -13101,11 +13461,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="58" t="s">
+      <c r="A192" s="54" t="s">
         <v>426</v>
       </c>
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
+      <c r="B192" s="54"/>
+      <c r="C192" s="54"/>
     </row>
     <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -13187,11 +13547,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="58" t="s">
+      <c r="A207" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="B207" s="58"/>
-      <c r="C207" s="58"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="54"/>
     </row>
     <row r="208" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -13275,11 +13635,11 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="58" t="s">
+      <c r="A221" s="54" t="s">
         <v>473</v>
       </c>
-      <c r="B221" s="58"/>
-      <c r="C221" s="58"/>
+      <c r="B221" s="54"/>
+      <c r="C221" s="54"/>
     </row>
     <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
@@ -13325,11 +13685,11 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="58" t="s">
+      <c r="A228" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="B228" s="58"/>
-      <c r="C228" s="58"/>
+      <c r="B228" s="54"/>
+      <c r="C228" s="54"/>
     </row>
     <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -13414,11 +13774,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="58" t="s">
+      <c r="A242" s="54" t="s">
         <v>679</v>
       </c>
-      <c r="B242" s="58"/>
-      <c r="C242" s="58"/>
+      <c r="B242" s="54"/>
+      <c r="C242" s="54"/>
     </row>
     <row r="243" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A243" s="24" t="s">
@@ -13628,11 +13988,11 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="58" t="s">
+      <c r="A274" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="B274" s="58"/>
-      <c r="C274" s="58"/>
+      <c r="B274" s="54"/>
+      <c r="C274" s="54"/>
     </row>
     <row r="275" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -13895,10 +14255,10 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="53" t="s">
+      <c r="A316" s="57" t="s">
         <v>677</v>
       </c>
-      <c r="B316" s="54"/>
+      <c r="B316" s="56"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="52" t="s">
@@ -13983,11 +14343,11 @@
       <c r="C327" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="58" t="s">
+      <c r="A329" s="54" t="s">
         <v>797</v>
       </c>
-      <c r="B329" s="58"/>
-      <c r="C329" s="58"/>
+      <c r="B329" s="54"/>
+      <c r="C329" s="54"/>
     </row>
     <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
@@ -14023,11 +14383,11 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="58" t="s">
+      <c r="A334" s="54" t="s">
         <v>807</v>
       </c>
-      <c r="B334" s="58"/>
-      <c r="C334" s="58"/>
+      <c r="B334" s="54"/>
+      <c r="C334" s="54"/>
     </row>
     <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -14077,11 +14437,11 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="58" t="s">
+      <c r="A343" s="54" t="s">
         <v>818</v>
       </c>
-      <c r="B343" s="58"/>
-      <c r="C343" s="58"/>
+      <c r="B343" s="54"/>
+      <c r="C343" s="54"/>
     </row>
     <row r="344" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
@@ -14210,11 +14570,11 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="70" t="s">
+      <c r="A362" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="B362" s="70"/>
-      <c r="C362" s="70"/>
+      <c r="B362" s="68"/>
+      <c r="C362" s="68"/>
     </row>
     <row r="363" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
@@ -14318,11 +14678,11 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="58" t="s">
+      <c r="A378" s="54" t="s">
         <v>874</v>
       </c>
-      <c r="B378" s="58"/>
-      <c r="C378" s="58"/>
+      <c r="B378" s="54"/>
+      <c r="C378" s="54"/>
     </row>
     <row r="379" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
@@ -14376,11 +14736,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="58" t="s">
+      <c r="A385" s="54" t="s">
         <v>889</v>
       </c>
-      <c r="B385" s="58"/>
-      <c r="C385" s="58"/>
+      <c r="B385" s="54"/>
+      <c r="C385" s="54"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -14465,11 +14825,11 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="58" t="s">
+      <c r="A397" s="54" t="s">
         <v>912</v>
       </c>
-      <c r="B397" s="58"/>
-      <c r="C397" s="58"/>
+      <c r="B397" s="54"/>
+      <c r="C397" s="54"/>
     </row>
     <row r="398" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
@@ -14601,7 +14961,7 @@
       <c r="B418" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="C418" s="68" t="s">
+      <c r="C418" s="82" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -14612,7 +14972,7 @@
       <c r="B419" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C419" s="68"/>
+      <c r="C419" s="82"/>
     </row>
     <row r="420" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
@@ -14621,7 +14981,7 @@
       <c r="B420" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="C420" s="68"/>
+      <c r="C420" s="82"/>
     </row>
     <row r="421" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
@@ -14630,7 +14990,7 @@
       <c r="B421" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C421" s="68"/>
+      <c r="C421" s="82"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
@@ -14639,7 +14999,7 @@
       <c r="B422" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C422" s="68"/>
+      <c r="C422" s="82"/>
     </row>
     <row r="423" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
@@ -14648,7 +15008,7 @@
       <c r="B423" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C423" s="68"/>
+      <c r="C423" s="82"/>
     </row>
     <row r="424" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
@@ -14657,7 +15017,7 @@
       <c r="B424" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C424" s="68"/>
+      <c r="C424" s="82"/>
     </row>
     <row r="425" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
@@ -14666,7 +15026,7 @@
       <c r="B425" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="C425" s="68"/>
+      <c r="C425" s="82"/>
     </row>
     <row r="426" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
@@ -14675,7 +15035,7 @@
       <c r="B426" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C426" s="68"/>
+      <c r="C426" s="82"/>
     </row>
     <row r="427" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
@@ -14689,11 +15049,11 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="58" t="s">
+      <c r="A429" s="54" t="s">
         <v>1032</v>
       </c>
-      <c r="B429" s="58"/>
-      <c r="C429" s="58"/>
+      <c r="B429" s="54"/>
+      <c r="C429" s="54"/>
     </row>
     <row r="430" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
@@ -14720,11 +15080,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="58" t="s">
+      <c r="A435" s="54" t="s">
         <v>1044</v>
       </c>
-      <c r="B435" s="58"/>
-      <c r="C435" s="58"/>
+      <c r="B435" s="54"/>
+      <c r="C435" s="54"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
@@ -14767,11 +15127,11 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="58" t="s">
+      <c r="A442" s="54" t="s">
         <v>1061</v>
       </c>
-      <c r="B442" s="58"/>
-      <c r="C442" s="58"/>
+      <c r="B442" s="54"/>
+      <c r="C442" s="54"/>
     </row>
     <row r="443" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
@@ -14814,11 +15174,11 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="58" t="s">
+      <c r="A449" s="54" t="s">
         <v>1066</v>
       </c>
-      <c r="B449" s="58"/>
-      <c r="C449" s="58"/>
+      <c r="B449" s="54"/>
+      <c r="C449" s="54"/>
     </row>
     <row r="450" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
@@ -14906,11 +15266,11 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="58" t="s">
+      <c r="A462" s="54" t="s">
         <v>1089</v>
       </c>
-      <c r="B462" s="58"/>
-      <c r="C462" s="58"/>
+      <c r="B462" s="54"/>
+      <c r="C462" s="54"/>
     </row>
     <row r="463" spans="1:3" ht="378" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
@@ -14929,11 +15289,11 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="58" t="s">
+      <c r="A466" s="54" t="s">
         <v>1098</v>
       </c>
-      <c r="B466" s="58"/>
-      <c r="C466" s="58"/>
+      <c r="B466" s="54"/>
+      <c r="C466" s="54"/>
     </row>
     <row r="467" spans="1:3" ht="224" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
@@ -15039,6 +15399,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="C418:C426"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A274:C274"/>
     <mergeCell ref="A472:C472"/>
     <mergeCell ref="C473:C474"/>
     <mergeCell ref="C475:C476"/>
@@ -15055,64 +15473,6 @@
     <mergeCell ref="A409:C409"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="C418:C426"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A263:C263"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A379" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>

--- a/fluttre  (1) (1).xlsx
+++ b/fluttre  (1) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="914" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEBCD9A-D587-41F0-8C18-C21628509DE9}"/>
+  <xr:revisionPtr revIDLastSave="1010" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE859DF5-4778-4517-BB21-D6AB22C06178}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="المقدمة" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1575">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -7223,9 +7223,6 @@
     <t>وهذه البكج مخصصه للتحقق من طريقة كتابة الايميل</t>
   </si>
   <si>
-    <t>طريقة التثبيت</t>
-  </si>
-  <si>
     <t>email_validator: '^2.1.16'</t>
   </si>
   <si>
@@ -7282,16 +7279,6 @@
     <t>لصناعة فورم للتحقق من صحة البينات</t>
   </si>
   <si>
-    <t>TextFormField(
-  validator: (value) {
-    if (value == null || value.isEmpty) {
-      return 'Please enter some text';
-    }
-    return null;
-  },
-),</t>
-  </si>
-  <si>
     <t>مربع حوار يعني تكتب فيه 
 وهو نفسه نفس TextField(),يأخذ كل خصائصه
 راجع flutter سطر 297</t>
@@ -7299,9 +7286,6 @@
   <si>
     <t xml:space="preserve">وهنا عملية التحقق داخل ودجت البتن 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  تصميم الديكور حق التحقق من مربع الادخالForm</t>
   </si>
   <si>
     <r>
@@ -7609,12 +7593,196 @@
   <si>
     <t>اظهر الحجز وتكون على شكل رسالة اسفل الشاشة</t>
   </si>
+  <si>
+    <t xml:space="preserve"> TextFormField(
+                validator: (value) {
+                  return value != null &amp;&amp; !EmailValidator.validate(value)
+                      ? "كلمة المرور غير صالحه"
+                      : null;
+                },</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> onPressed: () {
+                  if (fff.currentState!.validate()) {
+                    red();
+                  } else {
+                    print("خطاء ما");
+                  }
+                },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegExp ودجت للتحقق من الكلمات </t>
+  </si>
+  <si>
+    <t>RegExp(r"^(a*|b)*c");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اذا عندك مربع حوار وتبي من العميل مايدخل بعض
+الحروف او الكلمات </t>
+  </si>
+  <si>
+    <t>isCaseSensitive</t>
+  </si>
+  <si>
+    <t>isDotAll</t>
+  </si>
+  <si>
+    <t>isMultiLine</t>
+  </si>
+  <si>
+    <t>isUnicode</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>TextFormField(
+  validator: (value) {
+والفاليو يمثل التكست الي داخل مربع الحوار الي انت تدخله
+ return value!.contains(RegExp(r'(\w+)'))
+                  ?null:
+                  "hhhhhhhh";  
+    وهنا يقول شغل قيمة التكست وبعدها نقطة وبعدها أداة تعطي صح او خطاء وفي داخلها الشرط 
+وهي ودجت التحقق من النص اذا كان الشرط صحيح فلا تعطي نتيجه
+واذا كان خطاء اكتب التكست  
+  },
+),</t>
+  </si>
+  <si>
+    <t>TextFormField</t>
+  </si>
+  <si>
+    <t>autovalidateMode</t>
+  </si>
+  <si>
+    <t>initialValue</t>
+  </si>
+  <si>
+    <t>onSaved</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هذا عباره عن فونكشن </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> validator: (value) {
+                  return value!.contains(RegExp(r'(\w+)'))
+                  ?null:
+                  "hhhhhhhh";
+                },</t>
+  </si>
+  <si>
+    <t>createElement</t>
+  </si>
+  <si>
+    <t>createState</t>
+  </si>
+  <si>
+    <t>debugDescribeChildren</t>
+  </si>
+  <si>
+    <t>debugFillProperties</t>
+  </si>
+  <si>
+    <t>noSuchMethod</t>
+  </si>
+  <si>
+    <t>toDiagnosticsNode</t>
+  </si>
+  <si>
+    <t>toString</t>
+  </si>
+  <si>
+    <t>toStringDeep</t>
+  </si>
+  <si>
+    <t>toStringShallow</t>
+  </si>
+  <si>
+    <t>toStringShort</t>
+  </si>
+  <si>
+    <t>OPERATORS</t>
+  </si>
+  <si>
+    <t>operator ==</t>
+  </si>
+  <si>
+    <t>إنشاء نموذج مع التحقق من الصحة</t>
+  </si>
+  <si>
+    <t>إنشاء حقل نص وتصميمه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وهذا حقل ادخل عادي
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وهذا حقل ادخال بـ form
+</t>
+  </si>
+  <si>
+    <t>TextField(
+  decoration: InputDecoration(
+    border: OutlineInputBorder(),
+البورد حقه ثابت 
+    hintText: 'Enter a search term',
+  ),
+),</t>
+  </si>
+  <si>
+    <t>TextFormField(
+  decoration: const InputDecoration(
+    border: UnderlineInputBorder(),
+البورد حقه متحرك
+    labelText: 'Enter your username',
+  ),
+),</t>
+  </si>
+  <si>
+    <t>وكلا الودجت تختلف من ناحية الموثرات</t>
+  </si>
+  <si>
+    <t>onWillPop</t>
+  </si>
+  <si>
+    <t>maybeOf</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>طريقة التثبيت البكج حق التحقق من الايميل في الفلاتر</t>
+  </si>
+  <si>
+    <t>في حالة حدث أي تغير في مربع الادخال يتخذ اجراء 
+زي الفونكشن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   onChanged: (passord) {
+                  changPassord( passord);
+هذه فونكشن وفيها فاريبول 
+بامكانك كتابة أي كود
+                },</t>
+  </si>
+  <si>
+    <t>وهذ الودجت تأخذ كل أنواع العناصر حق TextField</t>
+  </si>
+  <si>
+    <t>"   onChanged: (passord) {
+                  changPassord( passord);
+هذه فونكشن وفيها فاريبول 
+بامكانك كتابة أي كود
+                },"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7794,6 +7962,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -7948,7 +8124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8089,8 +8265,41 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8098,17 +8307,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8122,34 +8340,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8182,32 +8388,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8533,47 +8715,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BA5D66-B077-4F7C-8C4D-58ABB47453BA}">
   <dimension ref="G7:J13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="58" t="s">
         <v>1090</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63">
+      <c r="H7" s="58"/>
+      <c r="I7" s="59">
         <v>13.2</v>
       </c>
-      <c r="J7" s="63"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="7:10" ht="27.5" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="58" t="s">
         <v>1091</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="64">
-        <v>0</v>
-      </c>
-      <c r="J12" s="63"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59">
+        <v>25</v>
+      </c>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8589,27 +8771,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C673"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A341" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A748" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B714" sqref="B714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.58203125" style="82" customWidth="1"/>
+    <col min="1" max="1" width="51.58203125" style="50" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -8617,7 +8799,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -8625,7 +8807,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="49" t="s">
         <v>1089</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -8633,7 +8815,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8641,7 +8823,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -8649,7 +8831,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -8657,7 +8839,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -8665,7 +8847,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8682,14 +8864,14 @@
     </row>
     <row r="12" spans="1:2" ht="112" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="50" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -8706,14 +8888,14 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="50" t="s">
         <v>250</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -8721,7 +8903,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="50" t="s">
         <v>252</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -8729,7 +8911,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="50" t="s">
         <v>254</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -8743,14 +8925,14 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -8758,7 +8940,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -8766,7 +8948,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -8774,13 +8956,13 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="58"/>
+      <c r="B28" s="72"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -8788,7 +8970,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -8796,7 +8978,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -8804,7 +8986,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -8812,7 +8994,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -8820,7 +9002,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -8828,7 +9010,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -8836,13 +9018,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="61"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="50" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -8850,7 +9032,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="50" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -8858,7 +9040,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="50" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -8866,7 +9048,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -8874,7 +9056,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="50" t="s">
         <v>1114</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -8882,13 +9064,13 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="61"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -8896,7 +9078,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -8904,14 +9086,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -8922,7 +9104,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -8933,7 +9115,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -8941,7 +9123,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -8949,7 +9131,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="50" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -8957,16 +9139,16 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="49"/>
+      <c r="B64" s="60"/>
       <c r="C64" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -8977,7 +9159,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -8988,7 +9170,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="82" t="s">
+      <c r="A67" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -8999,7 +9181,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -9010,7 +9192,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -9021,7 +9203,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="82" t="s">
+      <c r="A70" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -9029,7 +9211,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="50" t="s">
         <v>185</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -9037,14 +9219,14 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="50" t="s">
         <v>187</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -9052,7 +9234,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="85" t="s">
+      <c r="A75" s="53" t="s">
         <v>188</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -9060,13 +9242,13 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A76" s="85"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -9099,14 +9281,14 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="50" t="s">
         <v>73</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -9114,15 +9296,15 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="82" t="s">
-        <v>1530</v>
+      <c r="A87" s="50" t="s">
+        <v>1527</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -9141,7 +9323,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="50" t="s">
         <v>623</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -9149,14 +9331,14 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="50" t="s">
         <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -9164,7 +9346,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="50" t="s">
         <v>83</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -9180,14 +9362,14 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="50" t="s">
         <v>85</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -9195,7 +9377,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -9203,7 +9385,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -9211,7 +9393,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="50" t="s">
         <v>281</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -9297,7 +9479,7 @@
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="82" t="s">
+      <c r="A116" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -9305,7 +9487,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="50" t="s">
         <v>93</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -9313,7 +9495,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="82" t="s">
+      <c r="A118" s="50" t="s">
         <v>97</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -9321,13 +9503,13 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="49"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>449</v>
       </c>
@@ -9339,7 +9521,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A121" s="82" t="s">
+      <c r="A121" s="50" t="s">
         <v>95</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -9350,7 +9532,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="82" t="s">
+      <c r="A122" s="50" t="s">
         <v>100</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -9358,7 +9540,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="50" t="s">
         <v>102</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -9374,14 +9556,14 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="49" t="s">
+      <c r="A126" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B126" s="49"/>
-      <c r="C126" s="49"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="60"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="82" t="s">
+      <c r="A127" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -9397,7 +9579,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -9405,7 +9587,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="82" t="s">
+      <c r="A130" s="50" t="s">
         <v>110</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -9413,7 +9595,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="82" t="s">
+      <c r="A131" s="50" t="s">
         <v>655</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -9421,14 +9603,14 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="49" t="s">
+      <c r="A133" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="82" t="s">
+      <c r="A134" s="50" t="s">
         <v>112</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -9436,7 +9618,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="82" t="s">
+      <c r="A135" s="50" t="s">
         <v>114</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -9444,7 +9626,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="82" t="s">
+      <c r="A136" s="50" t="s">
         <v>116</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -9452,7 +9634,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="82" t="s">
+      <c r="A137" s="50" t="s">
         <v>118</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -9460,7 +9642,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="82" t="s">
+      <c r="A138" s="50" t="s">
         <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -9468,14 +9650,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="49" t="s">
+      <c r="A140" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B140" s="49"/>
-      <c r="C140" s="49"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="82" t="s">
+      <c r="A141" s="50" t="s">
         <v>120</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -9491,7 +9673,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="82" t="s">
+      <c r="A143" s="50" t="s">
         <v>124</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -9499,14 +9681,14 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="49" t="s">
+      <c r="A145" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="49"/>
-      <c r="C145" s="49"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="82" t="s">
+      <c r="A146" s="50" t="s">
         <v>126</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -9514,7 +9696,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="82" t="s">
+      <c r="A147" s="50" t="s">
         <v>130</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -9522,7 +9704,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="82" t="s">
+      <c r="A148" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -9530,7 +9712,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="82" t="s">
+      <c r="A149" s="50" t="s">
         <v>110</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -9538,7 +9720,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="82" t="s">
+      <c r="A150" s="50" t="s">
         <v>657</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -9546,11 +9728,11 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
     </row>
     <row r="153" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
@@ -9561,7 +9743,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="82" t="s">
+      <c r="A154" s="50" t="s">
         <v>134</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -9569,14 +9751,14 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="49" t="s">
+      <c r="A157" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="B157" s="49"/>
-      <c r="C157" s="49"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="50" t="s">
         <v>140</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -9584,7 +9766,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="82" t="s">
+      <c r="A159" s="50" t="s">
         <v>142</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -9609,11 +9791,11 @@
       <c r="A163" s="11"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="55" t="s">
+      <c r="A164" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="55"/>
-      <c r="C164" s="55"/>
+      <c r="B164" s="69"/>
+      <c r="C164" s="69"/>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
@@ -9648,7 +9830,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="82" t="s">
+      <c r="A169" s="50" t="s">
         <v>173</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -9656,14 +9838,14 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="50" t="s">
+      <c r="A171" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="61"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="82" t="s">
+      <c r="A172" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -9671,7 +9853,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="82" t="s">
+      <c r="A173" s="50" t="s">
         <v>151</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -9679,7 +9861,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="82" t="s">
+      <c r="A174" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -9687,7 +9869,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="82" t="s">
+      <c r="A175" s="50" t="s">
         <v>153</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -9695,14 +9877,14 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="50" t="s">
+      <c r="A177" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="61"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="82" t="s">
+      <c r="A178" s="50" t="s">
         <v>156</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -9710,7 +9892,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="82" t="s">
+      <c r="A179" s="50" t="s">
         <v>158</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -9718,7 +9900,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="82" t="s">
+      <c r="A180" s="50" t="s">
         <v>160</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -9734,14 +9916,14 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="50" t="s">
+      <c r="A183" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B183" s="50"/>
-      <c r="C183" s="50"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="61"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="82" t="s">
+      <c r="A184" s="50" t="s">
         <v>175</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -9749,7 +9931,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="82" t="s">
+      <c r="A185" s="50" t="s">
         <v>177</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -9773,7 +9955,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="82" t="s">
+      <c r="A188" s="50" t="s">
         <v>183</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -9781,14 +9963,14 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="49" t="s">
+      <c r="A190" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="B190" s="49"/>
-      <c r="C190" s="49"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="60"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="82" t="s">
+      <c r="A191" s="50" t="s">
         <v>177</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -9809,21 +9991,21 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="49" t="s">
+      <c r="A197" s="60" t="s">
         <v>1268</v>
       </c>
-      <c r="B197" s="49"/>
-      <c r="C197" s="49"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="60"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="50" t="s">
+      <c r="A198" s="61" t="s">
         <v>1269</v>
       </c>
-      <c r="B198" s="50"/>
-      <c r="C198" s="50"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="61"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="82" t="s">
+      <c r="A199" s="50" t="s">
         <v>1270</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -9857,21 +10039,21 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="53" t="s">
+      <c r="A204" s="73" t="s">
         <v>1268</v>
       </c>
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
+      <c r="B204" s="73"/>
+      <c r="C204" s="73"/>
     </row>
     <row r="205" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A205" s="82" t="s">
+      <c r="A205" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
         <v>198</v>
       </c>
@@ -9883,7 +10065,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="82" t="s">
+      <c r="A207" s="50" t="s">
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -9891,7 +10073,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="82" t="s">
+      <c r="A208" s="50" t="s">
         <v>200</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -9899,7 +10081,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="82" t="s">
+      <c r="A209" s="50" t="s">
         <v>211</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -10026,11 +10208,11 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="54" t="s">
+      <c r="A233" s="74" t="s">
         <v>1278</v>
       </c>
-      <c r="B233" s="54"/>
-      <c r="C233" s="54"/>
+      <c r="B233" s="74"/>
+      <c r="C233" s="74"/>
     </row>
     <row r="234" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
@@ -10042,52 +10224,52 @@
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="81" t="s">
+      <c r="A235" s="49" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="81" t="s">
+      <c r="A236" s="49" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="81" t="s">
+      <c r="A237" s="49" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="81" t="s">
+      <c r="A238" s="49" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="81" t="s">
+      <c r="A239" s="49" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="81" t="s">
+      <c r="A240" s="49" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="81" t="s">
+      <c r="A241" s="49" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="81" t="s">
+      <c r="A242" s="49" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="81" t="s">
+      <c r="A243" s="49" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="81" t="s">
+      <c r="A244" s="49" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -10097,62 +10279,62 @@
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="81" t="s">
+      <c r="A246" s="49" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="81" t="s">
+      <c r="A247" s="49" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="81" t="s">
+      <c r="A248" s="49" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="81" t="s">
+      <c r="A249" s="49" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="81" t="s">
+      <c r="A250" s="49" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="81" t="s">
+      <c r="A251" s="49" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="81" t="s">
+      <c r="A252" s="49" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="81" t="s">
+      <c r="A253" s="49" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="81" t="s">
+      <c r="A254" s="49" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="81" t="s">
+      <c r="A255" s="49" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="81" t="s">
+      <c r="A256" s="49" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="81" t="s">
+      <c r="A257" s="49" t="s">
         <v>1301</v>
       </c>
     </row>
@@ -10181,14 +10363,14 @@
       <c r="A265" s="11"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="55" t="s">
+      <c r="A266" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="B266" s="55"/>
-      <c r="C266" s="55"/>
+      <c r="B266" s="69"/>
+      <c r="C266" s="69"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="82" t="s">
+      <c r="A267" s="50" t="s">
         <v>208</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -10196,7 +10378,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="82" t="s">
+      <c r="A268" s="50" t="s">
         <v>209</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -10204,7 +10386,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="82" t="s">
+      <c r="A269" s="50" t="s">
         <v>206</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -10212,14 +10394,14 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="49" t="s">
+      <c r="A272" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="B272" s="49"/>
-      <c r="C272" s="49"/>
+      <c r="B272" s="60"/>
+      <c r="C272" s="60"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="82" t="s">
+      <c r="A273" s="50" t="s">
         <v>218</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -10227,7 +10409,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="82" t="s">
+      <c r="A274" s="50" t="s">
         <v>220</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -10251,11 +10433,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="49" t="s">
+      <c r="A278" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="B278" s="49"/>
-      <c r="C278" s="49"/>
+      <c r="B278" s="60"/>
+      <c r="C278" s="60"/>
     </row>
     <row r="279" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
@@ -10274,19 +10456,19 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="49" t="s">
+      <c r="A283" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="B283" s="49"/>
-      <c r="C283" s="49"/>
+      <c r="B283" s="60"/>
+      <c r="C283" s="60"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="82" t="s">
+      <c r="A284" s="50" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A285" s="85" t="s">
+      <c r="A285" s="53" t="s">
         <v>227</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -10301,8 +10483,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A287" s="82" t="s">
+    <row r="287" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A287" s="50" t="s">
         <v>193</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -10321,10 +10503,10 @@
       </c>
     </row>
     <row r="289" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="82" t="s">
+      <c r="A289" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="B289" s="52" t="s">
+      <c r="B289" s="64" t="s">
         <v>240</v>
       </c>
     </row>
@@ -10332,7 +10514,7 @@
       <c r="A290" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B290" s="52"/>
+      <c r="B290" s="64"/>
     </row>
     <row r="291" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
@@ -10343,7 +10525,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="85" t="s">
+      <c r="A292" s="53" t="s">
         <v>237</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -10372,14 +10554,14 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="49" t="s">
+      <c r="A297" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="B297" s="49"/>
-      <c r="C297" s="49"/>
+      <c r="B297" s="60"/>
+      <c r="C297" s="60"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="82" t="s">
+      <c r="A298" s="50" t="s">
         <v>248</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -10388,92 +10570,92 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="42" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="42" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="42" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="42" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="42" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="42" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="42" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="42" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="42" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="42" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="42" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="42" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="42" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="42" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="42" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="42" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="42" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="42" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
@@ -10483,181 +10665,187 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="42" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="42" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="42" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="42" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="42" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="42" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="42" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="42" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="42" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="42" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="42" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="42" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="42" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="42" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="42" t="s">
+    <row r="328" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A328" s="42" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="42" t="s">
+      <c r="B328" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="42" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="42" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="42" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="42" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="42" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="42" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="42" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="42" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="42" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="42" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="42" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="42" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="42" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="42" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="42" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="42" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" s="42" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" s="42" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" s="42" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" s="42" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" s="42" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" s="42" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" s="42" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" s="42" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" s="42" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" s="42" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" s="42" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" s="42" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" s="42" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" s="42" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" s="42" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" s="42" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="82" t="s">
+      <c r="A353" s="50" t="s">
         <v>256</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -10665,7 +10853,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="82" t="s">
+      <c r="A354" s="50" t="s">
         <v>506</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -10673,7 +10861,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="82" t="s">
+      <c r="A355" s="50" t="s">
         <v>508</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -10681,7 +10869,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A356" s="82" t="s">
+      <c r="A356" s="50" t="s">
         <v>1105</v>
       </c>
       <c r="B356" s="3" t="s">
@@ -10689,7 +10877,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="82" t="s">
+      <c r="A358" s="50" t="s">
         <v>258</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -10697,7 +10885,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="82" t="s">
+      <c r="A359" s="50" t="s">
         <v>260</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -10705,7 +10893,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="82" t="s">
+      <c r="A360" s="50" t="s">
         <v>262</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -10713,7 +10901,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="82" t="s">
+      <c r="A361" s="50" t="s">
         <v>264</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -10721,7 +10909,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="82" t="s">
+      <c r="A362" s="50" t="s">
         <v>501</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -10729,14 +10917,14 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="50" t="s">
+      <c r="A363" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B363" s="50"/>
-      <c r="C363" s="50"/>
+      <c r="B363" s="61"/>
+      <c r="C363" s="61"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="82" t="s">
+      <c r="A364" s="50" t="s">
         <v>264</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -10744,7 +10932,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="82" t="s">
+      <c r="A365" s="50" t="s">
         <v>267</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -10752,7 +10940,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="82" t="s">
+      <c r="A366" s="50" t="s">
         <v>269</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -10760,7 +10948,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="82" t="s">
+      <c r="A367" s="50" t="s">
         <v>271</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -10768,7 +10956,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="82" t="s">
+      <c r="A368" s="50" t="s">
         <v>273</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -10776,7 +10964,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="82" t="s">
+      <c r="A369" s="50" t="s">
         <v>275</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -10784,7 +10972,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="82" t="s">
+      <c r="A370" s="50" t="s">
         <v>277</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -10792,7 +10980,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="82" t="s">
+      <c r="A371" s="50" t="s">
         <v>279</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -10800,7 +10988,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="82" t="s">
+      <c r="A372" s="50" t="s">
         <v>282</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -10808,14 +10996,14 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="49" t="s">
+      <c r="A374" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="B374" s="49"/>
-      <c r="C374" s="49"/>
+      <c r="B374" s="60"/>
+      <c r="C374" s="60"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="82" t="s">
+      <c r="A375" s="50" t="s">
         <v>304</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -10823,7 +11011,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="82" t="s">
+      <c r="A376" s="50" t="s">
         <v>306</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -10831,14 +11019,14 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="49" t="s">
+      <c r="A379" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="B379" s="49"/>
-      <c r="C379" s="49"/>
+      <c r="B379" s="60"/>
+      <c r="C379" s="60"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="82" t="s">
+      <c r="A380" s="50" t="s">
         <v>308</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -10846,7 +11034,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="82" t="s">
+      <c r="A381" s="50" t="s">
         <v>310</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -10854,7 +11042,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="82" t="s">
+      <c r="A382" s="50" t="s">
         <v>312</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -10862,14 +11050,14 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="49" t="s">
+      <c r="A384" s="60" t="s">
         <v>452</v>
       </c>
-      <c r="B384" s="49"/>
-      <c r="C384" s="49"/>
+      <c r="B384" s="60"/>
+      <c r="C384" s="60"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="82" t="s">
+      <c r="A385" s="50" t="s">
         <v>452</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -10877,7 +11065,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="82" t="s">
+      <c r="A386" s="50" t="s">
         <v>454</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -10885,7 +11073,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="82" t="s">
+      <c r="A387" s="50" t="s">
         <v>456</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -10893,36 +11081,36 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="49" t="s">
+      <c r="A389" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B389" s="49"/>
+      <c r="B389" s="60"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="50" t="s">
+      <c r="A390" s="61" t="s">
         <v>493</v>
       </c>
-      <c r="B390" s="50"/>
+      <c r="B390" s="61"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="82" t="s">
+      <c r="A391" s="50" t="s">
         <v>488</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C391" s="52" t="s">
+      <c r="C391" s="64" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="82" t="s">
+      <c r="A392" s="50" t="s">
         <v>490</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C392" s="51"/>
+      <c r="C392" s="65"/>
     </row>
     <row r="393" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
@@ -10931,10 +11119,10 @@
       <c r="B393" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C393" s="51"/>
+      <c r="C393" s="65"/>
     </row>
     <row r="394" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A394" s="82" t="s">
+      <c r="A394" s="50" t="s">
         <v>504</v>
       </c>
       <c r="B394" s="3" t="s">
@@ -10942,14 +11130,14 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="57" t="s">
+      <c r="A396" s="71" t="s">
         <v>531</v>
       </c>
-      <c r="B396" s="59"/>
-      <c r="C396" s="58"/>
+      <c r="B396" s="75"/>
+      <c r="C396" s="72"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="86" t="s">
+      <c r="A397" s="54" t="s">
         <v>531</v>
       </c>
       <c r="B397" s="16" t="s">
@@ -10958,7 +11146,7 @@
       <c r="C397" s="16"/>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="82" t="s">
+      <c r="A398" s="50" t="s">
         <v>533</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -10969,7 +11157,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="82" t="s">
+      <c r="A399" s="50" t="s">
         <v>536</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -10996,14 +11184,14 @@
       <c r="A402" s="11"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="49" t="s">
+      <c r="A405" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="B405" s="49"/>
-      <c r="C405" s="49"/>
+      <c r="B405" s="60"/>
+      <c r="C405" s="60"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="82" t="s">
+      <c r="A406" s="50" t="s">
         <v>496</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -11011,7 +11199,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="82" t="s">
+      <c r="A407" s="50" t="s">
         <v>498</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -11019,7 +11207,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="82" t="s">
+      <c r="A408" s="50" t="s">
         <v>503</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -11027,7 +11215,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="82" t="s">
+      <c r="A409" s="50" t="s">
         <v>510</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -11038,11 +11226,11 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="49" t="s">
+      <c r="A411" s="60" t="s">
         <v>577</v>
       </c>
-      <c r="B411" s="49"/>
-      <c r="C411" s="49"/>
+      <c r="B411" s="60"/>
+      <c r="C411" s="60"/>
     </row>
     <row r="412" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
@@ -11056,7 +11244,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="82" t="s">
+      <c r="A413" s="50" t="s">
         <v>578</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -11064,16 +11252,16 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="82" t="s">
+      <c r="A414" s="50" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="49" t="s">
+      <c r="A416" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="B416" s="49"/>
-      <c r="C416" s="49"/>
+      <c r="B416" s="60"/>
+      <c r="C416" s="60"/>
     </row>
     <row r="417" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
@@ -11084,7 +11272,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="82" t="s">
+      <c r="A418" s="50" t="s">
         <v>587</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -11100,14 +11288,14 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="49" t="s">
+      <c r="A421" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="B421" s="49"/>
-      <c r="C421" s="49"/>
+      <c r="B421" s="60"/>
+      <c r="C421" s="60"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="82" t="s">
+      <c r="A422" s="50" t="s">
         <v>606</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -11115,7 +11303,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="82" t="s">
+      <c r="A423" s="50" t="s">
         <v>608</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -11123,7 +11311,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="82" t="s">
+      <c r="A424" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -11131,14 +11319,14 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="49" t="s">
+      <c r="A427" s="60" t="s">
         <v>647</v>
       </c>
-      <c r="B427" s="49"/>
-      <c r="C427" s="49"/>
+      <c r="B427" s="60"/>
+      <c r="C427" s="60"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="82" t="s">
+      <c r="A428" s="50" t="s">
         <v>648</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -11146,7 +11334,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="82" t="s">
+      <c r="A429" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -11162,7 +11350,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="82" t="s">
+      <c r="A431" s="50" t="s">
         <v>652</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -11170,7 +11358,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="82" t="s">
+      <c r="A432" s="50" t="s">
         <v>653</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -11178,22 +11366,22 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="49" t="s">
+      <c r="A435" s="60" t="s">
         <v>915</v>
       </c>
-      <c r="B435" s="49"/>
-      <c r="C435" s="49"/>
+      <c r="B435" s="60"/>
+      <c r="C435" s="60"/>
     </row>
     <row r="436" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A436" s="85" t="s">
+      <c r="A436" s="53" t="s">
         <v>916</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A437" s="82" t="s">
+    <row r="437" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A437" s="50" t="s">
         <v>918</v>
       </c>
       <c r="B437" s="3" t="s">
@@ -11204,7 +11392,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="82" t="s">
+      <c r="A438" s="50" t="s">
         <v>919</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -11212,14 +11400,14 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="50" t="s">
+      <c r="A439" s="61" t="s">
         <v>922</v>
       </c>
-      <c r="B439" s="50"/>
-      <c r="C439" s="50"/>
+      <c r="B439" s="61"/>
+      <c r="C439" s="61"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="82" t="s">
+      <c r="A440" s="50" t="s">
         <v>922</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -11227,7 +11415,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="82" t="s">
+      <c r="A441" s="50" t="s">
         <v>940</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -11235,7 +11423,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="82" t="s">
+      <c r="A442" s="50" t="s">
         <v>923</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -11243,7 +11431,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="82" t="s">
+      <c r="A443" s="50" t="s">
         <v>926</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -11251,12 +11439,12 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="82" t="s">
+      <c r="A444" s="50" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="82" t="s">
+      <c r="A445" s="50" t="s">
         <v>928</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -11264,7 +11452,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="82" t="s">
+      <c r="A446" s="50" t="s">
         <v>929</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -11272,7 +11460,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="82" t="s">
+      <c r="A447" s="50" t="s">
         <v>935</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -11280,21 +11468,21 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="82" t="s">
+      <c r="A448" s="50" t="s">
         <v>930</v>
       </c>
-      <c r="B448" s="51" t="s">
+      <c r="B448" s="65" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="82" t="s">
+      <c r="A449" s="50" t="s">
         <v>931</v>
       </c>
-      <c r="B449" s="51"/>
+      <c r="B449" s="65"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="82" t="s">
+      <c r="A450" s="50" t="s">
         <v>932</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -11302,7 +11490,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A451" s="82" t="s">
+      <c r="A451" s="50" t="s">
         <v>938</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -11310,14 +11498,14 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="49" t="s">
+      <c r="A454" s="60" t="s">
         <v>943</v>
       </c>
-      <c r="B454" s="49"/>
-      <c r="C454" s="49"/>
+      <c r="B454" s="60"/>
+      <c r="C454" s="60"/>
     </row>
     <row r="455" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A455" s="85" t="s">
+      <c r="A455" s="53" t="s">
         <v>944</v>
       </c>
       <c r="B455" s="3" t="s">
@@ -11325,26 +11513,26 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="82" t="s">
+      <c r="A456" s="50" t="s">
         <v>946</v>
       </c>
-      <c r="B456" s="52" t="s">
+      <c r="B456" s="64" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="82" t="s">
+      <c r="A457" s="50" t="s">
         <v>947</v>
       </c>
-      <c r="B457" s="51"/>
+      <c r="B457" s="65"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="82" t="s">
+      <c r="A458" s="50" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="82" t="s">
+      <c r="A459" s="50" t="s">
         <v>950</v>
       </c>
       <c r="B459" s="1" t="s">
@@ -11352,7 +11540,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="82" t="s">
+      <c r="A460" s="50" t="s">
         <v>952</v>
       </c>
     </row>
@@ -11365,7 +11553,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A462" s="82" t="s">
+      <c r="A462" s="50" t="s">
         <v>954</v>
       </c>
       <c r="B462" s="3" t="s">
@@ -11376,14 +11564,14 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="49" t="s">
+      <c r="A463" s="60" t="s">
         <v>989</v>
       </c>
-      <c r="B463" s="49"/>
-      <c r="C463" s="49"/>
+      <c r="B463" s="60"/>
+      <c r="C463" s="60"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="82" t="s">
+      <c r="A464" s="50" t="s">
         <v>988</v>
       </c>
       <c r="B464" s="1" t="s">
@@ -11391,7 +11579,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="85" t="s">
+      <c r="A465" s="53" t="s">
         <v>982</v>
       </c>
       <c r="B465" s="1" t="s">
@@ -11399,7 +11587,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="82" t="s">
+      <c r="A466" s="50" t="s">
         <v>984</v>
       </c>
       <c r="B466" s="1" t="s">
@@ -11407,7 +11595,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A467" s="82" t="s">
+      <c r="A467" s="50" t="s">
         <v>986</v>
       </c>
       <c r="B467" s="3" t="s">
@@ -11415,24 +11603,24 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="82" t="s">
+      <c r="A468" s="50" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="82" t="s">
+      <c r="A469" s="50" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="49" t="s">
+      <c r="A471" s="60" t="s">
         <v>995</v>
       </c>
-      <c r="B471" s="49"/>
-      <c r="C471" s="49"/>
+      <c r="B471" s="60"/>
+      <c r="C471" s="60"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="82" t="s">
+      <c r="A472" s="50" t="s">
         <v>995</v>
       </c>
       <c r="B472" s="1" t="s">
@@ -11440,7 +11628,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="82" t="s">
+      <c r="A473" s="50" t="s">
         <v>997</v>
       </c>
       <c r="B473" s="1" t="s">
@@ -11448,7 +11636,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="82" t="s">
+      <c r="A474" s="50" t="s">
         <v>998</v>
       </c>
       <c r="B474" s="1" t="s">
@@ -11457,14 +11645,14 @@
     </row>
     <row r="475" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A475" s="27" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="82" t="s">
+      <c r="A476" s="50" t="s">
         <v>999</v>
       </c>
       <c r="B476" s="1" t="s">
@@ -11472,12 +11660,12 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="82" t="s">
+      <c r="A477" s="50" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="82" t="s">
+      <c r="A478" s="50" t="s">
         <v>1147</v>
       </c>
       <c r="B478" s="1" t="s">
@@ -11485,7 +11673,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="82" t="s">
+      <c r="A479" s="50" t="s">
         <v>1148</v>
       </c>
       <c r="B479" s="1" t="s">
@@ -11493,7 +11681,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="82" t="s">
+      <c r="A480" s="50" t="s">
         <v>1162</v>
       </c>
       <c r="B480" s="1" t="s">
@@ -11501,36 +11689,36 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="82" t="s">
+      <c r="A481" s="50" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="87" t="s">
+      <c r="A482" s="55" t="s">
         <v>1175</v>
       </c>
-      <c r="B482" s="60" t="s">
+      <c r="B482" s="68" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="87" t="s">
+      <c r="A483" s="55" t="s">
         <v>1177</v>
       </c>
-      <c r="B483" s="60"/>
+      <c r="B483" s="68"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="82" t="s">
+      <c r="A484" s="50" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="82" t="s">
+      <c r="A485" s="50" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="82" t="s">
+      <c r="A486" s="50" t="s">
         <v>1151</v>
       </c>
       <c r="B486" s="1" t="s">
@@ -11538,32 +11726,32 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="82" t="s">
+      <c r="A487" s="50" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="82" t="s">
+      <c r="A488" s="50" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="82" t="s">
+      <c r="A489" s="50" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="82" t="s">
+      <c r="A490" s="50" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="82" t="s">
+      <c r="A491" s="50" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="82" t="s">
+      <c r="A492" s="50" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -11576,12 +11764,12 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="82" t="s">
+      <c r="A494" s="50" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="82" t="s">
+      <c r="A495" s="50" t="s">
         <v>1171</v>
       </c>
       <c r="B495" s="1" t="s">
@@ -11589,7 +11777,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="82" t="s">
+      <c r="A496" s="50" t="s">
         <v>1173</v>
       </c>
       <c r="B496" s="1" t="s">
@@ -11597,7 +11785,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="82" t="s">
+      <c r="A497" s="50" t="s">
         <v>1174</v>
       </c>
       <c r="B497" s="1" t="s">
@@ -11605,17 +11793,17 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="82" t="s">
+      <c r="A498" s="50" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="82" t="s">
+      <c r="A499" s="50" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="82" t="s">
+      <c r="A500" s="50" t="s">
         <v>1166</v>
       </c>
       <c r="B500" s="1" t="s">
@@ -11623,40 +11811,40 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="82" t="s">
+      <c r="A501" s="50" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="82" t="s">
+      <c r="A502" s="50" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="82" t="s">
+      <c r="A503" s="50" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="82" t="s">
+      <c r="A504" s="50" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="49" t="s">
+      <c r="A507" s="60" t="s">
         <v>1110</v>
       </c>
-      <c r="B507" s="49"/>
-      <c r="C507" s="49"/>
+      <c r="B507" s="60"/>
+      <c r="C507" s="60"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="50" t="s">
+      <c r="A508" s="61" t="s">
         <v>1126</v>
       </c>
-      <c r="B508" s="50"/>
+      <c r="B508" s="61"/>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="82" t="s">
+      <c r="A509" s="50" t="s">
         <v>1111</v>
       </c>
       <c r="B509" s="1" t="s">
@@ -11664,7 +11852,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="82" t="s">
+      <c r="A510" s="50" t="s">
         <v>1113</v>
       </c>
       <c r="B510" s="1" t="s">
@@ -11672,47 +11860,47 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="82" t="s">
+      <c r="A511" s="50" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="82" t="s">
+      <c r="A512" s="50" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="82" t="s">
+      <c r="A513" s="50" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="82" t="s">
+      <c r="A514" s="50" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="82" t="s">
+      <c r="A515" s="50" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="82" t="s">
+      <c r="A516" s="50" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="82" t="s">
+      <c r="A517" s="50" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="82" t="s">
+      <c r="A518" s="50" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="82" t="s">
+      <c r="A519" s="50" t="s">
         <v>1124</v>
       </c>
       <c r="B519" s="1" t="s">
@@ -11720,17 +11908,17 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="50" t="s">
+      <c r="A522" s="61" t="s">
         <v>1127</v>
       </c>
-      <c r="B522" s="50"/>
+      <c r="B522" s="61"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="49" t="s">
+      <c r="A531" s="60" t="s">
         <v>1130</v>
       </c>
-      <c r="B531" s="49"/>
-      <c r="C531" s="49"/>
+      <c r="B531" s="60"/>
+      <c r="C531" s="60"/>
     </row>
     <row r="533" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A533" s="11" t="s">
@@ -11741,7 +11929,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A534" s="82" t="s">
+      <c r="A534" s="50" t="s">
         <v>1131</v>
       </c>
       <c r="B534" s="3" t="s">
@@ -11749,7 +11937,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="82" t="s">
+      <c r="A535" s="50" t="s">
         <v>1133</v>
       </c>
       <c r="B535" s="1" t="s">
@@ -11757,7 +11945,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="82" t="s">
+      <c r="A536" s="50" t="s">
         <v>1134</v>
       </c>
       <c r="B536" s="1" t="s">
@@ -11765,7 +11953,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="82" t="s">
+      <c r="A537" s="50" t="s">
         <v>1135</v>
       </c>
       <c r="B537" s="1" t="s">
@@ -11773,7 +11961,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="82" t="s">
+      <c r="A538" s="50" t="s">
         <v>1139</v>
       </c>
       <c r="B538" s="1" t="s">
@@ -11781,7 +11969,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="82" t="s">
+      <c r="A539" s="50" t="s">
         <v>1141</v>
       </c>
       <c r="B539" s="1" t="s">
@@ -11789,7 +11977,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="82" t="s">
+      <c r="A540" s="50" t="s">
         <v>1117</v>
       </c>
       <c r="B540" s="1" t="s">
@@ -11797,7 +11985,7 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="82" t="s">
+      <c r="A541" s="50" t="s">
         <v>1118</v>
       </c>
       <c r="B541" s="1" t="s">
@@ -11805,7 +11993,7 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="82" t="s">
+      <c r="A542" s="50" t="s">
         <v>1142</v>
       </c>
       <c r="B542" s="1" t="s">
@@ -11821,26 +12009,26 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="82" t="s">
+      <c r="A544" s="50" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="82" t="s">
+      <c r="A545" s="50" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="82" t="s">
+      <c r="A546" s="50" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="49" t="s">
+      <c r="A548" s="60" t="s">
         <v>1181</v>
       </c>
-      <c r="B548" s="49"/>
-      <c r="C548" s="49"/>
+      <c r="B548" s="60"/>
+      <c r="C548" s="60"/>
     </row>
     <row r="549" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A549" s="23" t="s">
@@ -11861,11 +12049,11 @@
       </c>
     </row>
     <row r="552" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A552" s="61" t="s">
+      <c r="A552" s="63" t="s">
         <v>1182</v>
       </c>
-      <c r="B552" s="61"/>
-      <c r="C552" s="61"/>
+      <c r="B552" s="63"/>
+      <c r="C552" s="63"/>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="42" t="s">
@@ -11891,11 +12079,11 @@
       <c r="A557" s="23"/>
     </row>
     <row r="558" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A558" s="61" t="s">
+      <c r="A558" s="63" t="s">
         <v>1190</v>
       </c>
-      <c r="B558" s="61"/>
-      <c r="C558" s="61"/>
+      <c r="B558" s="63"/>
+      <c r="C558" s="63"/>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="11" t="s">
@@ -11962,7 +12150,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A570" s="82" t="s">
+      <c r="A570" s="50" t="s">
         <v>1205</v>
       </c>
       <c r="B570" s="1" t="s">
@@ -11970,59 +12158,59 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A571" s="82" t="s">
+      <c r="A571" s="50" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A572" s="82" t="s">
+      <c r="A572" s="50" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A573" s="82" t="s">
+      <c r="A573" s="50" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A574" s="82" t="s">
+      <c r="A574" s="50" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A575" s="82" t="s">
+      <c r="A575" s="50" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A576" s="82" t="s">
+      <c r="A576" s="50" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A577" s="82" t="s">
+      <c r="A577" s="50" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A578" s="82" t="s">
+      <c r="A578" s="50" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A579" s="82" t="s">
+      <c r="A579" s="50" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581" s="49" t="s">
+      <c r="A581" s="60" t="s">
         <v>1228</v>
       </c>
-      <c r="B581" s="49"/>
-      <c r="C581" s="49"/>
+      <c r="B581" s="60"/>
+      <c r="C581" s="60"/>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A582" s="82" t="s">
+      <c r="A582" s="50" t="s">
         <v>1216</v>
       </c>
       <c r="B582" s="1" t="s">
@@ -12030,7 +12218,7 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A583" s="82" t="s">
+      <c r="A583" s="50" t="s">
         <v>1218</v>
       </c>
       <c r="B583" s="1" t="s">
@@ -12038,7 +12226,7 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A584" s="82" t="s">
+      <c r="A584" s="50" t="s">
         <v>1220</v>
       </c>
       <c r="B584" s="1" t="s">
@@ -12046,12 +12234,12 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A585" s="82" t="s">
+      <c r="A585" s="50" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A586" s="82" t="s">
+      <c r="A586" s="50" t="s">
         <v>1222</v>
       </c>
       <c r="B586" s="1" t="s">
@@ -12059,19 +12247,19 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588" s="49" t="s">
+      <c r="A588" s="60" t="s">
         <v>1227</v>
       </c>
-      <c r="B588" s="49"/>
-      <c r="C588" s="49"/>
+      <c r="B588" s="60"/>
+      <c r="C588" s="60"/>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A589" s="82" t="s">
+      <c r="A589" s="50" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A590" s="82" t="s">
+      <c r="A590" s="50" t="s">
         <v>1225</v>
       </c>
       <c r="B590" s="1" t="s">
@@ -12079,49 +12267,49 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A591" s="82" t="s">
+      <c r="A591" s="50" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A592" s="82" t="s">
+      <c r="A592" s="50" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A593" s="82" t="s">
+      <c r="A593" s="50" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A595" s="49" t="s">
+      <c r="A595" s="60" t="s">
         <v>1229</v>
       </c>
-      <c r="B595" s="49"/>
-      <c r="C595" s="49"/>
+      <c r="B595" s="60"/>
+      <c r="C595" s="60"/>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A596" s="82" t="s">
+      <c r="A596" s="50" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A597" s="82" t="s">
+      <c r="A597" s="50" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A598" s="82" t="s">
+      <c r="A598" s="50" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A599" s="82" t="s">
+      <c r="A599" s="50" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A600" s="82" t="s">
+      <c r="A600" s="50" t="s">
         <v>1234</v>
       </c>
       <c r="B600" s="3" t="s">
@@ -12129,19 +12317,19 @@
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A601" s="82" t="s">
+      <c r="A601" s="50" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A603" s="49" t="s">
+      <c r="A603" s="60" t="s">
         <v>1238</v>
       </c>
-      <c r="B603" s="49"/>
-      <c r="C603" s="49"/>
+      <c r="B603" s="60"/>
+      <c r="C603" s="60"/>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A604" s="82" t="s">
+      <c r="A604" s="50" t="s">
         <v>1239</v>
       </c>
       <c r="B604" s="1" t="s">
@@ -12149,17 +12337,17 @@
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A605" s="82" t="s">
+      <c r="A605" s="50" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A606" s="82" t="s">
+      <c r="A606" s="50" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A607" s="82" t="s">
+      <c r="A607" s="50" t="s">
         <v>1243</v>
       </c>
       <c r="B607" s="1" t="s">
@@ -12167,7 +12355,7 @@
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A608" s="82" t="s">
+      <c r="A608" s="50" t="s">
         <v>1245</v>
       </c>
       <c r="B608" s="1" t="s">
@@ -12175,14 +12363,14 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610" s="49" t="s">
+      <c r="A610" s="60" t="s">
         <v>1343</v>
       </c>
-      <c r="B610" s="49"/>
-      <c r="C610" s="49"/>
+      <c r="B610" s="60"/>
+      <c r="C610" s="60"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A611" s="82" t="s">
+      <c r="A611" s="50" t="s">
         <v>1343</v>
       </c>
       <c r="B611" s="1" t="s">
@@ -12190,234 +12378,234 @@
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A612" s="82" t="s">
+      <c r="A612" s="50" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A613" s="82" t="s">
+      <c r="A613" s="50" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A614" s="82" t="s">
+      <c r="A614" s="50" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A615" s="82" t="s">
+      <c r="A615" s="50" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A616" s="82" t="s">
+      <c r="A616" s="50" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A617" s="82" t="s">
+      <c r="A617" s="50" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A618" s="82" t="s">
+      <c r="A618" s="50" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A619" s="82" t="s">
+      <c r="A619" s="50" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A620" s="82" t="s">
+      <c r="A620" s="50" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A621" s="82" t="s">
+      <c r="A621" s="50" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A622" s="82" t="s">
+      <c r="A622" s="50" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A623" s="82" t="s">
+      <c r="A623" s="50" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A624" s="82" t="s">
+      <c r="A624" s="50" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A625" s="82" t="s">
+      <c r="A625" s="50" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A626" s="82" t="s">
+      <c r="A626" s="50" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A627" s="82" t="s">
+      <c r="A627" s="50" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A628" s="82" t="s">
+      <c r="A628" s="50" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A629" s="82" t="s">
+      <c r="A629" s="50" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A630" s="82" t="s">
+      <c r="A630" s="50" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A631" s="82" t="s">
+      <c r="A631" s="50" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A632" s="82" t="s">
+      <c r="A632" s="50" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A633" s="82" t="s">
+      <c r="A633" s="50" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A634" s="82" t="s">
+      <c r="A634" s="50" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A635" s="82" t="s">
+      <c r="A635" s="50" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A636" s="82" t="s">
+      <c r="A636" s="50" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A637" s="82" t="s">
+      <c r="A637" s="50" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A638" s="82" t="s">
+      <c r="A638" s="50" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A639" s="82" t="s">
+      <c r="A639" s="50" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A640" s="82" t="s">
+      <c r="A640" s="50" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A641" s="82" t="s">
+      <c r="A641" s="50" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A642" s="82" t="s">
+      <c r="A642" s="50" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A643" s="82" t="s">
+      <c r="A643" s="50" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A644" s="82" t="s">
+      <c r="A644" s="50" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A645" s="82" t="s">
+      <c r="A645" s="50" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A646" s="82" t="s">
+      <c r="A646" s="50" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A647" s="82" t="s">
+      <c r="A647" s="50" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A648" s="82" t="s">
+      <c r="A648" s="50" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A649" s="82" t="s">
+      <c r="A649" s="50" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A650" s="82" t="s">
+      <c r="A650" s="50" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A651" s="82" t="s">
+      <c r="A651" s="50" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A652" s="82" t="s">
+      <c r="A652" s="50" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A653" s="82" t="s">
+      <c r="A653" s="50" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A654" s="82" t="s">
+      <c r="A654" s="50" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A655" s="82" t="s">
+      <c r="A655" s="50" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A656" s="49" t="s">
+      <c r="A656" s="60" t="s">
         <v>1437</v>
       </c>
-      <c r="B656" s="49"/>
-      <c r="C656" s="49"/>
+      <c r="B656" s="60"/>
+      <c r="C656" s="60"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A657" s="82" t="s">
+      <c r="A657" s="50" t="s">
         <v>1437</v>
       </c>
       <c r="B657" s="1" t="s">
@@ -12425,7 +12613,7 @@
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A658" s="82" t="s">
+      <c r="A658" s="50" t="s">
         <v>1439</v>
       </c>
       <c r="B658" s="1" t="s">
@@ -12433,17 +12621,17 @@
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660" s="50" t="s">
+      <c r="A660" s="61" t="s">
         <v>1441</v>
       </c>
-      <c r="B660" s="50"/>
-      <c r="C660" s="50"/>
+      <c r="B660" s="61"/>
+      <c r="C660" s="61"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="47" t="s">
         <v>1453</v>
       </c>
-      <c r="B661" s="48" t="s">
+      <c r="B661" s="67" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -12451,7 +12639,7 @@
       <c r="A662" s="47" t="s">
         <v>1454</v>
       </c>
-      <c r="B662" s="48"/>
+      <c r="B662" s="67"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="42" t="s">
@@ -12469,7 +12657,7 @@
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A666" s="82" t="s">
+      <c r="A666" s="50" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -12503,47 +12691,356 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="42" t="s">
         <v>1452</v>
       </c>
       <c r="B673" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" s="66" t="s">
         <v>1532</v>
       </c>
+      <c r="B674" s="66"/>
+      <c r="C674" s="66"/>
+    </row>
+    <row r="675" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A675" s="50" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" s="42" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" s="42" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" s="42" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" s="42" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" s="42" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" s="66" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B681" s="66"/>
+      <c r="C681" s="66"/>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" s="50" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" s="42" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" s="42" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" s="42" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" s="42" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687" s="42" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688" s="42" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689" s="42" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690" s="42" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" s="42" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692" s="42" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A693" s="42" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694" s="62" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B694" s="62"/>
+      <c r="C694" s="62"/>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" s="42" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696" s="42" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" s="42" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698" s="42" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" s="42" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700" s="42" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701" s="42" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" s="42" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" s="42" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704" s="42" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705" s="42" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706" s="42" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" s="66" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B708" s="66"/>
+      <c r="C708" s="66"/>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" s="50" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" s="42" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711" s="42" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712" s="42" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" s="42" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A714" s="42" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" s="42" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716" s="42" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718" s="62" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B718" s="62"/>
+      <c r="C718" s="62"/>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" s="42" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720" s="42" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A721" s="42" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A722" s="42" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A723" s="42" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A724" s="42" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A725" s="42" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A726" s="42" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A727" s="42" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A728" s="42" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A729" s="42" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A730" s="42" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A731" s="42" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A732" s="42" t="s">
+        <v>1559</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="75">
+    <mergeCell ref="A708:C708"/>
+    <mergeCell ref="A718:C718"/>
+    <mergeCell ref="A595:C595"/>
+    <mergeCell ref="A531:C531"/>
+    <mergeCell ref="A588:C588"/>
     <mergeCell ref="A660:C660"/>
-    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A548:C548"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A389:B389"/>
     <mergeCell ref="C391:C393"/>
     <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A471:C471"/>
-    <mergeCell ref="B482:B483"/>
-    <mergeCell ref="A548:C548"/>
-    <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A610:C610"/>
-    <mergeCell ref="A603:C603"/>
-    <mergeCell ref="A552:C552"/>
-    <mergeCell ref="A558:C558"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:B508"/>
-    <mergeCell ref="A581:C581"/>
-    <mergeCell ref="A427:C427"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="A656:C656"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A266:C266"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="A145:C145"/>
@@ -12560,29 +13057,38 @@
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A588:C588"/>
-    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A471:C471"/>
+    <mergeCell ref="B482:B483"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:B508"/>
+    <mergeCell ref="A581:C581"/>
+    <mergeCell ref="A427:C427"/>
+    <mergeCell ref="A694:C694"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A610:C610"/>
+    <mergeCell ref="A603:C603"/>
+    <mergeCell ref="A552:C552"/>
+    <mergeCell ref="A558:C558"/>
+    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A656:C656"/>
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="A674:C674"/>
+    <mergeCell ref="A681:C681"/>
     <mergeCell ref="B661:B662"/>
-    <mergeCell ref="A595:C595"/>
-    <mergeCell ref="A531:C531"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A389:B389"/>
-    <mergeCell ref="B456:B457"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -12664,18 +13170,67 @@
     <hyperlink ref="A350" r:id="rId77" display="https://api.flutter.dev/flutter/material/TextField/textAlignVertical.html" xr:uid="{7E88943B-2B13-480E-BE52-03E5E1B63C55}"/>
     <hyperlink ref="A351" r:id="rId78" display="https://api.flutter.dev/flutter/material/TextField/textCapitalization.html" xr:uid="{2DA0B668-EF4B-49BA-B1AB-4B98413922BD}"/>
     <hyperlink ref="A352" r:id="rId79" display="https://api.flutter.dev/flutter/material/TextField/textDirection.html" xr:uid="{319AF2F3-44AE-4E9B-B09E-DC5C8B11B91E}"/>
+    <hyperlink ref="A676" r:id="rId80" display="https://api.flutter.dev/flutter/dart-core/RegExp/isCaseSensitive.html" xr:uid="{97011A56-5F3B-49DA-9B43-E8B3FCAAFE54}"/>
+    <hyperlink ref="A677" r:id="rId81" display="https://api.flutter.dev/flutter/dart-core/RegExp/isDotAll.html" xr:uid="{46D4D05A-A187-47D7-ADD5-9571B66C9774}"/>
+    <hyperlink ref="A678" r:id="rId82" display="https://api.flutter.dev/flutter/dart-core/RegExp/isMultiLine.html" xr:uid="{3BDF2A6C-1DBF-488C-B350-D7CE326BC80D}"/>
+    <hyperlink ref="A679" r:id="rId83" display="https://api.flutter.dev/flutter/dart-core/RegExp/isUnicode.html" xr:uid="{381B12A9-C3BB-4DFE-93FD-2E4B4908B607}"/>
+    <hyperlink ref="A680" r:id="rId84" display="https://api.flutter.dev/flutter/dart-core/RegExp/pattern.html" xr:uid="{1DC6059A-3BA7-4534-BE0C-497BA74F9B6C}"/>
+    <hyperlink ref="A683" r:id="rId85" display="https://api.flutter.dev/flutter/widgets/FormField/autovalidateMode.html" xr:uid="{03EF431F-E536-4B73-90AB-717FFE466F7E}"/>
+    <hyperlink ref="A684" r:id="rId86" display="https://api.flutter.dev/flutter/widgets/FormField/builder.html" xr:uid="{E4C7B31B-7881-4E2C-B345-3D856C5A5AAC}"/>
+    <hyperlink ref="A685" r:id="rId87" display="https://api.flutter.dev/flutter/material/TextFormField/controller.html" xr:uid="{1DA2432F-5760-45B3-A375-425BBBF1CC06}"/>
+    <hyperlink ref="A686" r:id="rId88" display="https://api.flutter.dev/flutter/widgets/FormField/enabled.html" xr:uid="{5643B669-D35B-4F73-80B3-3B9CC2043320}"/>
+    <hyperlink ref="A687" r:id="rId89" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{71165D62-4306-40F0-B042-49A8B437649F}"/>
+    <hyperlink ref="A688" r:id="rId90" display="https://api.flutter.dev/flutter/widgets/FormField/initialValue.html" xr:uid="{8D87944D-7600-4FD6-9A15-860E10BBFD17}"/>
+    <hyperlink ref="A689" r:id="rId91" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{012D8F92-09E6-41C4-AED6-2514DFD681AB}"/>
+    <hyperlink ref="A690" r:id="rId92" display="https://api.flutter.dev/flutter/widgets/FormField/onSaved.html" xr:uid="{17B47648-521E-4CD7-A4CF-48F5826B8F7A}"/>
+    <hyperlink ref="A691" r:id="rId93" display="https://api.flutter.dev/flutter/widgets/FormField/restorationId.html" xr:uid="{410B250A-391B-473C-A9AD-ADBA9A81878C}"/>
+    <hyperlink ref="A692" r:id="rId94" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{03871BD7-EC17-4BA0-8254-48DE16FE59BE}"/>
+    <hyperlink ref="A693" r:id="rId95" display="https://api.flutter.dev/flutter/widgets/FormField/validator.html" xr:uid="{29A53F86-EB54-4010-939A-DBFA27497560}"/>
+    <hyperlink ref="A695" r:id="rId96" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{3C89A7E4-9FD8-4919-B4CE-43438F4F5B66}"/>
+    <hyperlink ref="A696" r:id="rId97" display="https://api.flutter.dev/flutter/material/TextFormField/createState.html" xr:uid="{3AC7B427-7C1F-45FB-9BB0-3AC792314919}"/>
+    <hyperlink ref="A697" r:id="rId98" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{640F8B62-F522-4DDA-B564-9F03D5C003A9}"/>
+    <hyperlink ref="A698" r:id="rId99" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{8BEA0E27-0D22-4D95-B4D9-8E47F84380E7}"/>
+    <hyperlink ref="A699" r:id="rId100" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{A5D2DFC4-B70E-4136-BB8F-DACBF07C2195}"/>
+    <hyperlink ref="A700" r:id="rId101" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{4A142D07-5210-486F-B737-E74DBAF54DB3}"/>
+    <hyperlink ref="A701" r:id="rId102" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{FEBC10CF-1A15-491F-95A7-7CB417F5B027}"/>
+    <hyperlink ref="A702" r:id="rId103" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{329AB4D5-B5CA-4928-8F92-8C359164868E}"/>
+    <hyperlink ref="A703" r:id="rId104" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{AC364372-5786-4D2B-8F8A-6F53FF3C760E}"/>
+    <hyperlink ref="A704" r:id="rId105" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{017E3160-FA0F-4ED1-A92B-D4A0BD869893}"/>
+    <hyperlink ref="A705" r:id="rId106" location="operators" display="https://api.flutter.dev/flutter/material/TextFormField-class.html - operators" xr:uid="{33D2AD3A-CCAE-4E17-9342-9DDDE186A5B7}"/>
+    <hyperlink ref="A706" r:id="rId107" display="https://api.flutter.dev/flutter/widgets/Widget/operator_equals.html" xr:uid="{B9F58339-638D-480D-A0EF-B72C7C5DD612}"/>
+    <hyperlink ref="A710" r:id="rId108" display="https://api.flutter.dev/flutter/widgets/Form/autovalidateMode.html" xr:uid="{7B04F242-E1F3-4295-B42F-526E60D95909}"/>
+    <hyperlink ref="A711" r:id="rId109" display="https://api.flutter.dev/flutter/widgets/Form/child.html" xr:uid="{82B3CD6E-C56D-42F2-9B02-D98EB2AA3BD3}"/>
+    <hyperlink ref="A712" r:id="rId110" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{0A42E672-D356-4252-B250-10BD0F9DEFD4}"/>
+    <hyperlink ref="A713" r:id="rId111" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{A3108F3C-9832-40FF-88EE-31153B9EC398}"/>
+    <hyperlink ref="A714" r:id="rId112" display="https://api.flutter.dev/flutter/widgets/Form/onChanged.html" xr:uid="{F041B28C-2C64-416E-A9B9-7D97CB37D79B}"/>
+    <hyperlink ref="A715" r:id="rId113" display="https://api.flutter.dev/flutter/widgets/Form/onWillPop.html" xr:uid="{C5AEC19E-F61C-4A7D-BAE3-2ECF85B2A9D7}"/>
+    <hyperlink ref="A716" r:id="rId114" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{1230AABA-96C2-4BA2-9A2D-1353A550BA28}"/>
+    <hyperlink ref="A721" r:id="rId115" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{6AA7A959-F8A8-4557-A79B-4049618A7857}"/>
+    <hyperlink ref="A722" r:id="rId116" display="https://api.flutter.dev/flutter/widgets/Form/createState.html" xr:uid="{051BE967-7AE6-47C6-A58F-ACBCF1B1DE77}"/>
+    <hyperlink ref="A723" r:id="rId117" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{4ECFB435-CB9E-41DE-8F5C-78359ED23E07}"/>
+    <hyperlink ref="A724" r:id="rId118" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{AD1C83A1-38D3-4030-B840-673757A12C9A}"/>
+    <hyperlink ref="A725" r:id="rId119" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{3E03352D-4F31-4435-BABB-E192132E7809}"/>
+    <hyperlink ref="A726" r:id="rId120" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{D6A01CAA-02BF-4F16-BF72-B2D35422411F}"/>
+    <hyperlink ref="A727" r:id="rId121" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{461182E7-D53F-43C7-9648-8FF6E1D0F6D8}"/>
+    <hyperlink ref="A728" r:id="rId122" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{A0431980-A228-4FB2-A8B7-F132CE5528F8}"/>
+    <hyperlink ref="A729" r:id="rId123" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{EAA0CC0C-4EB2-4FDB-943E-49491F1D4FEE}"/>
+    <hyperlink ref="A730" r:id="rId124" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{6AA759AF-3236-47B1-8011-4E35DB967DA7}"/>
+    <hyperlink ref="A731" r:id="rId125" location="operators" display="https://api.flutter.dev/flutter/widgets/Form-class.html - operators" xr:uid="{36B8A8B2-151D-442C-815C-AADBEBB558B6}"/>
+    <hyperlink ref="A732" r:id="rId126" display="https://api.flutter.dev/flutter/widgets/Widget/operator_equals.html" xr:uid="{FD6FADB2-8ED0-473C-A2E7-C9E31E0460FD}"/>
+    <hyperlink ref="A719" r:id="rId127" display="https://api.flutter.dev/flutter/widgets/Form/maybeOf.html" xr:uid="{79803719-9E80-43B0-AD6D-8256CA448A59}"/>
+    <hyperlink ref="A720" r:id="rId128" display="https://api.flutter.dev/flutter/widgets/Form/of.html" xr:uid="{9EF10805-F206-44B4-A652-C385E2DCDC83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A484" sqref="A484"/>
+    <sheetView rightToLeft="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12719,11 +13274,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="61" t="s">
         <v>1107</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="12" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -12814,11 +13369,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="61" t="s">
         <v>1313</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -12844,10 +13399,10 @@
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="77" t="s">
         <v>1037</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -12867,11 +13422,11 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
@@ -12925,11 +13480,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
     </row>
     <row r="50" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -13051,11 +13606,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="79" t="s">
         <v>726</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
     </row>
     <row r="62" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
@@ -13064,7 +13619,7 @@
       <c r="B62" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="82" t="s">
         <v>747</v>
       </c>
     </row>
@@ -13075,7 +13630,7 @@
       <c r="B63" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="C63" s="73"/>
+      <c r="C63" s="83"/>
     </row>
     <row r="64" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
@@ -13084,7 +13639,7 @@
       <c r="B64" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="C64" s="73"/>
+      <c r="C64" s="83"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
@@ -13145,10 +13700,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="80" t="s">
         <v>743</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="84" t="s">
         <v>753</v>
       </c>
       <c r="C71" s="27" t="s">
@@ -13156,12 +13711,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
-      <c r="B72" s="75"/>
+      <c r="A72" s="80"/>
+      <c r="B72" s="85"/>
       <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="80" t="s">
         <v>745</v>
       </c>
       <c r="B73" s="26" t="s">
@@ -13172,7 +13727,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
+      <c r="A74" s="81"/>
       <c r="B74" s="28" t="s">
         <v>744</v>
       </c>
@@ -13202,11 +13757,11 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="86" t="s">
         <v>759</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="78"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="32" t="s">
         <v>770</v>
       </c>
@@ -13395,11 +13950,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="49" t="s">
+      <c r="A98" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -13442,11 +13997,11 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
     </row>
     <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -13521,11 +14076,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="49" t="s">
+      <c r="A117" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
     </row>
     <row r="118" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -13533,11 +14088,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="49" t="s">
+      <c r="A120" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -13620,10 +14175,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="67" t="s">
+      <c r="A131" s="89" t="s">
         <v>636</v>
       </c>
-      <c r="B131" s="67"/>
+      <c r="B131" s="89"/>
     </row>
     <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -13642,18 +14197,18 @@
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="69" t="s">
         <v>637</v>
       </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
+      <c r="B135" s="69"/>
+      <c r="C135" s="69"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="54" t="s">
+      <c r="A136" s="74" t="s">
         <v>640</v>
       </c>
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="74"/>
     </row>
     <row r="137" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
@@ -13668,11 +14223,11 @@
       <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="74" t="s">
         <v>641</v>
       </c>
-      <c r="B139" s="54"/>
-      <c r="C139" s="54"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="74"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
@@ -13695,11 +14250,11 @@
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="54" t="s">
+      <c r="A145" s="74" t="s">
         <v>643</v>
       </c>
-      <c r="B145" s="54"/>
-      <c r="C145" s="54"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="74"/>
     </row>
     <row r="146" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
@@ -13712,11 +14267,11 @@
       <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="54" t="s">
+      <c r="A148" s="74" t="s">
         <v>644</v>
       </c>
-      <c r="B148" s="54"/>
-      <c r="C148" s="54"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="74"/>
     </row>
     <row r="149" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -13780,11 +14335,11 @@
       <c r="B162" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="49" t="s">
+      <c r="A166" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="B166" s="49"/>
-      <c r="C166" s="49"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
     </row>
     <row r="167" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -13796,24 +14351,24 @@
     </row>
     <row r="169" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="49" t="s">
+      <c r="A170" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="B170" s="49"/>
-      <c r="C170" s="49"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="B171" s="52"/>
+      <c r="B171" s="64"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="49" t="s">
+      <c r="A173" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="B173" s="49"/>
-      <c r="C173" s="49"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
     </row>
     <row r="174" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -13840,11 +14395,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="50" t="s">
+      <c r="A178" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
+      <c r="B178" s="61"/>
+      <c r="C178" s="61"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -13863,11 +14418,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="50" t="s">
+      <c r="A183" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="B183" s="50"/>
-      <c r="C183" s="50"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="61"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -13886,11 +14441,11 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="50" t="s">
+      <c r="A187" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="B187" s="50"/>
-      <c r="C187" s="50"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="61"/>
     </row>
     <row r="188" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -13909,11 +14464,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="50" t="s">
+      <c r="A192" s="61" t="s">
         <v>424</v>
       </c>
-      <c r="B192" s="50"/>
-      <c r="C192" s="50"/>
+      <c r="B192" s="61"/>
+      <c r="C192" s="61"/>
     </row>
     <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -13956,11 +14511,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="49" t="s">
+      <c r="A200" s="60" t="s">
         <v>435</v>
       </c>
-      <c r="B200" s="49"/>
-      <c r="C200" s="49"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="60"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -13995,11 +14550,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="50" t="s">
+      <c r="A207" s="61" t="s">
         <v>444</v>
       </c>
-      <c r="B207" s="50"/>
-      <c r="C207" s="50"/>
+      <c r="B207" s="61"/>
+      <c r="C207" s="61"/>
     </row>
     <row r="208" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -14018,11 +14573,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="49" t="s">
+      <c r="A211" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="B211" s="49"/>
-      <c r="C211" s="49"/>
+      <c r="B211" s="60"/>
+      <c r="C211" s="60"/>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -14038,11 +14593,11 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="49" t="s">
+      <c r="A215" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="B215" s="49"/>
-      <c r="C215" s="49"/>
+      <c r="B215" s="60"/>
+      <c r="C215" s="60"/>
     </row>
     <row r="216" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
@@ -14083,11 +14638,11 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="50" t="s">
+      <c r="A221" s="61" t="s">
         <v>471</v>
       </c>
-      <c r="B221" s="50"/>
-      <c r="C221" s="50"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="61"/>
     </row>
     <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
@@ -14133,11 +14688,11 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="B228" s="50"/>
-      <c r="C228" s="50"/>
+      <c r="B228" s="61"/>
+      <c r="C228" s="61"/>
     </row>
     <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -14172,11 +14727,11 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="49" t="s">
+      <c r="A235" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B235" s="49"/>
-      <c r="C235" s="49"/>
+      <c r="B235" s="60"/>
+      <c r="C235" s="60"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -14222,11 +14777,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="50" t="s">
+      <c r="A242" s="61" t="s">
         <v>677</v>
       </c>
-      <c r="B242" s="50"/>
-      <c r="C242" s="50"/>
+      <c r="B242" s="61"/>
+      <c r="C242" s="61"/>
     </row>
     <row r="243" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
@@ -14271,11 +14826,11 @@
       <c r="C248" s="16"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="49" t="s">
+      <c r="A251" s="60" t="s">
         <v>524</v>
       </c>
-      <c r="B251" s="49"/>
-      <c r="C251" s="49"/>
+      <c r="B251" s="60"/>
+      <c r="C251" s="60"/>
     </row>
     <row r="252" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -14302,11 +14857,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="49" t="s">
+      <c r="A256" s="60" t="s">
         <v>553</v>
       </c>
-      <c r="B256" s="49"/>
-      <c r="C256" s="49"/>
+      <c r="B256" s="60"/>
+      <c r="C256" s="60"/>
     </row>
     <row r="257" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -14349,11 +14904,11 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="49" t="s">
+      <c r="A263" s="60" t="s">
         <v>554</v>
       </c>
-      <c r="B263" s="49"/>
-      <c r="C263" s="49"/>
+      <c r="B263" s="60"/>
+      <c r="C263" s="60"/>
     </row>
     <row r="264" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -14436,11 +14991,11 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="50" t="s">
+      <c r="A274" s="61" t="s">
         <v>575</v>
       </c>
-      <c r="B274" s="50"/>
-      <c r="C274" s="50"/>
+      <c r="B274" s="61"/>
+      <c r="C274" s="61"/>
     </row>
     <row r="275" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -14448,11 +15003,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="49" t="s">
+      <c r="A278" s="60" t="s">
         <v>591</v>
       </c>
-      <c r="B278" s="49"/>
-      <c r="C278" s="49"/>
+      <c r="B278" s="60"/>
+      <c r="C278" s="60"/>
     </row>
     <row r="279" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -14508,11 +15063,11 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="49" t="s">
+      <c r="A288" s="60" t="s">
         <v>605</v>
       </c>
-      <c r="B288" s="49"/>
-      <c r="C288" s="49"/>
+      <c r="B288" s="60"/>
+      <c r="C288" s="60"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -14539,11 +15094,11 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="49" t="s">
+      <c r="A293" s="60" t="s">
         <v>610</v>
       </c>
-      <c r="B293" s="49"/>
-      <c r="C293" s="49"/>
+      <c r="B293" s="60"/>
+      <c r="C293" s="60"/>
     </row>
     <row r="294" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
@@ -14594,11 +15149,11 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="49" t="s">
+      <c r="A301" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="B301" s="49"/>
-      <c r="C301" s="49"/>
+      <c r="B301" s="60"/>
+      <c r="C301" s="60"/>
       <c r="D301" s="3" t="s">
         <v>635</v>
       </c>
@@ -14647,11 +15202,11 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="49" t="s">
+      <c r="A310" s="60" t="s">
         <v>661</v>
       </c>
-      <c r="B310" s="49"/>
-      <c r="C310" s="49"/>
+      <c r="B310" s="60"/>
+      <c r="C310" s="60"/>
     </row>
     <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
@@ -14703,17 +15258,17 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="52" t="s">
+      <c r="A316" s="64" t="s">
         <v>675</v>
       </c>
-      <c r="B316" s="51"/>
+      <c r="B316" s="65"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="49" t="s">
+      <c r="A318" s="60" t="s">
         <v>774</v>
       </c>
-      <c r="B318" s="49"/>
-      <c r="C318" s="49"/>
+      <c r="B318" s="60"/>
+      <c r="C318" s="60"/>
     </row>
     <row r="319" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A319" s="33" t="s">
@@ -14791,11 +15346,11 @@
       <c r="C327" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="50" t="s">
+      <c r="A329" s="61" t="s">
         <v>795</v>
       </c>
-      <c r="B329" s="50"/>
-      <c r="C329" s="50"/>
+      <c r="B329" s="61"/>
+      <c r="C329" s="61"/>
     </row>
     <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
@@ -14831,11 +15386,11 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="50" t="s">
+      <c r="A334" s="61" t="s">
         <v>805</v>
       </c>
-      <c r="B334" s="50"/>
-      <c r="C334" s="50"/>
+      <c r="B334" s="61"/>
+      <c r="C334" s="61"/>
     </row>
     <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -14862,11 +15417,11 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="49" t="s">
+      <c r="A339" s="60" t="s">
         <v>812</v>
       </c>
-      <c r="B339" s="49"/>
-      <c r="C339" s="49"/>
+      <c r="B339" s="60"/>
+      <c r="C339" s="60"/>
     </row>
     <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -14885,11 +15440,11 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="50" t="s">
+      <c r="A343" s="61" t="s">
         <v>816</v>
       </c>
-      <c r="B343" s="50"/>
-      <c r="C343" s="50"/>
+      <c r="B343" s="61"/>
+      <c r="C343" s="61"/>
     </row>
     <row r="344" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A344" s="35" t="s">
@@ -14976,11 +15531,11 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="49" t="s">
+      <c r="A354" s="60" t="s">
         <v>841</v>
       </c>
-      <c r="B354" s="49"/>
-      <c r="C354" s="49"/>
+      <c r="B354" s="60"/>
+      <c r="C354" s="60"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
@@ -15018,11 +15573,11 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="65" t="s">
+      <c r="A362" s="78" t="s">
         <v>842</v>
       </c>
-      <c r="B362" s="65"/>
-      <c r="C362" s="65"/>
+      <c r="B362" s="78"/>
+      <c r="C362" s="78"/>
     </row>
     <row r="363" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
@@ -15036,11 +15591,11 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="49" t="s">
+      <c r="A366" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="B366" s="49"/>
-      <c r="C366" s="49"/>
+      <c r="B366" s="60"/>
+      <c r="C366" s="60"/>
     </row>
     <row r="367" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
@@ -15126,11 +15681,11 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="50" t="s">
+      <c r="A378" s="61" t="s">
         <v>872</v>
       </c>
-      <c r="B378" s="50"/>
-      <c r="C378" s="50"/>
+      <c r="B378" s="61"/>
+      <c r="C378" s="61"/>
     </row>
     <row r="379" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
@@ -15184,11 +15739,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="50" t="s">
+      <c r="A385" s="61" t="s">
         <v>887</v>
       </c>
-      <c r="B385" s="50"/>
-      <c r="C385" s="50"/>
+      <c r="B385" s="61"/>
+      <c r="C385" s="61"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -15242,11 +15797,11 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="49" t="s">
+      <c r="A393" s="60" t="s">
         <v>903</v>
       </c>
-      <c r="B393" s="49"/>
-      <c r="C393" s="49"/>
+      <c r="B393" s="60"/>
+      <c r="C393" s="60"/>
     </row>
     <row r="394" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
@@ -15273,11 +15828,11 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="50" t="s">
+      <c r="A397" s="61" t="s">
         <v>910</v>
       </c>
-      <c r="B397" s="50"/>
-      <c r="C397" s="50"/>
+      <c r="B397" s="61"/>
+      <c r="C397" s="61"/>
     </row>
     <row r="398" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
@@ -15296,11 +15851,11 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="49" t="s">
+      <c r="A401" s="60" t="s">
         <v>966</v>
       </c>
-      <c r="B401" s="49"/>
-      <c r="C401" s="49"/>
+      <c r="B401" s="60"/>
+      <c r="C401" s="60"/>
     </row>
     <row r="403" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -15335,11 +15890,11 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="49" t="s">
+      <c r="A409" s="60" t="s">
         <v>967</v>
       </c>
-      <c r="B409" s="49"/>
-      <c r="C409" s="49"/>
+      <c r="B409" s="60"/>
+      <c r="C409" s="60"/>
     </row>
     <row r="410" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
@@ -15396,11 +15951,11 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="49" t="s">
+      <c r="A417" s="60" t="s">
         <v>1002</v>
       </c>
-      <c r="B417" s="49"/>
-      <c r="C417" s="49"/>
+      <c r="B417" s="60"/>
+      <c r="C417" s="60"/>
     </row>
     <row r="418" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -15409,7 +15964,7 @@
       <c r="B418" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C418" s="79" t="s">
+      <c r="C418" s="76" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -15420,7 +15975,7 @@
       <c r="B419" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="C419" s="79"/>
+      <c r="C419" s="76"/>
     </row>
     <row r="420" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
@@ -15429,7 +15984,7 @@
       <c r="B420" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="C420" s="79"/>
+      <c r="C420" s="76"/>
     </row>
     <row r="421" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
@@ -15438,7 +15993,7 @@
       <c r="B421" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C421" s="79"/>
+      <c r="C421" s="76"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
@@ -15447,7 +16002,7 @@
       <c r="B422" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C422" s="79"/>
+      <c r="C422" s="76"/>
     </row>
     <row r="423" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
@@ -15456,7 +16011,7 @@
       <c r="B423" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C423" s="79"/>
+      <c r="C423" s="76"/>
     </row>
     <row r="424" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
@@ -15465,7 +16020,7 @@
       <c r="B424" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="C424" s="79"/>
+      <c r="C424" s="76"/>
     </row>
     <row r="425" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
@@ -15474,7 +16029,7 @@
       <c r="B425" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="C425" s="79"/>
+      <c r="C425" s="76"/>
     </row>
     <row r="426" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
@@ -15483,7 +16038,7 @@
       <c r="B426" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C426" s="79"/>
+      <c r="C426" s="76"/>
     </row>
     <row r="427" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
@@ -15497,11 +16052,11 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="50" t="s">
+      <c r="A429" s="61" t="s">
         <v>1030</v>
       </c>
-      <c r="B429" s="50"/>
-      <c r="C429" s="50"/>
+      <c r="B429" s="61"/>
+      <c r="C429" s="61"/>
     </row>
     <row r="430" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
@@ -15528,11 +16083,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="50" t="s">
+      <c r="A435" s="61" t="s">
         <v>1042</v>
       </c>
-      <c r="B435" s="50"/>
-      <c r="C435" s="50"/>
+      <c r="B435" s="61"/>
+      <c r="C435" s="61"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
@@ -15575,11 +16130,11 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="50" t="s">
+      <c r="A442" s="61" t="s">
         <v>1059</v>
       </c>
-      <c r="B442" s="50"/>
-      <c r="C442" s="50"/>
+      <c r="B442" s="61"/>
+      <c r="C442" s="61"/>
     </row>
     <row r="443" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
@@ -15622,11 +16177,11 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="50" t="s">
+      <c r="A449" s="61" t="s">
         <v>1064</v>
       </c>
-      <c r="B449" s="50"/>
-      <c r="C449" s="50"/>
+      <c r="B449" s="61"/>
+      <c r="C449" s="61"/>
     </row>
     <row r="450" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
@@ -15680,11 +16235,11 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="49" t="s">
+      <c r="A458" s="60" t="s">
         <v>1086</v>
       </c>
-      <c r="B458" s="49"/>
-      <c r="C458" s="49"/>
+      <c r="B458" s="60"/>
+      <c r="C458" s="60"/>
     </row>
     <row r="459" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
@@ -15714,11 +16269,11 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="50" t="s">
+      <c r="A462" s="61" t="s">
         <v>1087</v>
       </c>
-      <c r="B462" s="50"/>
-      <c r="C462" s="50"/>
+      <c r="B462" s="61"/>
+      <c r="C462" s="61"/>
     </row>
     <row r="463" spans="1:3" ht="378" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
@@ -15737,11 +16292,11 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="50" t="s">
+      <c r="A466" s="61" t="s">
         <v>1096</v>
       </c>
-      <c r="B466" s="50"/>
-      <c r="C466" s="50"/>
+      <c r="B466" s="61"/>
+      <c r="C466" s="61"/>
     </row>
     <row r="467" spans="1:3" ht="224" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
@@ -15779,11 +16334,11 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="48" t="s">
+      <c r="A472" s="67" t="s">
         <v>1314</v>
       </c>
-      <c r="B472" s="48"/>
-      <c r="C472" s="48"/>
+      <c r="B472" s="67"/>
+      <c r="C472" s="67"/>
     </row>
     <row r="473" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
@@ -15792,7 +16347,7 @@
       <c r="B473" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C473" s="66" t="s">
+      <c r="C473" s="77" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -15803,7 +16358,7 @@
       <c r="B474" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C474" s="66"/>
+      <c r="C474" s="77"/>
     </row>
     <row r="475" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
@@ -15812,7 +16367,7 @@
       <c r="B475" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C475" s="66" t="s">
+      <c r="C475" s="77" t="s">
         <v>356</v>
       </c>
     </row>
@@ -15823,7 +16378,7 @@
       <c r="B476" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C476" s="66"/>
+      <c r="C476" s="77"/>
     </row>
     <row r="477" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
@@ -15832,7 +16387,7 @@
       <c r="B477" s="15" t="s">
         <v>1323</v>
       </c>
-      <c r="C477" s="66" t="s">
+      <c r="C477" s="77" t="s">
         <v>358</v>
       </c>
     </row>
@@ -15843,99 +16398,159 @@
       <c r="B478" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C478" s="66"/>
+      <c r="C478" s="77"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="88" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B479" s="88"/>
-      <c r="C479" s="88"/>
+      <c r="A479" s="90" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B479" s="90"/>
+      <c r="C479" s="90"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>1457</v>
-      </c>
+      <c r="A480" s="60" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B480" s="60"/>
+      <c r="C480" s="60"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="65" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B481" s="65"/>
-      <c r="C481" s="65"/>
+      <c r="A481" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
-        <v>1459</v>
+      <c r="A482" s="9" t="s">
+        <v>1462</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
-        <v>1460</v>
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A483" s="3" t="s">
+        <v>1469</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1462</v>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="154" x14ac:dyDescent="0.3">
+      <c r="A484" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="182" x14ac:dyDescent="0.3">
+      <c r="A485" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B486"/>
-      <c r="C486"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="49" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B488" s="49"/>
-      <c r="C488" s="49"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="9" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A491" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A492" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B492" s="3" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" ht="182" x14ac:dyDescent="0.3">
-      <c r="A493" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B493" s="3" t="s">
-        <v>1474</v>
-      </c>
+      <c r="A486" s="60" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B486" s="60"/>
+      <c r="C486" s="60"/>
+    </row>
+    <row r="487" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A487" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C487" s="65" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A488" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C488" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="78">
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="C487:C488"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="C473:C474"/>
+    <mergeCell ref="C475:C476"/>
+    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A462:C462"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A354:C354"/>
     <mergeCell ref="A449:C449"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A366:C366"/>
@@ -15952,67 +16567,6 @@
     <mergeCell ref="C418:C426"/>
     <mergeCell ref="A251:C251"/>
     <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A466:C466"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A462:C462"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="A481:C481"/>
-    <mergeCell ref="A479:C479"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="C473:C474"/>
-    <mergeCell ref="C475:C476"/>
-    <mergeCell ref="C477:C478"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A379" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
@@ -16020,7 +16574,7 @@
     <hyperlink ref="A2" r:id="rId3" xr:uid="{54D7EED2-EF7E-4BE6-9722-D11ADFA91533}"/>
     <hyperlink ref="A3" r:id="rId4" location="classes" xr:uid="{2F57E85B-6BA4-4B71-B95D-676DE8187D06}"/>
     <hyperlink ref="A4" r:id="rId5" xr:uid="{FE8747DD-8E47-4A27-810C-C1A0D7BE5F9C}"/>
-    <hyperlink ref="A490" r:id="rId6" xr:uid="{29B02BDC-F4B5-4536-B1F6-76055286E958}"/>
+    <hyperlink ref="A482" r:id="rId6" xr:uid="{29B02BDC-F4B5-4536-B1F6-76055286E958}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -16055,14 +16609,14 @@
         <v>1332</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="70" t="s">
         <v>1333</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -16100,10 +16654,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="70" t="s">
         <v>1388</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="70"/>
     </row>
     <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -16115,11 +16669,11 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="74" t="s">
         <v>1399</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -16144,10 +16698,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="77" t="s">
         <v>1401</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -16183,11 +16737,11 @@
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
     </row>
     <row r="20" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -16248,10 +16802,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B2E3C-F508-4BEB-A92C-BE6576F671A4}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16277,10 +16831,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="78" t="s">
         <v>1410</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="78"/>
     </row>
     <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -16378,37 +16932,54 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="56" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>1431</v>
       </c>
-      <c r="B23" s="49"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="60"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>1434</v>
       </c>
@@ -16416,18 +16987,19 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="210" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>1436</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" xr:uid="{254B2BB8-DC48-46D4-B80E-73F7285469BF}"/>

--- a/fluttre  (1) (1).xlsx
+++ b/fluttre  (1) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1010" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE859DF5-4778-4517-BB21-D6AB22C06178}"/>
+  <xr:revisionPtr revIDLastSave="1068" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5835350-12B3-48F4-B6F2-0C27CF88E38D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="المقدمة" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1605">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -7617,10 +7617,6 @@
     <t>RegExp(r"^(a*|b)*c");</t>
   </si>
   <si>
-    <t xml:space="preserve">اذا عندك مربع حوار وتبي من العميل مايدخل بعض
-الحروف او الكلمات </t>
-  </si>
-  <si>
     <t>isCaseSensitive</t>
   </si>
   <si>
@@ -7776,6 +7772,268 @@
 هذه فونكشن وفيها فاريبول 
 بامكانك كتابة أي كود
                 },"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اذا عندك مربع حوار وتبي من العميل يدخل بعض
+الحروف او الكلمات </t>
+  </si>
+  <si>
+    <t>https://gist.github.com/rahulbagal/4a06a997497e6f921663b69e5286d859</t>
+  </si>
+  <si>
+    <t>وهذا الموقع علشان الرموز الي تبي من العميل يدخلها</t>
+  </si>
+  <si>
+    <t>طريقة التحقق من الباسورد</t>
+  </si>
+  <si>
+    <t>وتضعها داخل فونكشن وهذه ختلفه عن السطر رقم 24
+والاختلاف بلون الأحمر</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">try {
+  final credential = await FirebaseAuth.instance.signInWithEmailAndPassword(
+    email: emailAddress,
+    password: password
+  );
+} on FirebaseAuthException catch (e) {
+  if (e.code == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'user-not-found'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+    print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'No user found for that email.'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">);
+  } else if (e.code == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'wrong-password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') {
+    print('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wrong password provided for that user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.');
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>وتضع هذا الكود في الصفحه الرئيسية للمشروع 
+يصير اذا فتحالتطبيق يتحقق من الذاكر السحابية هل العميل 
+سجل دخول ولا اذا سجل يروح للصفحه الرئيسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  home: StreamBuilder(
+وهذه الودجت خاصه بالاتصال 
+           stream: FirebaseAuth.instance.authStateChanges(),
+والشي الي يريد التحقق منه  هو كود من الفاير بيس يطلب التحقق
+          builder:(context, snapshot) {
+         if(snapshot.hasData){
+اذا رجعت بداته انتقل الي المسار الرئيسي
+           return const Home();
+         }else{
+          return const loggn();
+         }
+          }
+          )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (!mounted) return;</t>
+  </si>
+  <si>
+    <t>وهذا الكود  لدواعي امنية غير معروفه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (!mounted) return;
+                     Navigator.pushReplacement(
+                        context,
+                        MaterialPageRoute(builder: (context) =&gt;  loggn()),
+                      );
+                  } else {
+                    print("خطاء ما");
+                  }</t>
+  </si>
+  <si>
+    <t>StreamBuilder</t>
+  </si>
+  <si>
+    <t>initialData</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>تأخذ عنصر المساق زي الفونكشن</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> builder:(context, snapshot) {    }</t>
+  </si>
+  <si>
+    <t>afterConnected</t>
+  </si>
+  <si>
+    <t>afterData</t>
+  </si>
+  <si>
+    <t>afterDisconnected</t>
+  </si>
+  <si>
+    <t>afterDone</t>
+  </si>
+  <si>
+    <t>afterError</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>التدفق حق البينات يعني مكان البينات</t>
+  </si>
+  <si>
+    <t>StreamBuilder(
+           stream: FirebaseAuth.instance.authStateChanges(),
+          builder:(context, snapshot) {
+         if(snapshot.hasData){
+           return const Home();
+         }else{
+          return const loggn();
+         }
+          }
+          )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هذا الكود متخصص في المصادقة </t>
+  </si>
+  <si>
+    <t>stream: FirebaseAuth.instance.authStateChanges(),</t>
+  </si>
+  <si>
+    <t>للتحقق من اسم المستخدم بدون تسجيل الدخول</t>
+  </si>
+  <si>
+    <t>يستخدم الكود لكي لاتسجل الدخول اكثر من مره</t>
+  </si>
+  <si>
+    <t>https://pub.dev/packages/firebase_auth/example</t>
+  </si>
+  <si>
+    <t>رابط الكود الي بلون الأحمر 
+موجود في مكتبت الفاير بيس فلاتر</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">StreamBuilder(
+وهذه الودجت اسمها منشى الدفق حق التحقق
+           stream: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FirebaseAuth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.instance.authStateChanges(),
+الدفق وبعده التحقق حق الفاير بيس وبعده الحالة وبعدها تغيير حالة المصادقه
+          builder:(context, snapshot) {
+           المنشى وداخل القوس المسار وبعده اللمحه يعني انظر لحالة المصادقة
+         if(snapshot.hasData){
+اذا اللمحه وبعدها يوجد داته 
+           return const Home();
+انتقل للمسار
+         }else{
+ولا 
+          return const loggn();
+ابقى في الصفحه
+         }
+          }
+          )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8124,7 +8382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8295,22 +8553,28 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8319,13 +8583,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8334,29 +8598,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8388,10 +8652,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8716,46 +8980,46 @@
   <dimension ref="G7:J13"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="59" t="s">
         <v>1090</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59">
-        <v>13.2</v>
-      </c>
-      <c r="J7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60">
+        <v>14</v>
+      </c>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="7:10" ht="27.5" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
     </row>
     <row r="12" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="59" t="s">
         <v>1091</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59">
-        <v>25</v>
-      </c>
-      <c r="J12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="61">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8771,24 +9035,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C760"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A748" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B714" sqref="B714"/>
+    <sheetView rightToLeft="1" topLeftCell="A743" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B742" sqref="B742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.58203125" style="50" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
@@ -8888,11 +9152,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -8925,11 +9189,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
@@ -8956,10 +9220,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="72"/>
+      <c r="B28" s="70"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="52" t="s">
@@ -9018,10 +9282,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="61"/>
+      <c r="B36" s="64"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
@@ -9064,10 +9328,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="61"/>
+      <c r="B49" s="64"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
@@ -9086,10 +9350,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="61"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -9139,10 +9403,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="60"/>
+      <c r="B64" s="62"/>
       <c r="C64" s="2" t="s">
         <v>59</v>
       </c>
@@ -9219,11 +9483,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="50" t="s">
@@ -9281,11 +9545,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="62"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="50" t="s">
@@ -9331,11 +9595,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="s">
@@ -9362,11 +9626,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="62"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="50" t="s">
@@ -9503,10 +9767,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="60" t="s">
+      <c r="A119" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="60"/>
+      <c r="B119" s="62"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
@@ -9556,11 +9820,11 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="60" t="s">
+      <c r="A126" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="62"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="50" t="s">
@@ -9603,11 +9867,11 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="60" t="s">
+      <c r="A133" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="62"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="50" t="s">
@@ -9650,11 +9914,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="60" t="s">
+      <c r="A140" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B140" s="60"/>
-      <c r="C140" s="60"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="62"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="50" t="s">
@@ -9681,11 +9945,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="60" t="s">
+      <c r="A145" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="60"/>
-      <c r="C145" s="60"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="50" t="s">
@@ -9728,11 +9992,11 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="60" t="s">
+      <c r="A152" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="62"/>
     </row>
     <row r="153" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
@@ -9751,11 +10015,11 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="60" t="s">
+      <c r="A157" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="62"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="50" t="s">
@@ -9791,11 +10055,11 @@
       <c r="A163" s="11"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="69" t="s">
+      <c r="A164" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="69"/>
-      <c r="C164" s="69"/>
+      <c r="B164" s="71"/>
+      <c r="C164" s="71"/>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
@@ -9838,11 +10102,11 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="61" t="s">
+      <c r="A171" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="B171" s="61"/>
-      <c r="C171" s="61"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="64"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="50" t="s">
@@ -9877,11 +10141,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="61" t="s">
+      <c r="A177" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B177" s="61"/>
-      <c r="C177" s="61"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="50" t="s">
@@ -9916,11 +10180,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="61" t="s">
+      <c r="A183" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="64"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="50" t="s">
@@ -9963,11 +10227,11 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="60" t="s">
+      <c r="A190" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B190" s="60"/>
-      <c r="C190" s="60"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="62"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="50" t="s">
@@ -9991,18 +10255,18 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="60" t="s">
+      <c r="A197" s="62" t="s">
         <v>1268</v>
       </c>
-      <c r="B197" s="60"/>
-      <c r="C197" s="60"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="62"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="61" t="s">
+      <c r="A198" s="64" t="s">
         <v>1269</v>
       </c>
-      <c r="B198" s="61"/>
-      <c r="C198" s="61"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="64"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="50" t="s">
@@ -10363,11 +10627,11 @@
       <c r="A265" s="11"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="69" t="s">
+      <c r="A266" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="B266" s="69"/>
-      <c r="C266" s="69"/>
+      <c r="B266" s="71"/>
+      <c r="C266" s="71"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="50" t="s">
@@ -10394,11 +10658,11 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="60" t="s">
+      <c r="A272" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="B272" s="60"/>
-      <c r="C272" s="60"/>
+      <c r="B272" s="62"/>
+      <c r="C272" s="62"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="50" t="s">
@@ -10433,11 +10697,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="60" t="s">
+      <c r="A278" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B278" s="60"/>
-      <c r="C278" s="60"/>
+      <c r="B278" s="62"/>
+      <c r="C278" s="62"/>
     </row>
     <row r="279" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
@@ -10456,11 +10720,11 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="60" t="s">
+      <c r="A283" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="B283" s="60"/>
-      <c r="C283" s="60"/>
+      <c r="B283" s="62"/>
+      <c r="C283" s="62"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="50" t="s">
@@ -10506,7 +10770,7 @@
       <c r="A289" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="B289" s="64" t="s">
+      <c r="B289" s="66" t="s">
         <v>240</v>
       </c>
     </row>
@@ -10514,7 +10778,7 @@
       <c r="A290" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B290" s="64"/>
+      <c r="B290" s="66"/>
     </row>
     <row r="291" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
@@ -10554,11 +10818,11 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="60" t="s">
+      <c r="A297" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="B297" s="60"/>
-      <c r="C297" s="60"/>
+      <c r="B297" s="62"/>
+      <c r="C297" s="62"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="50" t="s">
@@ -10718,10 +10982,10 @@
         <v>1502</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>1571</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -10917,11 +11181,11 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="61" t="s">
+      <c r="A363" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B363" s="61"/>
-      <c r="C363" s="61"/>
+      <c r="B363" s="64"/>
+      <c r="C363" s="64"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="50" t="s">
@@ -10996,11 +11260,11 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="60" t="s">
+      <c r="A374" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="B374" s="60"/>
-      <c r="C374" s="60"/>
+      <c r="B374" s="62"/>
+      <c r="C374" s="62"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="50" t="s">
@@ -11019,11 +11283,11 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="60" t="s">
+      <c r="A379" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="B379" s="60"/>
-      <c r="C379" s="60"/>
+      <c r="B379" s="62"/>
+      <c r="C379" s="62"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="50" t="s">
@@ -11050,11 +11314,11 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="60" t="s">
+      <c r="A384" s="62" t="s">
         <v>452</v>
       </c>
-      <c r="B384" s="60"/>
-      <c r="C384" s="60"/>
+      <c r="B384" s="62"/>
+      <c r="C384" s="62"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="50" t="s">
@@ -11081,16 +11345,16 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="60" t="s">
+      <c r="A389" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B389" s="60"/>
+      <c r="B389" s="62"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="61" t="s">
+      <c r="A390" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="B390" s="61"/>
+      <c r="B390" s="64"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="50" t="s">
@@ -11099,7 +11363,7 @@
       <c r="B391" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C391" s="64" t="s">
+      <c r="C391" s="66" t="s">
         <v>495</v>
       </c>
     </row>
@@ -11110,7 +11374,7 @@
       <c r="B392" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C392" s="65"/>
+      <c r="C392" s="67"/>
     </row>
     <row r="393" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
@@ -11119,7 +11383,7 @@
       <c r="B393" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C393" s="65"/>
+      <c r="C393" s="67"/>
     </row>
     <row r="394" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A394" s="50" t="s">
@@ -11130,11 +11394,11 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="71" t="s">
+      <c r="A396" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="B396" s="75"/>
-      <c r="C396" s="72"/>
+      <c r="B396" s="69"/>
+      <c r="C396" s="70"/>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="54" t="s">
@@ -11184,11 +11448,11 @@
       <c r="A402" s="11"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="60" t="s">
+      <c r="A405" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="B405" s="60"/>
-      <c r="C405" s="60"/>
+      <c r="B405" s="62"/>
+      <c r="C405" s="62"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="50" t="s">
@@ -11226,11 +11490,11 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="60" t="s">
+      <c r="A411" s="62" t="s">
         <v>577</v>
       </c>
-      <c r="B411" s="60"/>
-      <c r="C411" s="60"/>
+      <c r="B411" s="62"/>
+      <c r="C411" s="62"/>
     </row>
     <row r="412" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
@@ -11257,11 +11521,11 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="60" t="s">
+      <c r="A416" s="62" t="s">
         <v>584</v>
       </c>
-      <c r="B416" s="60"/>
-      <c r="C416" s="60"/>
+      <c r="B416" s="62"/>
+      <c r="C416" s="62"/>
     </row>
     <row r="417" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
@@ -11288,11 +11552,11 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="60" t="s">
+      <c r="A421" s="62" t="s">
         <v>605</v>
       </c>
-      <c r="B421" s="60"/>
-      <c r="C421" s="60"/>
+      <c r="B421" s="62"/>
+      <c r="C421" s="62"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="50" t="s">
@@ -11319,11 +11583,11 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="60" t="s">
+      <c r="A427" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="B427" s="60"/>
-      <c r="C427" s="60"/>
+      <c r="B427" s="62"/>
+      <c r="C427" s="62"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="50" t="s">
@@ -11366,11 +11630,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="60" t="s">
+      <c r="A435" s="62" t="s">
         <v>915</v>
       </c>
-      <c r="B435" s="60"/>
-      <c r="C435" s="60"/>
+      <c r="B435" s="62"/>
+      <c r="C435" s="62"/>
     </row>
     <row r="436" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A436" s="53" t="s">
@@ -11400,11 +11664,11 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="61" t="s">
+      <c r="A439" s="64" t="s">
         <v>922</v>
       </c>
-      <c r="B439" s="61"/>
-      <c r="C439" s="61"/>
+      <c r="B439" s="64"/>
+      <c r="C439" s="64"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="50" t="s">
@@ -11471,7 +11735,7 @@
       <c r="A448" s="50" t="s">
         <v>930</v>
       </c>
-      <c r="B448" s="65" t="s">
+      <c r="B448" s="67" t="s">
         <v>936</v>
       </c>
     </row>
@@ -11479,7 +11743,7 @@
       <c r="A449" s="50" t="s">
         <v>931</v>
       </c>
-      <c r="B449" s="65"/>
+      <c r="B449" s="67"/>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="50" t="s">
@@ -11498,11 +11762,11 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="60" t="s">
+      <c r="A454" s="62" t="s">
         <v>943</v>
       </c>
-      <c r="B454" s="60"/>
-      <c r="C454" s="60"/>
+      <c r="B454" s="62"/>
+      <c r="C454" s="62"/>
     </row>
     <row r="455" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A455" s="53" t="s">
@@ -11516,7 +11780,7 @@
       <c r="A456" s="50" t="s">
         <v>946</v>
       </c>
-      <c r="B456" s="64" t="s">
+      <c r="B456" s="66" t="s">
         <v>948</v>
       </c>
     </row>
@@ -11524,7 +11788,7 @@
       <c r="A457" s="50" t="s">
         <v>947</v>
       </c>
-      <c r="B457" s="65"/>
+      <c r="B457" s="67"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="50" t="s">
@@ -11564,11 +11828,11 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="60" t="s">
+      <c r="A463" s="62" t="s">
         <v>989</v>
       </c>
-      <c r="B463" s="60"/>
-      <c r="C463" s="60"/>
+      <c r="B463" s="62"/>
+      <c r="C463" s="62"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="50" t="s">
@@ -11613,11 +11877,11 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="60" t="s">
+      <c r="A471" s="62" t="s">
         <v>995</v>
       </c>
-      <c r="B471" s="60"/>
-      <c r="C471" s="60"/>
+      <c r="B471" s="62"/>
+      <c r="C471" s="62"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="50" t="s">
@@ -11697,7 +11961,7 @@
       <c r="A482" s="55" t="s">
         <v>1175</v>
       </c>
-      <c r="B482" s="68" t="s">
+      <c r="B482" s="77" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -11705,7 +11969,7 @@
       <c r="A483" s="55" t="s">
         <v>1177</v>
       </c>
-      <c r="B483" s="68"/>
+      <c r="B483" s="77"/>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="50" t="s">
@@ -11831,17 +12095,17 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="60" t="s">
+      <c r="A507" s="62" t="s">
         <v>1110</v>
       </c>
-      <c r="B507" s="60"/>
-      <c r="C507" s="60"/>
+      <c r="B507" s="62"/>
+      <c r="C507" s="62"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="61" t="s">
+      <c r="A508" s="64" t="s">
         <v>1126</v>
       </c>
-      <c r="B508" s="61"/>
+      <c r="B508" s="64"/>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="50" t="s">
@@ -11908,17 +12172,17 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="61" t="s">
+      <c r="A522" s="64" t="s">
         <v>1127</v>
       </c>
-      <c r="B522" s="61"/>
+      <c r="B522" s="64"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="60" t="s">
+      <c r="A531" s="62" t="s">
         <v>1130</v>
       </c>
-      <c r="B531" s="60"/>
-      <c r="C531" s="60"/>
+      <c r="B531" s="62"/>
+      <c r="C531" s="62"/>
     </row>
     <row r="533" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A533" s="11" t="s">
@@ -12024,11 +12288,11 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="60" t="s">
+      <c r="A548" s="62" t="s">
         <v>1181</v>
       </c>
-      <c r="B548" s="60"/>
-      <c r="C548" s="60"/>
+      <c r="B548" s="62"/>
+      <c r="C548" s="62"/>
     </row>
     <row r="549" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A549" s="23" t="s">
@@ -12049,11 +12313,11 @@
       </c>
     </row>
     <row r="552" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A552" s="63" t="s">
+      <c r="A552" s="76" t="s">
         <v>1182</v>
       </c>
-      <c r="B552" s="63"/>
-      <c r="C552" s="63"/>
+      <c r="B552" s="76"/>
+      <c r="C552" s="76"/>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="42" t="s">
@@ -12079,11 +12343,11 @@
       <c r="A557" s="23"/>
     </row>
     <row r="558" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A558" s="63" t="s">
+      <c r="A558" s="76" t="s">
         <v>1190</v>
       </c>
-      <c r="B558" s="63"/>
-      <c r="C558" s="63"/>
+      <c r="B558" s="76"/>
+      <c r="C558" s="76"/>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="11" t="s">
@@ -12203,11 +12467,11 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581" s="60" t="s">
+      <c r="A581" s="62" t="s">
         <v>1228</v>
       </c>
-      <c r="B581" s="60"/>
-      <c r="C581" s="60"/>
+      <c r="B581" s="62"/>
+      <c r="C581" s="62"/>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="50" t="s">
@@ -12247,11 +12511,11 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588" s="60" t="s">
+      <c r="A588" s="62" t="s">
         <v>1227</v>
       </c>
-      <c r="B588" s="60"/>
-      <c r="C588" s="60"/>
+      <c r="B588" s="62"/>
+      <c r="C588" s="62"/>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="50" t="s">
@@ -12282,11 +12546,11 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A595" s="60" t="s">
+      <c r="A595" s="62" t="s">
         <v>1229</v>
       </c>
-      <c r="B595" s="60"/>
-      <c r="C595" s="60"/>
+      <c r="B595" s="62"/>
+      <c r="C595" s="62"/>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="50" t="s">
@@ -12322,11 +12586,11 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A603" s="60" t="s">
+      <c r="A603" s="62" t="s">
         <v>1238</v>
       </c>
-      <c r="B603" s="60"/>
-      <c r="C603" s="60"/>
+      <c r="B603" s="62"/>
+      <c r="C603" s="62"/>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="50" t="s">
@@ -12363,11 +12627,11 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610" s="60" t="s">
+      <c r="A610" s="62" t="s">
         <v>1343</v>
       </c>
-      <c r="B610" s="60"/>
-      <c r="C610" s="60"/>
+      <c r="B610" s="62"/>
+      <c r="C610" s="62"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="50" t="s">
@@ -12598,11 +12862,11 @@
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A656" s="60" t="s">
+      <c r="A656" s="62" t="s">
         <v>1437</v>
       </c>
-      <c r="B656" s="60"/>
-      <c r="C656" s="60"/>
+      <c r="B656" s="62"/>
+      <c r="C656" s="62"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="50" t="s">
@@ -12621,17 +12885,17 @@
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660" s="61" t="s">
+      <c r="A660" s="64" t="s">
         <v>1441</v>
       </c>
-      <c r="B660" s="61"/>
-      <c r="C660" s="61"/>
+      <c r="B660" s="64"/>
+      <c r="C660" s="64"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="47" t="s">
         <v>1453</v>
       </c>
-      <c r="B661" s="67" t="s">
+      <c r="B661" s="75" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -12639,7 +12903,7 @@
       <c r="A662" s="47" t="s">
         <v>1454</v>
       </c>
-      <c r="B662" s="67"/>
+      <c r="B662" s="75"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="42" t="s">
@@ -12700,367 +12964,496 @@
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674" s="66" t="s">
+      <c r="A674" s="65" t="s">
         <v>1532</v>
       </c>
-      <c r="B674" s="66"/>
-      <c r="C674" s="66"/>
+      <c r="B674" s="65"/>
+      <c r="C674" s="65"/>
     </row>
     <row r="675" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A675" s="50" t="s">
         <v>1533</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1534</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="42" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="42" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="42" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="42" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="42" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A681" s="66" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B681" s="66"/>
-      <c r="C681" s="66"/>
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A681" s="58" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1576</v>
+      </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A682" s="50" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>1573</v>
-      </c>
+      <c r="A682" s="65" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B682" s="65"/>
+      <c r="C682" s="65"/>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A683" s="42" t="s">
-        <v>1542</v>
+      <c r="A683" s="50" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="42" t="s">
-        <v>1183</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="42" t="s">
-        <v>1480</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="42" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="42" t="s">
-        <v>1353</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="42" t="s">
-        <v>1543</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="42" t="s">
-        <v>1358</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="42" t="s">
-        <v>1544</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="42" t="s">
-        <v>1508</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="42" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693" s="42" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A693" s="42" t="s">
+    <row r="694" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A694" s="42" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B694" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="B693" s="1" t="s">
+      <c r="C694" s="3" t="s">
         <v>1546</v>
       </c>
-      <c r="C693" s="3" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A694" s="62" t="s">
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" s="63" t="s">
         <v>1441</v>
       </c>
-      <c r="B694" s="62"/>
-      <c r="C694" s="62"/>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A695" s="42" t="s">
-        <v>1548</v>
-      </c>
+      <c r="B695" s="63"/>
+      <c r="C695" s="63"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="42" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="42" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="42" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="42" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="42" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="42" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="42" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="42" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="42" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="42" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="42" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A708" s="66" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707" s="42" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" s="65" t="s">
         <v>1463</v>
       </c>
-      <c r="B708" s="66"/>
-      <c r="C708" s="66"/>
-    </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A709" s="50" t="s">
+      <c r="B709" s="65"/>
+      <c r="C709" s="65"/>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" s="50" t="s">
         <v>1463</v>
       </c>
-      <c r="B709" s="1" t="s">
+      <c r="B710" s="1" t="s">
         <v>1464</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A710" s="42" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="42" t="s">
-        <v>1439</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="42" t="s">
-        <v>1353</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A713" s="42" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" s="42" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A714" s="42" t="s">
+    <row r="715" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A715" s="42" t="s">
         <v>1502</v>
       </c>
-      <c r="C714" s="3" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A715" s="42" t="s">
-        <v>1567</v>
+      <c r="C715" s="3" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="42" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717" s="42" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A718" s="62" t="s">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" s="63" t="s">
         <v>1441</v>
       </c>
-      <c r="B718" s="62"/>
-      <c r="C718" s="62"/>
-    </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A719" s="42" t="s">
-        <v>1568</v>
-      </c>
+      <c r="B719" s="63"/>
+      <c r="C719" s="63"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="42" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="42" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" s="42" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" s="42" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A722" s="42" t="s">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724" s="42" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A723" s="42" t="s">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725" s="42" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A724" s="42" t="s">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726" s="42" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A725" s="42" t="s">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727" s="42" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A726" s="42" t="s">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728" s="42" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A727" s="42" t="s">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" s="42" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A728" s="42" t="s">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730" s="42" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A729" s="42" t="s">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731" s="42" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A730" s="42" t="s">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732" s="42" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A731" s="42" t="s">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" s="42" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A732" s="42" t="s">
-        <v>1559</v>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" s="65" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B735" s="65"/>
+      <c r="C735" s="65"/>
+    </row>
+    <row r="736" spans="1:3" ht="182" x14ac:dyDescent="0.3">
+      <c r="A736" s="50" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B736" s="50" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C736" s="11" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" s="42" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" s="42" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" s="42" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" s="42" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" s="42" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" s="42" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" s="63" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B743" s="63"/>
+      <c r="C743" s="63"/>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" s="42" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" s="42" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" s="42" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" s="42" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" s="42" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" s="42" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" s="42" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" s="42" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" s="42" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A753" s="42" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A754" s="42" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A755" s="42" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A756" s="42" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A757" s="42" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A758" s="42" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A759" s="42" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A760" s="42" t="s">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="A708:C708"/>
-    <mergeCell ref="A718:C718"/>
+  <mergeCells count="77">
+    <mergeCell ref="B456:B457"/>
+    <mergeCell ref="A674:C674"/>
+    <mergeCell ref="A682:C682"/>
+    <mergeCell ref="B661:B662"/>
+    <mergeCell ref="A610:C610"/>
+    <mergeCell ref="A603:C603"/>
+    <mergeCell ref="A552:C552"/>
+    <mergeCell ref="A558:C558"/>
+    <mergeCell ref="A463:C463"/>
     <mergeCell ref="A595:C595"/>
     <mergeCell ref="A531:C531"/>
     <mergeCell ref="A588:C588"/>
-    <mergeCell ref="A660:C660"/>
-    <mergeCell ref="A548:C548"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="B448:B449"/>
-    <mergeCell ref="A416:C416"/>
-    <mergeCell ref="A405:C405"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A363:C363"/>
-    <mergeCell ref="A389:B389"/>
-    <mergeCell ref="C391:C393"/>
-    <mergeCell ref="A396:C396"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A471:C471"/>
     <mergeCell ref="B482:B483"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A507:C507"/>
+    <mergeCell ref="A508:B508"/>
     <mergeCell ref="A411:C411"/>
     <mergeCell ref="A421:C421"/>
     <mergeCell ref="A152:C152"/>
@@ -13073,22 +13466,55 @@
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="A171:C171"/>
     <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A507:C507"/>
-    <mergeCell ref="A508:B508"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="B448:B449"/>
+    <mergeCell ref="A416:C416"/>
+    <mergeCell ref="A427:C427"/>
+    <mergeCell ref="A405:C405"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A363:C363"/>
+    <mergeCell ref="A389:B389"/>
+    <mergeCell ref="C391:C393"/>
+    <mergeCell ref="A396:C396"/>
+    <mergeCell ref="A390:B390"/>
     <mergeCell ref="A581:C581"/>
-    <mergeCell ref="A427:C427"/>
-    <mergeCell ref="A694:C694"/>
+    <mergeCell ref="A695:C695"/>
     <mergeCell ref="A522:B522"/>
-    <mergeCell ref="A610:C610"/>
-    <mergeCell ref="A603:C603"/>
-    <mergeCell ref="A552:C552"/>
-    <mergeCell ref="A558:C558"/>
-    <mergeCell ref="A463:C463"/>
+    <mergeCell ref="A743:C743"/>
+    <mergeCell ref="A660:C660"/>
+    <mergeCell ref="A548:C548"/>
+    <mergeCell ref="A735:C735"/>
     <mergeCell ref="A656:C656"/>
-    <mergeCell ref="B456:B457"/>
-    <mergeCell ref="A674:C674"/>
-    <mergeCell ref="A681:C681"/>
-    <mergeCell ref="B661:B662"/>
+    <mergeCell ref="A709:C709"/>
+    <mergeCell ref="A719:C719"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -13175,53 +13601,77 @@
     <hyperlink ref="A678" r:id="rId82" display="https://api.flutter.dev/flutter/dart-core/RegExp/isMultiLine.html" xr:uid="{3BDF2A6C-1DBF-488C-B350-D7CE326BC80D}"/>
     <hyperlink ref="A679" r:id="rId83" display="https://api.flutter.dev/flutter/dart-core/RegExp/isUnicode.html" xr:uid="{381B12A9-C3BB-4DFE-93FD-2E4B4908B607}"/>
     <hyperlink ref="A680" r:id="rId84" display="https://api.flutter.dev/flutter/dart-core/RegExp/pattern.html" xr:uid="{1DC6059A-3BA7-4534-BE0C-497BA74F9B6C}"/>
-    <hyperlink ref="A683" r:id="rId85" display="https://api.flutter.dev/flutter/widgets/FormField/autovalidateMode.html" xr:uid="{03EF431F-E536-4B73-90AB-717FFE466F7E}"/>
-    <hyperlink ref="A684" r:id="rId86" display="https://api.flutter.dev/flutter/widgets/FormField/builder.html" xr:uid="{E4C7B31B-7881-4E2C-B345-3D856C5A5AAC}"/>
-    <hyperlink ref="A685" r:id="rId87" display="https://api.flutter.dev/flutter/material/TextFormField/controller.html" xr:uid="{1DA2432F-5760-45B3-A375-425BBBF1CC06}"/>
-    <hyperlink ref="A686" r:id="rId88" display="https://api.flutter.dev/flutter/widgets/FormField/enabled.html" xr:uid="{5643B669-D35B-4F73-80B3-3B9CC2043320}"/>
-    <hyperlink ref="A687" r:id="rId89" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{71165D62-4306-40F0-B042-49A8B437649F}"/>
-    <hyperlink ref="A688" r:id="rId90" display="https://api.flutter.dev/flutter/widgets/FormField/initialValue.html" xr:uid="{8D87944D-7600-4FD6-9A15-860E10BBFD17}"/>
-    <hyperlink ref="A689" r:id="rId91" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{012D8F92-09E6-41C4-AED6-2514DFD681AB}"/>
-    <hyperlink ref="A690" r:id="rId92" display="https://api.flutter.dev/flutter/widgets/FormField/onSaved.html" xr:uid="{17B47648-521E-4CD7-A4CF-48F5826B8F7A}"/>
-    <hyperlink ref="A691" r:id="rId93" display="https://api.flutter.dev/flutter/widgets/FormField/restorationId.html" xr:uid="{410B250A-391B-473C-A9AD-ADBA9A81878C}"/>
-    <hyperlink ref="A692" r:id="rId94" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{03871BD7-EC17-4BA0-8254-48DE16FE59BE}"/>
-    <hyperlink ref="A693" r:id="rId95" display="https://api.flutter.dev/flutter/widgets/FormField/validator.html" xr:uid="{29A53F86-EB54-4010-939A-DBFA27497560}"/>
-    <hyperlink ref="A695" r:id="rId96" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{3C89A7E4-9FD8-4919-B4CE-43438F4F5B66}"/>
-    <hyperlink ref="A696" r:id="rId97" display="https://api.flutter.dev/flutter/material/TextFormField/createState.html" xr:uid="{3AC7B427-7C1F-45FB-9BB0-3AC792314919}"/>
-    <hyperlink ref="A697" r:id="rId98" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{640F8B62-F522-4DDA-B564-9F03D5C003A9}"/>
-    <hyperlink ref="A698" r:id="rId99" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{8BEA0E27-0D22-4D95-B4D9-8E47F84380E7}"/>
-    <hyperlink ref="A699" r:id="rId100" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{A5D2DFC4-B70E-4136-BB8F-DACBF07C2195}"/>
-    <hyperlink ref="A700" r:id="rId101" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{4A142D07-5210-486F-B737-E74DBAF54DB3}"/>
-    <hyperlink ref="A701" r:id="rId102" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{FEBC10CF-1A15-491F-95A7-7CB417F5B027}"/>
-    <hyperlink ref="A702" r:id="rId103" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{329AB4D5-B5CA-4928-8F92-8C359164868E}"/>
-    <hyperlink ref="A703" r:id="rId104" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{AC364372-5786-4D2B-8F8A-6F53FF3C760E}"/>
-    <hyperlink ref="A704" r:id="rId105" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{017E3160-FA0F-4ED1-A92B-D4A0BD869893}"/>
-    <hyperlink ref="A705" r:id="rId106" location="operators" display="https://api.flutter.dev/flutter/material/TextFormField-class.html - operators" xr:uid="{33D2AD3A-CCAE-4E17-9342-9DDDE186A5B7}"/>
-    <hyperlink ref="A706" r:id="rId107" display="https://api.flutter.dev/flutter/widgets/Widget/operator_equals.html" xr:uid="{B9F58339-638D-480D-A0EF-B72C7C5DD612}"/>
-    <hyperlink ref="A710" r:id="rId108" display="https://api.flutter.dev/flutter/widgets/Form/autovalidateMode.html" xr:uid="{7B04F242-E1F3-4295-B42F-526E60D95909}"/>
-    <hyperlink ref="A711" r:id="rId109" display="https://api.flutter.dev/flutter/widgets/Form/child.html" xr:uid="{82B3CD6E-C56D-42F2-9B02-D98EB2AA3BD3}"/>
-    <hyperlink ref="A712" r:id="rId110" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{0A42E672-D356-4252-B250-10BD0F9DEFD4}"/>
-    <hyperlink ref="A713" r:id="rId111" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{A3108F3C-9832-40FF-88EE-31153B9EC398}"/>
-    <hyperlink ref="A714" r:id="rId112" display="https://api.flutter.dev/flutter/widgets/Form/onChanged.html" xr:uid="{F041B28C-2C64-416E-A9B9-7D97CB37D79B}"/>
-    <hyperlink ref="A715" r:id="rId113" display="https://api.flutter.dev/flutter/widgets/Form/onWillPop.html" xr:uid="{C5AEC19E-F61C-4A7D-BAE3-2ECF85B2A9D7}"/>
-    <hyperlink ref="A716" r:id="rId114" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{1230AABA-96C2-4BA2-9A2D-1353A550BA28}"/>
-    <hyperlink ref="A721" r:id="rId115" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{6AA7A959-F8A8-4557-A79B-4049618A7857}"/>
-    <hyperlink ref="A722" r:id="rId116" display="https://api.flutter.dev/flutter/widgets/Form/createState.html" xr:uid="{051BE967-7AE6-47C6-A58F-ACBCF1B1DE77}"/>
-    <hyperlink ref="A723" r:id="rId117" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{4ECFB435-CB9E-41DE-8F5C-78359ED23E07}"/>
-    <hyperlink ref="A724" r:id="rId118" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{AD1C83A1-38D3-4030-B840-673757A12C9A}"/>
-    <hyperlink ref="A725" r:id="rId119" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{3E03352D-4F31-4435-BABB-E192132E7809}"/>
-    <hyperlink ref="A726" r:id="rId120" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{D6A01CAA-02BF-4F16-BF72-B2D35422411F}"/>
-    <hyperlink ref="A727" r:id="rId121" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{461182E7-D53F-43C7-9648-8FF6E1D0F6D8}"/>
-    <hyperlink ref="A728" r:id="rId122" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{A0431980-A228-4FB2-A8B7-F132CE5528F8}"/>
-    <hyperlink ref="A729" r:id="rId123" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{EAA0CC0C-4EB2-4FDB-943E-49491F1D4FEE}"/>
-    <hyperlink ref="A730" r:id="rId124" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{6AA759AF-3236-47B1-8011-4E35DB967DA7}"/>
-    <hyperlink ref="A731" r:id="rId125" location="operators" display="https://api.flutter.dev/flutter/widgets/Form-class.html - operators" xr:uid="{36B8A8B2-151D-442C-815C-AADBEBB558B6}"/>
-    <hyperlink ref="A732" r:id="rId126" display="https://api.flutter.dev/flutter/widgets/Widget/operator_equals.html" xr:uid="{FD6FADB2-8ED0-473C-A2E7-C9E31E0460FD}"/>
-    <hyperlink ref="A719" r:id="rId127" display="https://api.flutter.dev/flutter/widgets/Form/maybeOf.html" xr:uid="{79803719-9E80-43B0-AD6D-8256CA448A59}"/>
-    <hyperlink ref="A720" r:id="rId128" display="https://api.flutter.dev/flutter/widgets/Form/of.html" xr:uid="{9EF10805-F206-44B4-A652-C385E2DCDC83}"/>
+    <hyperlink ref="A684" r:id="rId85" display="https://api.flutter.dev/flutter/widgets/FormField/autovalidateMode.html" xr:uid="{03EF431F-E536-4B73-90AB-717FFE466F7E}"/>
+    <hyperlink ref="A685" r:id="rId86" display="https://api.flutter.dev/flutter/widgets/FormField/builder.html" xr:uid="{E4C7B31B-7881-4E2C-B345-3D856C5A5AAC}"/>
+    <hyperlink ref="A686" r:id="rId87" display="https://api.flutter.dev/flutter/material/TextFormField/controller.html" xr:uid="{1DA2432F-5760-45B3-A375-425BBBF1CC06}"/>
+    <hyperlink ref="A687" r:id="rId88" display="https://api.flutter.dev/flutter/widgets/FormField/enabled.html" xr:uid="{5643B669-D35B-4F73-80B3-3B9CC2043320}"/>
+    <hyperlink ref="A688" r:id="rId89" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{71165D62-4306-40F0-B042-49A8B437649F}"/>
+    <hyperlink ref="A689" r:id="rId90" display="https://api.flutter.dev/flutter/widgets/FormField/initialValue.html" xr:uid="{8D87944D-7600-4FD6-9A15-860E10BBFD17}"/>
+    <hyperlink ref="A690" r:id="rId91" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{012D8F92-09E6-41C4-AED6-2514DFD681AB}"/>
+    <hyperlink ref="A691" r:id="rId92" display="https://api.flutter.dev/flutter/widgets/FormField/onSaved.html" xr:uid="{17B47648-521E-4CD7-A4CF-48F5826B8F7A}"/>
+    <hyperlink ref="A692" r:id="rId93" display="https://api.flutter.dev/flutter/widgets/FormField/restorationId.html" xr:uid="{410B250A-391B-473C-A9AD-ADBA9A81878C}"/>
+    <hyperlink ref="A693" r:id="rId94" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{03871BD7-EC17-4BA0-8254-48DE16FE59BE}"/>
+    <hyperlink ref="A694" r:id="rId95" display="https://api.flutter.dev/flutter/widgets/FormField/validator.html" xr:uid="{29A53F86-EB54-4010-939A-DBFA27497560}"/>
+    <hyperlink ref="A696" r:id="rId96" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{3C89A7E4-9FD8-4919-B4CE-43438F4F5B66}"/>
+    <hyperlink ref="A697" r:id="rId97" display="https://api.flutter.dev/flutter/material/TextFormField/createState.html" xr:uid="{3AC7B427-7C1F-45FB-9BB0-3AC792314919}"/>
+    <hyperlink ref="A698" r:id="rId98" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{640F8B62-F522-4DDA-B564-9F03D5C003A9}"/>
+    <hyperlink ref="A699" r:id="rId99" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{8BEA0E27-0D22-4D95-B4D9-8E47F84380E7}"/>
+    <hyperlink ref="A700" r:id="rId100" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{A5D2DFC4-B70E-4136-BB8F-DACBF07C2195}"/>
+    <hyperlink ref="A701" r:id="rId101" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{4A142D07-5210-486F-B737-E74DBAF54DB3}"/>
+    <hyperlink ref="A702" r:id="rId102" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{FEBC10CF-1A15-491F-95A7-7CB417F5B027}"/>
+    <hyperlink ref="A703" r:id="rId103" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{329AB4D5-B5CA-4928-8F92-8C359164868E}"/>
+    <hyperlink ref="A704" r:id="rId104" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{AC364372-5786-4D2B-8F8A-6F53FF3C760E}"/>
+    <hyperlink ref="A705" r:id="rId105" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{017E3160-FA0F-4ED1-A92B-D4A0BD869893}"/>
+    <hyperlink ref="A706" r:id="rId106" location="operators" display="https://api.flutter.dev/flutter/material/TextFormField-class.html - operators" xr:uid="{33D2AD3A-CCAE-4E17-9342-9DDDE186A5B7}"/>
+    <hyperlink ref="A707" r:id="rId107" display="https://api.flutter.dev/flutter/widgets/Widget/operator_equals.html" xr:uid="{B9F58339-638D-480D-A0EF-B72C7C5DD612}"/>
+    <hyperlink ref="A711" r:id="rId108" display="https://api.flutter.dev/flutter/widgets/Form/autovalidateMode.html" xr:uid="{7B04F242-E1F3-4295-B42F-526E60D95909}"/>
+    <hyperlink ref="A712" r:id="rId109" display="https://api.flutter.dev/flutter/widgets/Form/child.html" xr:uid="{82B3CD6E-C56D-42F2-9B02-D98EB2AA3BD3}"/>
+    <hyperlink ref="A713" r:id="rId110" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{0A42E672-D356-4252-B250-10BD0F9DEFD4}"/>
+    <hyperlink ref="A714" r:id="rId111" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{A3108F3C-9832-40FF-88EE-31153B9EC398}"/>
+    <hyperlink ref="A715" r:id="rId112" display="https://api.flutter.dev/flutter/widgets/Form/onChanged.html" xr:uid="{F041B28C-2C64-416E-A9B9-7D97CB37D79B}"/>
+    <hyperlink ref="A716" r:id="rId113" display="https://api.flutter.dev/flutter/widgets/Form/onWillPop.html" xr:uid="{C5AEC19E-F61C-4A7D-BAE3-2ECF85B2A9D7}"/>
+    <hyperlink ref="A717" r:id="rId114" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{1230AABA-96C2-4BA2-9A2D-1353A550BA28}"/>
+    <hyperlink ref="A722" r:id="rId115" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{6AA7A959-F8A8-4557-A79B-4049618A7857}"/>
+    <hyperlink ref="A723" r:id="rId116" display="https://api.flutter.dev/flutter/widgets/Form/createState.html" xr:uid="{051BE967-7AE6-47C6-A58F-ACBCF1B1DE77}"/>
+    <hyperlink ref="A724" r:id="rId117" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{4ECFB435-CB9E-41DE-8F5C-78359ED23E07}"/>
+    <hyperlink ref="A725" r:id="rId118" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{AD1C83A1-38D3-4030-B840-673757A12C9A}"/>
+    <hyperlink ref="A726" r:id="rId119" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{3E03352D-4F31-4435-BABB-E192132E7809}"/>
+    <hyperlink ref="A727" r:id="rId120" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{D6A01CAA-02BF-4F16-BF72-B2D35422411F}"/>
+    <hyperlink ref="A728" r:id="rId121" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{461182E7-D53F-43C7-9648-8FF6E1D0F6D8}"/>
+    <hyperlink ref="A729" r:id="rId122" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{A0431980-A228-4FB2-A8B7-F132CE5528F8}"/>
+    <hyperlink ref="A730" r:id="rId123" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{EAA0CC0C-4EB2-4FDB-943E-49491F1D4FEE}"/>
+    <hyperlink ref="A731" r:id="rId124" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{6AA759AF-3236-47B1-8011-4E35DB967DA7}"/>
+    <hyperlink ref="A732" r:id="rId125" location="operators" display="https://api.flutter.dev/flutter/widgets/Form-class.html - operators" xr:uid="{36B8A8B2-151D-442C-815C-AADBEBB558B6}"/>
+    <hyperlink ref="A733" r:id="rId126" display="https://api.flutter.dev/flutter/widgets/Widget/operator_equals.html" xr:uid="{FD6FADB2-8ED0-473C-A2E7-C9E31E0460FD}"/>
+    <hyperlink ref="A720" r:id="rId127" display="https://api.flutter.dev/flutter/widgets/Form/maybeOf.html" xr:uid="{79803719-9E80-43B0-AD6D-8256CA448A59}"/>
+    <hyperlink ref="A721" r:id="rId128" display="https://api.flutter.dev/flutter/widgets/Form/of.html" xr:uid="{9EF10805-F206-44B4-A652-C385E2DCDC83}"/>
+    <hyperlink ref="A681" r:id="rId129" xr:uid="{DC165EDA-9E97-46A6-A05A-566E9F22D35D}"/>
+    <hyperlink ref="A737" r:id="rId130" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/builder.html" xr:uid="{214E78B2-6929-4DCF-95D0-012E8F7D48D9}"/>
+    <hyperlink ref="A738" r:id="rId131" display="https://api.flutter.dev/flutter/widgets/Widget/hashCode.html" xr:uid="{3E681730-1A66-42C7-BFA8-E2FAECBB753E}"/>
+    <hyperlink ref="A739" r:id="rId132" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/initialData.html" xr:uid="{6C896514-6D3B-4F1F-ABA8-D3C0EA0B18C8}"/>
+    <hyperlink ref="A740" r:id="rId133" display="https://api.flutter.dev/flutter/widgets/Widget/key.html" xr:uid="{8627B49C-C066-403B-8712-9FA52D80D515}"/>
+    <hyperlink ref="A741" r:id="rId134" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{517BC461-8D21-42F7-9DB2-1FB6C19ACB4E}"/>
+    <hyperlink ref="A742" r:id="rId135" display="https://api.flutter.dev/flutter/widgets/StreamBuilderBase/stream.html" xr:uid="{36872ADB-19D9-4244-B741-EED8F85AA7B7}"/>
+    <hyperlink ref="A744" r:id="rId136" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/afterConnected.html" xr:uid="{6EA10CA8-693C-446F-B58F-14069D03D51C}"/>
+    <hyperlink ref="A745" r:id="rId137" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/afterData.html" xr:uid="{9E48E364-0352-4410-A56B-BEC106FE44A2}"/>
+    <hyperlink ref="A746" r:id="rId138" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/afterDisconnected.html" xr:uid="{B39B0A5E-6B04-406B-851E-C24D0A41A935}"/>
+    <hyperlink ref="A747" r:id="rId139" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/afterDone.html" xr:uid="{AC767779-B3E7-4FD2-8292-4E8C1823AF3A}"/>
+    <hyperlink ref="A748" r:id="rId140" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/afterError.html" xr:uid="{ED173000-C9DC-4B06-840F-722888ED09A0}"/>
+    <hyperlink ref="A749" r:id="rId141" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/build.html" xr:uid="{C32DAB37-4E3C-421B-AD06-92170706C81E}"/>
+    <hyperlink ref="A750" r:id="rId142" display="https://api.flutter.dev/flutter/widgets/StatefulWidget/createElement.html" xr:uid="{9ED3F46C-9300-4A1C-998E-03903470D95B}"/>
+    <hyperlink ref="A751" r:id="rId143" display="https://api.flutter.dev/flutter/widgets/StreamBuilderBase/createState.html" xr:uid="{D9EBFD25-ECF0-4399-817B-21E086F69B1C}"/>
+    <hyperlink ref="A752" r:id="rId144" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/debugDescribeChildren.html" xr:uid="{050AB093-EBCF-4C87-9927-9388B337100F}"/>
+    <hyperlink ref="A753" r:id="rId145" display="https://api.flutter.dev/flutter/widgets/Widget/debugFillProperties.html" xr:uid="{BCAA6230-4CC9-421C-90DD-3015EF27B2EC}"/>
+    <hyperlink ref="A754" r:id="rId146" display="https://api.flutter.dev/flutter/widgets/StreamBuilder/initial.html" xr:uid="{0F9AC28B-0B66-4B0B-A600-40E4631B9450}"/>
+    <hyperlink ref="A755" r:id="rId147" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{6EF515C2-2F2A-44F7-B632-E9E14CA10C7A}"/>
+    <hyperlink ref="A756" r:id="rId148" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toDiagnosticsNode.html" xr:uid="{4EB9C5D8-81C0-433C-A4C8-BF36A1F81281}"/>
+    <hyperlink ref="A757" r:id="rId149" display="https://api.flutter.dev/flutter/foundation/Diagnosticable/toString.html" xr:uid="{90F55400-0DD0-41C1-B59A-ED03780B44A0}"/>
+    <hyperlink ref="A758" r:id="rId150" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{5330CE05-D679-4FDB-878D-EBA445507E75}"/>
+    <hyperlink ref="A759" r:id="rId151" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{9F1228A7-92B0-4591-B4AA-29298E554DB5}"/>
+    <hyperlink ref="A760" r:id="rId152" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{C963BDF6-4464-4F3E-9FD9-777980F51CC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
 </worksheet>
 </file>
 
@@ -13274,11 +13724,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="64" t="s">
         <v>1107</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
     </row>
     <row r="12" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -13369,11 +13819,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="64" t="s">
         <v>1313</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
     </row>
     <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -13399,10 +13849,10 @@
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="79" t="s">
         <v>1037</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -13422,11 +13872,11 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
@@ -13480,11 +13930,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="77" t="s">
+      <c r="A49" s="79" t="s">
         <v>692</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
     </row>
     <row r="50" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -13606,11 +14056,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="81" t="s">
         <v>726</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
     </row>
     <row r="62" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
@@ -13619,7 +14069,7 @@
       <c r="B62" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="84" t="s">
         <v>747</v>
       </c>
     </row>
@@ -13630,7 +14080,7 @@
       <c r="B63" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="C63" s="83"/>
+      <c r="C63" s="85"/>
     </row>
     <row r="64" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
@@ -13639,7 +14089,7 @@
       <c r="B64" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="C64" s="83"/>
+      <c r="C64" s="85"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
@@ -13700,10 +14150,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="82" t="s">
         <v>743</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="86" t="s">
         <v>753</v>
       </c>
       <c r="C71" s="27" t="s">
@@ -13711,12 +14161,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
-      <c r="B72" s="85"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="87"/>
       <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A73" s="80" t="s">
+      <c r="A73" s="82" t="s">
         <v>745</v>
       </c>
       <c r="B73" s="26" t="s">
@@ -13727,7 +14177,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="28" t="s">
         <v>744</v>
       </c>
@@ -13757,11 +14207,11 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="88" t="s">
         <v>759</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="32" t="s">
         <v>770</v>
       </c>
@@ -13950,11 +14400,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="60" t="s">
+      <c r="A98" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -13997,11 +14447,11 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="60" t="s">
+      <c r="A106" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
     </row>
     <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -14076,11 +14526,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="60" t="s">
+      <c r="A117" s="62" t="s">
         <v>372</v>
       </c>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
     </row>
     <row r="118" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -14088,11 +14538,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="62"/>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -14175,10 +14625,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="89" t="s">
+      <c r="A131" s="80" t="s">
         <v>636</v>
       </c>
-      <c r="B131" s="89"/>
+      <c r="B131" s="80"/>
     </row>
     <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -14197,11 +14647,11 @@
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="69" t="s">
+      <c r="A135" s="71" t="s">
         <v>637</v>
       </c>
-      <c r="B135" s="69"/>
-      <c r="C135" s="69"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="71"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="74" t="s">
@@ -14335,11 +14785,11 @@
       <c r="B162" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="60" t="s">
+      <c r="A166" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="B166" s="60"/>
-      <c r="C166" s="60"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="62"/>
     </row>
     <row r="167" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -14351,24 +14801,24 @@
     </row>
     <row r="169" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="60" t="s">
+      <c r="A170" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="B170" s="60"/>
-      <c r="C170" s="60"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="62"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="64" t="s">
+      <c r="A171" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="B171" s="64"/>
+      <c r="B171" s="66"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="60" t="s">
+      <c r="A173" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="B173" s="60"/>
-      <c r="C173" s="60"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="62"/>
     </row>
     <row r="174" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -14395,11 +14845,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="61" t="s">
+      <c r="A178" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="B178" s="61"/>
-      <c r="C178" s="61"/>
+      <c r="B178" s="64"/>
+      <c r="C178" s="64"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -14418,11 +14868,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="61" t="s">
+      <c r="A183" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="B183" s="61"/>
-      <c r="C183" s="61"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="64"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -14441,11 +14891,11 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="61" t="s">
+      <c r="A187" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="B187" s="61"/>
-      <c r="C187" s="61"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="64"/>
     </row>
     <row r="188" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -14464,11 +14914,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="61" t="s">
+      <c r="A192" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="B192" s="61"/>
-      <c r="C192" s="61"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="64"/>
     </row>
     <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -14511,11 +14961,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="60" t="s">
+      <c r="A200" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="B200" s="60"/>
-      <c r="C200" s="60"/>
+      <c r="B200" s="62"/>
+      <c r="C200" s="62"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -14550,11 +15000,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="61" t="s">
+      <c r="A207" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="B207" s="61"/>
-      <c r="C207" s="61"/>
+      <c r="B207" s="64"/>
+      <c r="C207" s="64"/>
     </row>
     <row r="208" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -14573,11 +15023,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="60" t="s">
+      <c r="A211" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="B211" s="60"/>
-      <c r="C211" s="60"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="62"/>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -14593,11 +15043,11 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="60" t="s">
+      <c r="A215" s="62" t="s">
         <v>462</v>
       </c>
-      <c r="B215" s="60"/>
-      <c r="C215" s="60"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="62"/>
     </row>
     <row r="216" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
@@ -14638,11 +15088,11 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="61" t="s">
+      <c r="A221" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="B221" s="61"/>
-      <c r="C221" s="61"/>
+      <c r="B221" s="64"/>
+      <c r="C221" s="64"/>
     </row>
     <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
@@ -14688,11 +15138,11 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="61" t="s">
+      <c r="A228" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="B228" s="61"/>
-      <c r="C228" s="61"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="64"/>
     </row>
     <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -14727,11 +15177,11 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="60" t="s">
+      <c r="A235" s="62" t="s">
         <v>513</v>
       </c>
-      <c r="B235" s="60"/>
-      <c r="C235" s="60"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="62"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -14777,11 +15227,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="61" t="s">
+      <c r="A242" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="B242" s="61"/>
-      <c r="C242" s="61"/>
+      <c r="B242" s="64"/>
+      <c r="C242" s="64"/>
     </row>
     <row r="243" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
@@ -14826,11 +15276,11 @@
       <c r="C248" s="16"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="60" t="s">
+      <c r="A251" s="62" t="s">
         <v>524</v>
       </c>
-      <c r="B251" s="60"/>
-      <c r="C251" s="60"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="62"/>
     </row>
     <row r="252" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -14857,11 +15307,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="60" t="s">
+      <c r="A256" s="62" t="s">
         <v>553</v>
       </c>
-      <c r="B256" s="60"/>
-      <c r="C256" s="60"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="62"/>
     </row>
     <row r="257" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -14904,11 +15354,11 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="60" t="s">
+      <c r="A263" s="62" t="s">
         <v>554</v>
       </c>
-      <c r="B263" s="60"/>
-      <c r="C263" s="60"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="62"/>
     </row>
     <row r="264" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -14991,11 +15441,11 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="61" t="s">
+      <c r="A274" s="64" t="s">
         <v>575</v>
       </c>
-      <c r="B274" s="61"/>
-      <c r="C274" s="61"/>
+      <c r="B274" s="64"/>
+      <c r="C274" s="64"/>
     </row>
     <row r="275" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -15003,11 +15453,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="60" t="s">
+      <c r="A278" s="62" t="s">
         <v>591</v>
       </c>
-      <c r="B278" s="60"/>
-      <c r="C278" s="60"/>
+      <c r="B278" s="62"/>
+      <c r="C278" s="62"/>
     </row>
     <row r="279" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -15063,11 +15513,11 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="60" t="s">
+      <c r="A288" s="62" t="s">
         <v>605</v>
       </c>
-      <c r="B288" s="60"/>
-      <c r="C288" s="60"/>
+      <c r="B288" s="62"/>
+      <c r="C288" s="62"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -15094,11 +15544,11 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="60" t="s">
+      <c r="A293" s="62" t="s">
         <v>610</v>
       </c>
-      <c r="B293" s="60"/>
-      <c r="C293" s="60"/>
+      <c r="B293" s="62"/>
+      <c r="C293" s="62"/>
     </row>
     <row r="294" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
@@ -15149,11 +15599,11 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="60" t="s">
+      <c r="A301" s="62" t="s">
         <v>624</v>
       </c>
-      <c r="B301" s="60"/>
-      <c r="C301" s="60"/>
+      <c r="B301" s="62"/>
+      <c r="C301" s="62"/>
       <c r="D301" s="3" t="s">
         <v>635</v>
       </c>
@@ -15202,11 +15652,11 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="60" t="s">
+      <c r="A310" s="62" t="s">
         <v>661</v>
       </c>
-      <c r="B310" s="60"/>
-      <c r="C310" s="60"/>
+      <c r="B310" s="62"/>
+      <c r="C310" s="62"/>
     </row>
     <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
@@ -15258,17 +15708,17 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="64" t="s">
+      <c r="A316" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="B316" s="65"/>
+      <c r="B316" s="67"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="60" t="s">
+      <c r="A318" s="62" t="s">
         <v>774</v>
       </c>
-      <c r="B318" s="60"/>
-      <c r="C318" s="60"/>
+      <c r="B318" s="62"/>
+      <c r="C318" s="62"/>
     </row>
     <row r="319" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A319" s="33" t="s">
@@ -15346,11 +15796,11 @@
       <c r="C327" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="61" t="s">
+      <c r="A329" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="B329" s="61"/>
-      <c r="C329" s="61"/>
+      <c r="B329" s="64"/>
+      <c r="C329" s="64"/>
     </row>
     <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
@@ -15386,11 +15836,11 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="61" t="s">
+      <c r="A334" s="64" t="s">
         <v>805</v>
       </c>
-      <c r="B334" s="61"/>
-      <c r="C334" s="61"/>
+      <c r="B334" s="64"/>
+      <c r="C334" s="64"/>
     </row>
     <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -15417,11 +15867,11 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="60" t="s">
+      <c r="A339" s="62" t="s">
         <v>812</v>
       </c>
-      <c r="B339" s="60"/>
-      <c r="C339" s="60"/>
+      <c r="B339" s="62"/>
+      <c r="C339" s="62"/>
     </row>
     <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -15440,11 +15890,11 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="61" t="s">
+      <c r="A343" s="64" t="s">
         <v>816</v>
       </c>
-      <c r="B343" s="61"/>
-      <c r="C343" s="61"/>
+      <c r="B343" s="64"/>
+      <c r="C343" s="64"/>
     </row>
     <row r="344" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A344" s="35" t="s">
@@ -15531,11 +15981,11 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="60" t="s">
+      <c r="A354" s="62" t="s">
         <v>841</v>
       </c>
-      <c r="B354" s="60"/>
-      <c r="C354" s="60"/>
+      <c r="B354" s="62"/>
+      <c r="C354" s="62"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
@@ -15573,11 +16023,11 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="78" t="s">
+      <c r="A362" s="91" t="s">
         <v>842</v>
       </c>
-      <c r="B362" s="78"/>
-      <c r="C362" s="78"/>
+      <c r="B362" s="91"/>
+      <c r="C362" s="91"/>
     </row>
     <row r="363" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
@@ -15591,11 +16041,11 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="60" t="s">
+      <c r="A366" s="62" t="s">
         <v>849</v>
       </c>
-      <c r="B366" s="60"/>
-      <c r="C366" s="60"/>
+      <c r="B366" s="62"/>
+      <c r="C366" s="62"/>
     </row>
     <row r="367" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
@@ -15681,11 +16131,11 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="61" t="s">
+      <c r="A378" s="64" t="s">
         <v>872</v>
       </c>
-      <c r="B378" s="61"/>
-      <c r="C378" s="61"/>
+      <c r="B378" s="64"/>
+      <c r="C378" s="64"/>
     </row>
     <row r="379" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
@@ -15739,11 +16189,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="61" t="s">
+      <c r="A385" s="64" t="s">
         <v>887</v>
       </c>
-      <c r="B385" s="61"/>
-      <c r="C385" s="61"/>
+      <c r="B385" s="64"/>
+      <c r="C385" s="64"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -15797,11 +16247,11 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="60" t="s">
+      <c r="A393" s="62" t="s">
         <v>903</v>
       </c>
-      <c r="B393" s="60"/>
-      <c r="C393" s="60"/>
+      <c r="B393" s="62"/>
+      <c r="C393" s="62"/>
     </row>
     <row r="394" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
@@ -15828,11 +16278,11 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="61" t="s">
+      <c r="A397" s="64" t="s">
         <v>910</v>
       </c>
-      <c r="B397" s="61"/>
-      <c r="C397" s="61"/>
+      <c r="B397" s="64"/>
+      <c r="C397" s="64"/>
     </row>
     <row r="398" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
@@ -15851,11 +16301,11 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="60" t="s">
+      <c r="A401" s="62" t="s">
         <v>966</v>
       </c>
-      <c r="B401" s="60"/>
-      <c r="C401" s="60"/>
+      <c r="B401" s="62"/>
+      <c r="C401" s="62"/>
     </row>
     <row r="403" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -15890,11 +16340,11 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="60" t="s">
+      <c r="A409" s="62" t="s">
         <v>967</v>
       </c>
-      <c r="B409" s="60"/>
-      <c r="C409" s="60"/>
+      <c r="B409" s="62"/>
+      <c r="C409" s="62"/>
     </row>
     <row r="410" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
@@ -15951,11 +16401,11 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="60" t="s">
+      <c r="A417" s="62" t="s">
         <v>1002</v>
       </c>
-      <c r="B417" s="60"/>
-      <c r="C417" s="60"/>
+      <c r="B417" s="62"/>
+      <c r="C417" s="62"/>
     </row>
     <row r="418" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -15964,7 +16414,7 @@
       <c r="B418" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C418" s="76" t="s">
+      <c r="C418" s="92" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -15975,7 +16425,7 @@
       <c r="B419" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="C419" s="76"/>
+      <c r="C419" s="92"/>
     </row>
     <row r="420" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
@@ -15984,7 +16434,7 @@
       <c r="B420" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="C420" s="76"/>
+      <c r="C420" s="92"/>
     </row>
     <row r="421" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
@@ -15993,7 +16443,7 @@
       <c r="B421" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C421" s="76"/>
+      <c r="C421" s="92"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
@@ -16002,7 +16452,7 @@
       <c r="B422" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C422" s="76"/>
+      <c r="C422" s="92"/>
     </row>
     <row r="423" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
@@ -16011,7 +16461,7 @@
       <c r="B423" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C423" s="76"/>
+      <c r="C423" s="92"/>
     </row>
     <row r="424" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
@@ -16020,7 +16470,7 @@
       <c r="B424" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="C424" s="76"/>
+      <c r="C424" s="92"/>
     </row>
     <row r="425" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
@@ -16029,7 +16479,7 @@
       <c r="B425" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="C425" s="76"/>
+      <c r="C425" s="92"/>
     </row>
     <row r="426" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
@@ -16038,7 +16488,7 @@
       <c r="B426" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C426" s="76"/>
+      <c r="C426" s="92"/>
     </row>
     <row r="427" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
@@ -16052,11 +16502,11 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="61" t="s">
+      <c r="A429" s="64" t="s">
         <v>1030</v>
       </c>
-      <c r="B429" s="61"/>
-      <c r="C429" s="61"/>
+      <c r="B429" s="64"/>
+      <c r="C429" s="64"/>
     </row>
     <row r="430" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
@@ -16083,11 +16533,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="61" t="s">
+      <c r="A435" s="64" t="s">
         <v>1042</v>
       </c>
-      <c r="B435" s="61"/>
-      <c r="C435" s="61"/>
+      <c r="B435" s="64"/>
+      <c r="C435" s="64"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
@@ -16130,11 +16580,11 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="61" t="s">
+      <c r="A442" s="64" t="s">
         <v>1059</v>
       </c>
-      <c r="B442" s="61"/>
-      <c r="C442" s="61"/>
+      <c r="B442" s="64"/>
+      <c r="C442" s="64"/>
     </row>
     <row r="443" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
@@ -16177,11 +16627,11 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="61" t="s">
+      <c r="A449" s="64" t="s">
         <v>1064</v>
       </c>
-      <c r="B449" s="61"/>
-      <c r="C449" s="61"/>
+      <c r="B449" s="64"/>
+      <c r="C449" s="64"/>
     </row>
     <row r="450" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
@@ -16235,11 +16685,11 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="60" t="s">
+      <c r="A458" s="62" t="s">
         <v>1086</v>
       </c>
-      <c r="B458" s="60"/>
-      <c r="C458" s="60"/>
+      <c r="B458" s="62"/>
+      <c r="C458" s="62"/>
     </row>
     <row r="459" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
@@ -16269,11 +16719,11 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="61" t="s">
+      <c r="A462" s="64" t="s">
         <v>1087</v>
       </c>
-      <c r="B462" s="61"/>
-      <c r="C462" s="61"/>
+      <c r="B462" s="64"/>
+      <c r="C462" s="64"/>
     </row>
     <row r="463" spans="1:3" ht="378" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
@@ -16292,11 +16742,11 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="61" t="s">
+      <c r="A466" s="64" t="s">
         <v>1096</v>
       </c>
-      <c r="B466" s="61"/>
-      <c r="C466" s="61"/>
+      <c r="B466" s="64"/>
+      <c r="C466" s="64"/>
     </row>
     <row r="467" spans="1:3" ht="224" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
@@ -16334,11 +16784,11 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="67" t="s">
+      <c r="A472" s="75" t="s">
         <v>1314</v>
       </c>
-      <c r="B472" s="67"/>
-      <c r="C472" s="67"/>
+      <c r="B472" s="75"/>
+      <c r="C472" s="75"/>
     </row>
     <row r="473" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
@@ -16347,7 +16797,7 @@
       <c r="B473" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C473" s="77" t="s">
+      <c r="C473" s="79" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -16358,7 +16808,7 @@
       <c r="B474" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C474" s="77"/>
+      <c r="C474" s="79"/>
     </row>
     <row r="475" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
@@ -16367,7 +16817,7 @@
       <c r="B475" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C475" s="77" t="s">
+      <c r="C475" s="79" t="s">
         <v>356</v>
       </c>
     </row>
@@ -16378,7 +16828,7 @@
       <c r="B476" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C476" s="77"/>
+      <c r="C476" s="79"/>
     </row>
     <row r="477" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
@@ -16387,7 +16837,7 @@
       <c r="B477" s="15" t="s">
         <v>1323</v>
       </c>
-      <c r="C477" s="77" t="s">
+      <c r="C477" s="79" t="s">
         <v>358</v>
       </c>
     </row>
@@ -16398,21 +16848,21 @@
       <c r="B478" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C478" s="77"/>
+      <c r="C478" s="79"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="90" t="s">
+      <c r="A479" s="78" t="s">
         <v>1466</v>
       </c>
-      <c r="B479" s="90"/>
-      <c r="C479" s="90"/>
+      <c r="B479" s="78"/>
+      <c r="C479" s="78"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="60" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B480" s="60"/>
-      <c r="C480" s="60"/>
+      <c r="A480" s="62" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B480" s="62"/>
+      <c r="C480" s="62"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
@@ -16440,7 +16890,7 @@
     </row>
     <row r="484" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>1471</v>
@@ -16461,42 +16911,88 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="60" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B486" s="60"/>
-      <c r="C486" s="60"/>
+      <c r="A486" s="62" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B486" s="62"/>
+      <c r="C486" s="62"/>
     </row>
     <row r="487" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C487" s="65" t="s">
-        <v>1566</v>
+        <v>1561</v>
+      </c>
+      <c r="C487" s="67" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C488" s="65"/>
+        <v>1562</v>
+      </c>
+      <c r="C488" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="C487:C488"/>
-    <mergeCell ref="A480:C480"/>
-    <mergeCell ref="A479:C479"/>
-    <mergeCell ref="A472:C472"/>
-    <mergeCell ref="C473:C474"/>
-    <mergeCell ref="C475:C476"/>
-    <mergeCell ref="C477:C478"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A435:C435"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A417:C417"/>
+    <mergeCell ref="A393:C393"/>
+    <mergeCell ref="A397:C397"/>
+    <mergeCell ref="C418:C426"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A362:C362"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="A385:C385"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A274:C274"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A466:C466"/>
     <mergeCell ref="A458:C458"/>
@@ -16513,60 +17009,14 @@
     <mergeCell ref="A136:C136"/>
     <mergeCell ref="A211:C211"/>
     <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A385:C385"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A362:C362"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A435:C435"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A417:C417"/>
-    <mergeCell ref="A393:C393"/>
-    <mergeCell ref="A397:C397"/>
-    <mergeCell ref="C418:C426"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="C487:C488"/>
+    <mergeCell ref="A480:C480"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="A472:C472"/>
+    <mergeCell ref="C473:C474"/>
+    <mergeCell ref="C475:C476"/>
+    <mergeCell ref="C477:C478"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A379" r:id="rId1" xr:uid="{D9DA8AC6-553A-495C-B259-2291D3294DC9}"/>
@@ -16613,10 +17063,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="72" t="s">
         <v>1333</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="72"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -16654,10 +17104,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="72" t="s">
         <v>1388</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
     </row>
     <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -16698,10 +17148,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="79" t="s">
         <v>1401</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -16737,11 +17187,11 @@
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
     </row>
     <row r="20" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -16802,16 +17252,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B2E3C-F508-4BEB-A92C-BE6576F671A4}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -16831,10 +17282,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="91" t="s">
         <v>1410</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="91"/>
     </row>
     <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -16941,11 +17392,11 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="62" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
@@ -16974,10 +17425,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="62" t="s">
         <v>1431</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="62"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -16995,17 +17446,77 @@
         <v>1436</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+    </row>
+    <row r="28" spans="1:3" ht="168" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="182" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="32" spans="1:3" ht="238" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1603</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" xr:uid="{254B2BB8-DC48-46D4-B80E-73F7285469BF}"/>
     <hyperlink ref="A24" r:id="rId2" xr:uid="{33F82E2D-8B94-41FE-99E7-BFB1E7836CA6}"/>
+    <hyperlink ref="A33" r:id="rId3" xr:uid="{8C60CE6B-2313-4CE5-B1C4-7AB085B3D1CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/fluttre  (1) (1).xlsx
+++ b/fluttre  (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1068" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5835350-12B3-48F4-B6F2-0C27CF88E38D}"/>
+  <xr:revisionPtr revIDLastSave="1151" documentId="8_{5B8B3889-373F-48F5-9251-40B3449F1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F6AD13B-86E1-46A4-AE32-AA3B7A585A3C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1648">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -7914,9 +7914,6 @@
     <t xml:space="preserve"> if (!mounted) return;</t>
   </si>
   <si>
-    <t>وهذا الكود  لدواعي امنية غير معروفه</t>
-  </si>
-  <si>
     <t xml:space="preserve">  if (!mounted) return;
                      Navigator.pushReplacement(
                         context,
@@ -8034,6 +8031,354 @@
           }
           )</t>
     </r>
+  </si>
+  <si>
+    <t>ConnectionState</t>
+  </si>
+  <si>
+    <t>حالة الاتصال</t>
+  </si>
+  <si>
+    <t>القيمة</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتظار </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> if (snapshot.connectionState ==
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ConnectionState.waiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+اذا حالة الاتصال  هي انتظار</t>
+    </r>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>الخصائص</t>
+  </si>
+  <si>
+    <t>الميثود</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">الانتقال الى صفحة أخرى مع سهم الرجوع
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>اسم الصفحه التي تريد الانتقال اليها</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">وهذا الكود يقول اذا في ميثد يعني اذا جت بينات شغل </t>
+  </si>
+  <si>
+    <t>لتغيير كلمة المرور</t>
+  </si>
+  <si>
+    <t>https://firebase.google.com/docs/auth/flutter/manage-users?hl=ar#send_a_password_reset_email</t>
+  </si>
+  <si>
+    <t>موقع فير بيس لكود تغيير كلمة المرور</t>
+  </si>
+  <si>
+    <t>وهذ هو الكود بس تذف الايميل الموجود بلون الأحمر</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">await FirebaseAuth.instance
+    .sendPasswordResetEmail(email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"user@example.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>وبدل الايميل الي في رقم 36 تحط الفاريبول  بلون الأحمر</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>final myController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = TextEditingController();
+وهذ الفاريبول مسول عن القيمةالي داخل مربع الحوار (كونترولا  )
+  try {
+      await FirebaseAuth.instance
+          .sendPasswordResetEmail(email: myController.text);
+وهذ الفونكشن اسمها حاول مختصه في الاتصالات</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Future استقبال البينات </t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>وهي تستقبل البينات من الفاير بيس</t>
+  </si>
+  <si>
+    <t>المنشئات يعني تكتب Future وبعدها نقطة وبعدها المنشات</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>microtask</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>متأخر</t>
+  </si>
+  <si>
+    <t>asStream</t>
+  </si>
+  <si>
+    <t>catchError</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>whenComplete</t>
+  </si>
+  <si>
+    <t>طرق الميثود</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>doWhile</t>
+  </si>
+  <si>
+    <t>forEach</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>ارسال رابط على البريد للتحقق من البريد</t>
+  </si>
+  <si>
+    <t>// ignore_for_file: prefer_const_literals_to_create_immutables, prefer_const_constructors
+import 'dart:async';
+import 'package:firebase_auth/firebase_auth.dart';
+import 'package:flutter/material.dart';
+import '../const/color.dart';
+import 'error.dart';
+import 'home.dart';
+class VerifyEmailPage extends StatefulWidget {
+  VerifyEmailPage({Key? key}) : super(key: key);
+  @override
+  State&lt;VerifyEmailPage&gt; createState() =&gt; _VerifyEmailPageState();
+}
+class _VerifyEmailPageState extends State&lt;VerifyEmailPage&gt; {
+  bool isEmailVerified = false;
+  // وهذ الفاريبول خاص بتحقق حق الايميل وقيمتة خطاء
+  bool canResendEmail = false;
+  // وفذا خاص بقية صح او خطاء
+  Timer? timer;
+// فاريبول الوقت
+  @override
+  void initState() {
+    // TODO: implement initState
+    super.initState();
+    isEmailVerified = FirebaseAuth.instance.currentUser!.emailVerified;
+// وهذ الفاريبول في المصادقة حقت الفاير بيس
+    if (!isEmailVerified) {
+      // وهنا قيمة اتوقع مجهزله
+      sendVerificationEmail();
+// ذه فونكشن
+      timer = Timer.periodic(Duration(seconds: 3), (timer) async {
+        // يعيد عملية بعد 3ثواني
+        await FirebaseAuth.instance.currentUser!.reload();
+        setState(() {
+          isEmailVerified = FirebaseAuth.instance.currentUser!.emailVerified;
+        });
+        if (isEmailVerified) {
+          timer.cancel();
+        }
+      });
+    }
+  }
+  // وهذ الفونكشن تشتغل اول ما يشتغل الصفحه
+  // وفيها 
+  sendVerificationEmail() async {
+    try {
+      await FirebaseAuth.instance.currentUser!.sendEmailVerification();
+      // هذا الكود يقول يا فاير يعني اتصال وبعدين
+      // الحاله حقت الايميل 
+      // ارسل بريد
+      setState(() {
+        canResendEmail = false;
+      });
+      await Future.delayed(Duration(seconds: 5));
+      setState(() {
+        canResendEmail = true;
+      });
+    } catch (e) {
+      showSnackBar(context, "ERROR =&gt; ${e.toString()}");
+    }
+  }
+  @override
+  void dispose() {
+    // TODO: implement dispose
+    timer?.cancel();
+    super.dispose();
+  }
+//  هذه الفونكشن الي تحسن اداء 
+//البرنامج وفيها وقفنا عمل فاريبول الوقت سطر رقم23
+  @override
+  Widget build(BuildContext context) {
+    return isEmailVerified
+        ? Home()
+        : Scaffold(
+            appBar: AppBar(
+              title: Text("Verify Email"),
+              elevation: 0,
+              backgroundColor: appbarGreen,
+            ),
+            body: Padding(
+              padding: const EdgeInsets.all(20.0),
+              child: Column(
+                mainAxisAlignment: MainAxisAlignment.center,
+                children: [
+                  Text(
+                    "A verification email has been sent to your email",
+                    style: TextStyle(fontSize: 20),
+                    textAlign: TextAlign.center,
+                  ),
+                  SizedBox(
+                    height: 25,
+                  ),
+                  ElevatedButton(
+                    onPressed: () {
+                      canResendEmail? sendVerificationEmail() : null;
+                    },
+                    style: ButtonStyle(
+                      backgroundColor: MaterialStateProperty.all(BTNgreen),
+                      padding: MaterialStateProperty.all(EdgeInsets.all(12)),
+                      shape: MaterialStateProperty.all(RoundedRectangleBorder(
+                          borderRadius: BorderRadius.circular(8))),
+                    ),
+                    child: Text(
+                      "Resent Email",
+                      style: TextStyle(fontSize: 20),
+                    ),
+                  ),
+                  SizedBox(
+                    height: 11,
+                  ),
+                  ElevatedButton(
+                    onPressed: () {
+                      FirebaseAuth.instance.signOut();
+                    },
+                    style: ButtonStyle(
+                      backgroundColor: MaterialStateProperty.all(BTNpink),
+                      padding: MaterialStateProperty.all(EdgeInsets.all(12)),
+                      shape: MaterialStateProperty.all(RoundedRectangleBorder(
+                          borderRadius: BorderRadius.circular(8))),
+                    ),
+                    child: Text(
+                      "Cansel",
+                      style: TextStyle(fontSize: 20),
+                    ),
+                  ),
+                ],
+              ),
+            ),
+          );
+  }
+}</t>
+  </si>
+  <si>
+    <t>وهنا شرح لعملية ارسال الرسالة</t>
   </si>
 </sst>
 </file>
@@ -8565,16 +8910,16 @@
     <xf numFmtId="20" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8980,7 +9325,7 @@
   <dimension ref="G7:J13"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8991,7 +9336,7 @@
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="60"/>
     </row>
@@ -9011,7 +9356,7 @@
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="61">
-        <v>0.40347222222222223</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="J12" s="60"/>
     </row>
@@ -9035,10 +9380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C760"/>
+  <dimension ref="A1:C801"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A743" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B742" sqref="B742"/>
+    <sheetView rightToLeft="1" topLeftCell="A685" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C694" sqref="C694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9152,11 +9497,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -9189,11 +9534,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
@@ -9282,10 +9627,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="65"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
@@ -9328,10 +9673,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="64"/>
+      <c r="B49" s="65"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
@@ -9350,10 +9695,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="64"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -9403,10 +9748,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="62"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="2" t="s">
         <v>59</v>
       </c>
@@ -9483,11 +9828,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="50" t="s">
@@ -9545,11 +9890,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="62"/>
-      <c r="C85" s="62"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="50" t="s">
@@ -9595,11 +9940,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="50" t="s">
@@ -9626,11 +9971,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="50" t="s">
@@ -9767,10 +10112,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="62" t="s">
+      <c r="A119" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="62"/>
+      <c r="B119" s="64"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" ht="70" x14ac:dyDescent="0.3">
@@ -9820,11 +10165,11 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="62" t="s">
+      <c r="A126" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B126" s="62"/>
-      <c r="C126" s="62"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="50" t="s">
@@ -9867,11 +10212,11 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="62" t="s">
+      <c r="A133" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B133" s="62"/>
-      <c r="C133" s="62"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="50" t="s">
@@ -9914,11 +10259,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B140" s="62"/>
-      <c r="C140" s="62"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="50" t="s">
@@ -9945,11 +10290,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="62" t="s">
+      <c r="A145" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="64"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="50" t="s">
@@ -9992,11 +10337,11 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="62" t="s">
+      <c r="A152" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="B152" s="62"/>
-      <c r="C152" s="62"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="64"/>
     </row>
     <row r="153" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
@@ -10015,11 +10360,11 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="62" t="s">
+      <c r="A157" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="B157" s="62"/>
-      <c r="C157" s="62"/>
+      <c r="B157" s="64"/>
+      <c r="C157" s="64"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="50" t="s">
@@ -10102,11 +10447,11 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="64" t="s">
+      <c r="A171" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="B171" s="64"/>
-      <c r="C171" s="64"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="65"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="50" t="s">
@@ -10141,11 +10486,11 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="64" t="s">
+      <c r="A177" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="B177" s="64"/>
-      <c r="C177" s="64"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="65"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="50" t="s">
@@ -10180,11 +10525,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="64" t="s">
+      <c r="A183" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="65"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="50" t="s">
@@ -10227,11 +10572,11 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="62" t="s">
+      <c r="A190" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B190" s="62"/>
-      <c r="C190" s="62"/>
+      <c r="B190" s="64"/>
+      <c r="C190" s="64"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="50" t="s">
@@ -10255,18 +10600,18 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="62" t="s">
+      <c r="A197" s="64" t="s">
         <v>1268</v>
       </c>
-      <c r="B197" s="62"/>
-      <c r="C197" s="62"/>
+      <c r="B197" s="64"/>
+      <c r="C197" s="64"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="64" t="s">
+      <c r="A198" s="65" t="s">
         <v>1269</v>
       </c>
-      <c r="B198" s="64"/>
-      <c r="C198" s="64"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="65"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="50" t="s">
@@ -10658,11 +11003,11 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="62" t="s">
+      <c r="A272" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="B272" s="62"/>
-      <c r="C272" s="62"/>
+      <c r="B272" s="64"/>
+      <c r="C272" s="64"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="50" t="s">
@@ -10697,11 +11042,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="62" t="s">
+      <c r="A278" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="B278" s="62"/>
-      <c r="C278" s="62"/>
+      <c r="B278" s="64"/>
+      <c r="C278" s="64"/>
     </row>
     <row r="279" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
@@ -10720,11 +11065,11 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="62" t="s">
+      <c r="A283" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="B283" s="62"/>
-      <c r="C283" s="62"/>
+      <c r="B283" s="64"/>
+      <c r="C283" s="64"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="50" t="s">
@@ -10818,11 +11163,11 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="62" t="s">
+      <c r="A297" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="B297" s="62"/>
-      <c r="C297" s="62"/>
+      <c r="B297" s="64"/>
+      <c r="C297" s="64"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="50" t="s">
@@ -11181,11 +11526,11 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="64" t="s">
+      <c r="A363" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="B363" s="64"/>
-      <c r="C363" s="64"/>
+      <c r="B363" s="65"/>
+      <c r="C363" s="65"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="50" t="s">
@@ -11260,11 +11605,11 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="62" t="s">
+      <c r="A374" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="B374" s="62"/>
-      <c r="C374" s="62"/>
+      <c r="B374" s="64"/>
+      <c r="C374" s="64"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="50" t="s">
@@ -11283,11 +11628,11 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="62" t="s">
+      <c r="A379" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="B379" s="62"/>
-      <c r="C379" s="62"/>
+      <c r="B379" s="64"/>
+      <c r="C379" s="64"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="50" t="s">
@@ -11314,11 +11659,11 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="62" t="s">
+      <c r="A384" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="B384" s="62"/>
-      <c r="C384" s="62"/>
+      <c r="B384" s="64"/>
+      <c r="C384" s="64"/>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="50" t="s">
@@ -11345,16 +11690,16 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="62" t="s">
+      <c r="A389" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B389" s="62"/>
+      <c r="B389" s="64"/>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="64" t="s">
+      <c r="A390" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="B390" s="64"/>
+      <c r="B390" s="65"/>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="50" t="s">
@@ -11448,11 +11793,11 @@
       <c r="A402" s="11"/>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="62" t="s">
+      <c r="A405" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="B405" s="62"/>
-      <c r="C405" s="62"/>
+      <c r="B405" s="64"/>
+      <c r="C405" s="64"/>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="50" t="s">
@@ -11490,11 +11835,11 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="62" t="s">
+      <c r="A411" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="B411" s="62"/>
-      <c r="C411" s="62"/>
+      <c r="B411" s="64"/>
+      <c r="C411" s="64"/>
     </row>
     <row r="412" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
@@ -11521,11 +11866,11 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="62" t="s">
+      <c r="A416" s="64" t="s">
         <v>584</v>
       </c>
-      <c r="B416" s="62"/>
-      <c r="C416" s="62"/>
+      <c r="B416" s="64"/>
+      <c r="C416" s="64"/>
     </row>
     <row r="417" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
@@ -11552,11 +11897,11 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="62" t="s">
+      <c r="A421" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="B421" s="62"/>
-      <c r="C421" s="62"/>
+      <c r="B421" s="64"/>
+      <c r="C421" s="64"/>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="50" t="s">
@@ -11583,11 +11928,11 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="62" t="s">
+      <c r="A427" s="64" t="s">
         <v>647</v>
       </c>
-      <c r="B427" s="62"/>
-      <c r="C427" s="62"/>
+      <c r="B427" s="64"/>
+      <c r="C427" s="64"/>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="50" t="s">
@@ -11630,11 +11975,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="62" t="s">
+      <c r="A435" s="64" t="s">
         <v>915</v>
       </c>
-      <c r="B435" s="62"/>
-      <c r="C435" s="62"/>
+      <c r="B435" s="64"/>
+      <c r="C435" s="64"/>
     </row>
     <row r="436" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A436" s="53" t="s">
@@ -11664,11 +12009,11 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="64" t="s">
+      <c r="A439" s="65" t="s">
         <v>922</v>
       </c>
-      <c r="B439" s="64"/>
-      <c r="C439" s="64"/>
+      <c r="B439" s="65"/>
+      <c r="C439" s="65"/>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="50" t="s">
@@ -11762,11 +12107,11 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="62" t="s">
+      <c r="A454" s="64" t="s">
         <v>943</v>
       </c>
-      <c r="B454" s="62"/>
-      <c r="C454" s="62"/>
+      <c r="B454" s="64"/>
+      <c r="C454" s="64"/>
     </row>
     <row r="455" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A455" s="53" t="s">
@@ -11828,11 +12173,11 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="62" t="s">
+      <c r="A463" s="64" t="s">
         <v>989</v>
       </c>
-      <c r="B463" s="62"/>
-      <c r="C463" s="62"/>
+      <c r="B463" s="64"/>
+      <c r="C463" s="64"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="50" t="s">
@@ -11877,11 +12222,11 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="62" t="s">
+      <c r="A471" s="64" t="s">
         <v>995</v>
       </c>
-      <c r="B471" s="62"/>
-      <c r="C471" s="62"/>
+      <c r="B471" s="64"/>
+      <c r="C471" s="64"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="50" t="s">
@@ -12095,17 +12440,17 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="62" t="s">
+      <c r="A507" s="64" t="s">
         <v>1110</v>
       </c>
-      <c r="B507" s="62"/>
-      <c r="C507" s="62"/>
+      <c r="B507" s="64"/>
+      <c r="C507" s="64"/>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="64" t="s">
+      <c r="A508" s="65" t="s">
         <v>1126</v>
       </c>
-      <c r="B508" s="64"/>
+      <c r="B508" s="65"/>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="50" t="s">
@@ -12172,17 +12517,17 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="64" t="s">
+      <c r="A522" s="65" t="s">
         <v>1127</v>
       </c>
-      <c r="B522" s="64"/>
+      <c r="B522" s="65"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="62" t="s">
+      <c r="A531" s="64" t="s">
         <v>1130</v>
       </c>
-      <c r="B531" s="62"/>
-      <c r="C531" s="62"/>
+      <c r="B531" s="64"/>
+      <c r="C531" s="64"/>
     </row>
     <row r="533" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A533" s="11" t="s">
@@ -12288,11 +12633,11 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="62" t="s">
+      <c r="A548" s="64" t="s">
         <v>1181</v>
       </c>
-      <c r="B548" s="62"/>
-      <c r="C548" s="62"/>
+      <c r="B548" s="64"/>
+      <c r="C548" s="64"/>
     </row>
     <row r="549" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A549" s="23" t="s">
@@ -12467,11 +12812,11 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581" s="62" t="s">
+      <c r="A581" s="64" t="s">
         <v>1228</v>
       </c>
-      <c r="B581" s="62"/>
-      <c r="C581" s="62"/>
+      <c r="B581" s="64"/>
+      <c r="C581" s="64"/>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="50" t="s">
@@ -12511,11 +12856,11 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588" s="62" t="s">
+      <c r="A588" s="64" t="s">
         <v>1227</v>
       </c>
-      <c r="B588" s="62"/>
-      <c r="C588" s="62"/>
+      <c r="B588" s="64"/>
+      <c r="C588" s="64"/>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="50" t="s">
@@ -12546,11 +12891,11 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A595" s="62" t="s">
+      <c r="A595" s="64" t="s">
         <v>1229</v>
       </c>
-      <c r="B595" s="62"/>
-      <c r="C595" s="62"/>
+      <c r="B595" s="64"/>
+      <c r="C595" s="64"/>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="50" t="s">
@@ -12586,11 +12931,11 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A603" s="62" t="s">
+      <c r="A603" s="64" t="s">
         <v>1238</v>
       </c>
-      <c r="B603" s="62"/>
-      <c r="C603" s="62"/>
+      <c r="B603" s="64"/>
+      <c r="C603" s="64"/>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="50" t="s">
@@ -12627,11 +12972,11 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610" s="62" t="s">
+      <c r="A610" s="64" t="s">
         <v>1343</v>
       </c>
-      <c r="B610" s="62"/>
-      <c r="C610" s="62"/>
+      <c r="B610" s="64"/>
+      <c r="C610" s="64"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="50" t="s">
@@ -12862,11 +13207,11 @@
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A656" s="62" t="s">
+      <c r="A656" s="64" t="s">
         <v>1437</v>
       </c>
-      <c r="B656" s="62"/>
-      <c r="C656" s="62"/>
+      <c r="B656" s="64"/>
+      <c r="C656" s="64"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="50" t="s">
@@ -12885,11 +13230,11 @@
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660" s="64" t="s">
+      <c r="A660" s="65" t="s">
         <v>1441</v>
       </c>
-      <c r="B660" s="64"/>
-      <c r="C660" s="64"/>
+      <c r="B660" s="65"/>
+      <c r="C660" s="65"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="47" t="s">
@@ -12964,11 +13309,11 @@
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674" s="65" t="s">
+      <c r="A674" s="62" t="s">
         <v>1532</v>
       </c>
-      <c r="B674" s="65"/>
-      <c r="C674" s="65"/>
+      <c r="B674" s="62"/>
+      <c r="C674" s="62"/>
     </row>
     <row r="675" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A675" s="50" t="s">
@@ -13012,11 +13357,11 @@
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A682" s="65" t="s">
+      <c r="A682" s="62" t="s">
         <v>1540</v>
       </c>
-      <c r="B682" s="65"/>
-      <c r="C682" s="65"/>
+      <c r="B682" s="62"/>
+      <c r="C682" s="62"/>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A683" s="50" t="s">
@@ -13076,7 +13421,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A694" s="42" t="s">
         <v>1544</v>
       </c>
@@ -13155,11 +13500,11 @@
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A709" s="65" t="s">
+      <c r="A709" s="62" t="s">
         <v>1463</v>
       </c>
-      <c r="B709" s="65"/>
-      <c r="C709" s="65"/>
+      <c r="B709" s="62"/>
+      <c r="C709" s="62"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="50" t="s">
@@ -13285,21 +13630,21 @@
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A735" s="65" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B735" s="65"/>
-      <c r="C735" s="65"/>
-    </row>
-    <row r="736" spans="1:3" ht="182" x14ac:dyDescent="0.3">
+      <c r="A735" s="62" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B735" s="62"/>
+      <c r="C735" s="62"/>
+    </row>
+    <row r="736" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A736" s="50" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B736" s="50" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C736" s="11" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
@@ -13307,10 +13652,10 @@
         <v>1183</v>
       </c>
       <c r="B737" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C737" s="1" t="s">
         <v>1588</v>
-      </c>
-      <c r="C737" s="1" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -13320,7 +13665,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="42" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
@@ -13335,13 +13680,13 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="42" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C742" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -13353,27 +13698,27 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="42" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="42" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="42" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A747" s="42" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="42" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
@@ -13396,48 +13741,273 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="42" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="42" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="42" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="42" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A757" s="42" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="42" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="42" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="42" t="s">
         <v>1556</v>
       </c>
     </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" s="62" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B762" s="62"/>
+      <c r="C762" s="62"/>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763" s="50" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764" s="63" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B764" s="63"/>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765" s="42" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A766" s="42" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" s="42" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768" s="42" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769" s="63" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B769" s="63"/>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770" s="42" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771" s="42" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772" s="42" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774" s="63" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B774" s="63"/>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775" s="42" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A776" s="42" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778" s="62" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B778" s="62"/>
+      <c r="C778" s="62"/>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A779" s="50" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780" s="63" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B780" s="63"/>
+      <c r="C780" s="63"/>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A781" s="42" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A782" s="42" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A783" s="42" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A784" s="42" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A785" s="42" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A786" s="63" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B786" s="63"/>
+      <c r="C786" s="63"/>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A787" s="42" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A788" s="42" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A789" s="63" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B789" s="63"/>
+      <c r="C789" s="63"/>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A790" s="42" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A791" s="42" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A792" s="42" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A793" s="42" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A794" s="42" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A795" s="42" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A796" s="42" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A797" s="63" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B797" s="63"/>
+      <c r="C797" s="63"/>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A798" s="42" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A799" s="42" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A800" s="42" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A801" s="42" t="s">
+        <v>1644</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="86">
+    <mergeCell ref="A778:C778"/>
+    <mergeCell ref="A780:C780"/>
+    <mergeCell ref="A786:C786"/>
+    <mergeCell ref="A789:C789"/>
+    <mergeCell ref="A797:C797"/>
     <mergeCell ref="B456:B457"/>
     <mergeCell ref="A674:C674"/>
     <mergeCell ref="A682:C682"/>
@@ -13505,8 +14075,6 @@
     <mergeCell ref="C391:C393"/>
     <mergeCell ref="A396:C396"/>
     <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A581:C581"/>
-    <mergeCell ref="A695:C695"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A743:C743"/>
     <mergeCell ref="A660:C660"/>
@@ -13515,6 +14083,12 @@
     <mergeCell ref="A656:C656"/>
     <mergeCell ref="A709:C709"/>
     <mergeCell ref="A719:C719"/>
+    <mergeCell ref="A762:C762"/>
+    <mergeCell ref="A764:B764"/>
+    <mergeCell ref="A769:B769"/>
+    <mergeCell ref="A774:B774"/>
+    <mergeCell ref="A581:C581"/>
+    <mergeCell ref="A695:C695"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -13669,9 +14243,36 @@
     <hyperlink ref="A758" r:id="rId150" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringDeep.html" xr:uid="{5330CE05-D679-4FDB-878D-EBA445507E75}"/>
     <hyperlink ref="A759" r:id="rId151" display="https://api.flutter.dev/flutter/foundation/DiagnosticableTree/toStringShallow.html" xr:uid="{9F1228A7-92B0-4591-B4AA-29298E554DB5}"/>
     <hyperlink ref="A760" r:id="rId152" display="https://api.flutter.dev/flutter/widgets/Widget/toStringShort.html" xr:uid="{C963BDF6-4464-4F3E-9FD9-777980F51CC1}"/>
+    <hyperlink ref="A765" r:id="rId153" location="none" display="https://api.flutter.dev/flutter/widgets/ConnectionState.html - none" xr:uid="{D15C9C63-668D-448E-810C-7BC6E36D46C8}"/>
+    <hyperlink ref="A766" r:id="rId154" location="waiting" display="https://api.flutter.dev/flutter/widgets/ConnectionState.html - waiting" xr:uid="{5EF06E1D-9328-428C-B73B-8DAED3DF0916}"/>
+    <hyperlink ref="A767" r:id="rId155" location="active" display="https://api.flutter.dev/flutter/widgets/ConnectionState.html - active" xr:uid="{B1D536CC-EC89-464E-A8A4-43965588ED9E}"/>
+    <hyperlink ref="A768" r:id="rId156" location="done" display="https://api.flutter.dev/flutter/widgets/ConnectionState.html - done" xr:uid="{8F02D256-F9E6-4D8D-BD79-8D06BA2C5AF8}"/>
+    <hyperlink ref="A770" r:id="rId157" display="https://api.flutter.dev/flutter/dart-core/Object/hashCode.html" xr:uid="{6FEDFADF-C4A2-4A33-8FE2-A571231A52C9}"/>
+    <hyperlink ref="A771" r:id="rId158" display="https://api.flutter.dev/flutter/dart-core/Enum/index.html" xr:uid="{2AA21644-A82E-4187-931C-45B0EB1253AB}"/>
+    <hyperlink ref="A772" r:id="rId159" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{99CFC9E3-7229-4F76-85A6-3588FA9F394C}"/>
+    <hyperlink ref="A775" r:id="rId160" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{19E02824-7BFF-4D48-8CD3-74FF1ACF8B7E}"/>
+    <hyperlink ref="A776" r:id="rId161" display="https://api.flutter.dev/flutter/dart-core/Object/toString.html" xr:uid="{7E8B6CB3-89D5-4B0D-B194-62956D2830FC}"/>
+    <hyperlink ref="A781" r:id="rId162" display="https://api.flutter.dev/flutter/dart-async/Future/Future.delayed.html" xr:uid="{C77D1288-C097-4EAC-B006-5AA0AB4EE762}"/>
+    <hyperlink ref="A782" r:id="rId163" display="https://api.flutter.dev/flutter/dart-async/Future/Future.error.html" xr:uid="{B3E49F0E-81DB-4AC9-8333-5CA1902D9517}"/>
+    <hyperlink ref="A783" r:id="rId164" display="https://api.flutter.dev/flutter/dart-async/Future/Future.microtask.html" xr:uid="{E0EFE196-EF1C-4234-A2EE-D0991B58305A}"/>
+    <hyperlink ref="A784" r:id="rId165" display="https://api.flutter.dev/flutter/dart-async/Future/Future.sync.html" xr:uid="{BB554A0D-4672-433D-8391-3C3572614AFD}"/>
+    <hyperlink ref="A785" r:id="rId166" display="https://api.flutter.dev/flutter/dart-async/Future/Future.value.html" xr:uid="{37D505D5-6B10-49F2-BB2F-95E9BC158DA5}"/>
+    <hyperlink ref="A787" r:id="rId167" display="https://api.flutter.dev/flutter/dart-core/Object/hashCode.html" xr:uid="{073C77AC-9FF4-4574-8968-D67949E73685}"/>
+    <hyperlink ref="A788" r:id="rId168" display="https://api.flutter.dev/flutter/dart-core/Object/runtimeType.html" xr:uid="{1FA6298B-059D-49D7-8D71-874197E395FC}"/>
+    <hyperlink ref="A790" r:id="rId169" display="https://api.flutter.dev/flutter/dart-async/Future/asStream.html" xr:uid="{C7F6B4D5-0AF9-4359-BA3C-AC7B0359C718}"/>
+    <hyperlink ref="A791" r:id="rId170" display="https://api.flutter.dev/flutter/dart-async/Future/catchError.html" xr:uid="{6B363F2A-4C66-4092-BC01-B71D3C0B5D5F}"/>
+    <hyperlink ref="A792" r:id="rId171" display="https://api.flutter.dev/flutter/dart-core/Object/noSuchMethod.html" xr:uid="{15004063-1348-477A-8515-513B464025A0}"/>
+    <hyperlink ref="A793" r:id="rId172" display="https://api.flutter.dev/flutter/dart-async/Future/then.html" xr:uid="{EA053435-5E23-439C-92A4-C18D0A43A22C}"/>
+    <hyperlink ref="A794" r:id="rId173" display="https://api.flutter.dev/flutter/dart-async/Future/timeout.html" xr:uid="{E8CF5D63-20A5-486E-A81F-18FE3BD61176}"/>
+    <hyperlink ref="A795" r:id="rId174" display="https://api.flutter.dev/flutter/dart-core/Object/toString.html" xr:uid="{8229F4C8-A554-4B96-96B1-C0D8A3368262}"/>
+    <hyperlink ref="A796" r:id="rId175" display="https://api.flutter.dev/flutter/dart-async/Future/whenComplete.html" xr:uid="{42B3D4C7-2730-4BAC-87B6-88611F949CAF}"/>
+    <hyperlink ref="A798" r:id="rId176" display="https://api.flutter.dev/flutter/dart-async/Future/any.html" xr:uid="{043B19ED-474D-4906-8573-B47D9F261E05}"/>
+    <hyperlink ref="A799" r:id="rId177" display="https://api.flutter.dev/flutter/dart-async/Future/doWhile.html" xr:uid="{69778EAE-1BD8-46C7-B028-65F7EA8AAC08}"/>
+    <hyperlink ref="A800" r:id="rId178" display="https://api.flutter.dev/flutter/dart-async/Future/forEach.html" xr:uid="{F245FCAB-7DD3-4450-81F4-2258C3CA3A12}"/>
+    <hyperlink ref="A801" r:id="rId179" display="https://api.flutter.dev/flutter/dart-async/Future/wait.html" xr:uid="{B35474C5-AF60-40AD-AA17-07F9FB6A2D2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId180"/>
 </worksheet>
 </file>
 
@@ -13679,8 +14280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
   <dimension ref="A1:D488"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+    <sheetView rightToLeft="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13724,11 +14325,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>1107</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="12" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -13819,11 +14420,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>1313</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
     </row>
     <row r="24" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -14400,11 +15001,11 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="B98" s="62"/>
-      <c r="C98" s="62"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -14447,11 +15048,11 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="62" t="s">
+      <c r="A106" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="62"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
     </row>
     <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -14526,11 +15127,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
     </row>
     <row r="118" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
@@ -14538,11 +15139,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="62" t="s">
+      <c r="A120" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="62"/>
-      <c r="C120" s="62"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="64"/>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -14785,11 +15386,11 @@
       <c r="B162" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="62" t="s">
+      <c r="A166" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="B166" s="62"/>
-      <c r="C166" s="62"/>
+      <c r="B166" s="64"/>
+      <c r="C166" s="64"/>
     </row>
     <row r="167" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -14801,11 +15402,11 @@
     </row>
     <row r="169" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="62" t="s">
+      <c r="A170" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="B170" s="62"/>
-      <c r="C170" s="62"/>
+      <c r="B170" s="64"/>
+      <c r="C170" s="64"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="66" t="s">
@@ -14814,11 +15415,11 @@
       <c r="B171" s="66"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="62" t="s">
+      <c r="A173" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="64"/>
     </row>
     <row r="174" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
@@ -14845,11 +15446,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="64" t="s">
+      <c r="A178" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="B178" s="64"/>
-      <c r="C178" s="64"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="65"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -14868,11 +15469,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="64" t="s">
+      <c r="A183" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="65"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -14891,11 +15492,11 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="64" t="s">
+      <c r="A187" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="B187" s="64"/>
-      <c r="C187" s="64"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="65"/>
     </row>
     <row r="188" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
@@ -14914,11 +15515,11 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="64" t="s">
+      <c r="A192" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="B192" s="64"/>
-      <c r="C192" s="64"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="65"/>
     </row>
     <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
@@ -14961,11 +15562,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="62" t="s">
+      <c r="A200" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="B200" s="62"/>
-      <c r="C200" s="62"/>
+      <c r="B200" s="64"/>
+      <c r="C200" s="64"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -15000,11 +15601,11 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="64" t="s">
+      <c r="A207" s="65" t="s">
         <v>444</v>
       </c>
-      <c r="B207" s="64"/>
-      <c r="C207" s="64"/>
+      <c r="B207" s="65"/>
+      <c r="C207" s="65"/>
     </row>
     <row r="208" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
@@ -15023,11 +15624,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="62" t="s">
+      <c r="A211" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="B211" s="62"/>
-      <c r="C211" s="62"/>
+      <c r="B211" s="64"/>
+      <c r="C211" s="64"/>
     </row>
     <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -15043,11 +15644,11 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="62" t="s">
+      <c r="A215" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="B215" s="62"/>
-      <c r="C215" s="62"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="64"/>
     </row>
     <row r="216" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
@@ -15088,11 +15689,11 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="64" t="s">
+      <c r="A221" s="65" t="s">
         <v>471</v>
       </c>
-      <c r="B221" s="64"/>
-      <c r="C221" s="64"/>
+      <c r="B221" s="65"/>
+      <c r="C221" s="65"/>
     </row>
     <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
@@ -15138,11 +15739,11 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="64" t="s">
+      <c r="A228" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
+      <c r="B228" s="65"/>
+      <c r="C228" s="65"/>
     </row>
     <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
@@ -15177,11 +15778,11 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="62" t="s">
+      <c r="A235" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="B235" s="62"/>
-      <c r="C235" s="62"/>
+      <c r="B235" s="64"/>
+      <c r="C235" s="64"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
@@ -15227,11 +15828,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="64" t="s">
+      <c r="A242" s="65" t="s">
         <v>677</v>
       </c>
-      <c r="B242" s="64"/>
-      <c r="C242" s="64"/>
+      <c r="B242" s="65"/>
+      <c r="C242" s="65"/>
     </row>
     <row r="243" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A243" s="21" t="s">
@@ -15276,11 +15877,11 @@
       <c r="C248" s="16"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="62" t="s">
+      <c r="A251" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
+      <c r="B251" s="64"/>
+      <c r="C251" s="64"/>
     </row>
     <row r="252" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
@@ -15307,11 +15908,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="62" t="s">
+      <c r="A256" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="B256" s="62"/>
-      <c r="C256" s="62"/>
+      <c r="B256" s="64"/>
+      <c r="C256" s="64"/>
     </row>
     <row r="257" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
@@ -15354,11 +15955,11 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="62" t="s">
+      <c r="A263" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="B263" s="62"/>
-      <c r="C263" s="62"/>
+      <c r="B263" s="64"/>
+      <c r="C263" s="64"/>
     </row>
     <row r="264" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
@@ -15441,11 +16042,11 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="64" t="s">
+      <c r="A274" s="65" t="s">
         <v>575</v>
       </c>
-      <c r="B274" s="64"/>
-      <c r="C274" s="64"/>
+      <c r="B274" s="65"/>
+      <c r="C274" s="65"/>
     </row>
     <row r="275" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
@@ -15453,11 +16054,11 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="62" t="s">
+      <c r="A278" s="64" t="s">
         <v>591</v>
       </c>
-      <c r="B278" s="62"/>
-      <c r="C278" s="62"/>
+      <c r="B278" s="64"/>
+      <c r="C278" s="64"/>
     </row>
     <row r="279" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
@@ -15513,11 +16114,11 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="62" t="s">
+      <c r="A288" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="B288" s="62"/>
-      <c r="C288" s="62"/>
+      <c r="B288" s="64"/>
+      <c r="C288" s="64"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -15544,11 +16145,11 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="62" t="s">
+      <c r="A293" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="B293" s="62"/>
-      <c r="C293" s="62"/>
+      <c r="B293" s="64"/>
+      <c r="C293" s="64"/>
     </row>
     <row r="294" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
@@ -15599,11 +16200,11 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="62" t="s">
+      <c r="A301" s="64" t="s">
         <v>624</v>
       </c>
-      <c r="B301" s="62"/>
-      <c r="C301" s="62"/>
+      <c r="B301" s="64"/>
+      <c r="C301" s="64"/>
       <c r="D301" s="3" t="s">
         <v>635</v>
       </c>
@@ -15652,11 +16253,11 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="62" t="s">
+      <c r="A310" s="64" t="s">
         <v>661</v>
       </c>
-      <c r="B310" s="62"/>
-      <c r="C310" s="62"/>
+      <c r="B310" s="64"/>
+      <c r="C310" s="64"/>
     </row>
     <row r="311" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
@@ -15714,11 +16315,11 @@
       <c r="B316" s="67"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="62" t="s">
+      <c r="A318" s="64" t="s">
         <v>774</v>
       </c>
-      <c r="B318" s="62"/>
-      <c r="C318" s="62"/>
+      <c r="B318" s="64"/>
+      <c r="C318" s="64"/>
     </row>
     <row r="319" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A319" s="33" t="s">
@@ -15796,11 +16397,11 @@
       <c r="C327" s="3"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="64" t="s">
+      <c r="A329" s="65" t="s">
         <v>795</v>
       </c>
-      <c r="B329" s="64"/>
-      <c r="C329" s="64"/>
+      <c r="B329" s="65"/>
+      <c r="C329" s="65"/>
     </row>
     <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
@@ -15836,11 +16437,11 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="64" t="s">
+      <c r="A334" s="65" t="s">
         <v>805</v>
       </c>
-      <c r="B334" s="64"/>
-      <c r="C334" s="64"/>
+      <c r="B334" s="65"/>
+      <c r="C334" s="65"/>
     </row>
     <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
@@ -15867,11 +16468,11 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="62" t="s">
+      <c r="A339" s="64" t="s">
         <v>812</v>
       </c>
-      <c r="B339" s="62"/>
-      <c r="C339" s="62"/>
+      <c r="B339" s="64"/>
+      <c r="C339" s="64"/>
     </row>
     <row r="340" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
@@ -15890,11 +16491,11 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="64" t="s">
+      <c r="A343" s="65" t="s">
         <v>816</v>
       </c>
-      <c r="B343" s="64"/>
-      <c r="C343" s="64"/>
+      <c r="B343" s="65"/>
+      <c r="C343" s="65"/>
     </row>
     <row r="344" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A344" s="35" t="s">
@@ -15981,11 +16582,11 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="62" t="s">
+      <c r="A354" s="64" t="s">
         <v>841</v>
       </c>
-      <c r="B354" s="62"/>
-      <c r="C354" s="62"/>
+      <c r="B354" s="64"/>
+      <c r="C354" s="64"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
@@ -16041,11 +16642,11 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="62" t="s">
+      <c r="A366" s="64" t="s">
         <v>849</v>
       </c>
-      <c r="B366" s="62"/>
-      <c r="C366" s="62"/>
+      <c r="B366" s="64"/>
+      <c r="C366" s="64"/>
     </row>
     <row r="367" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
@@ -16131,11 +16732,11 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="64" t="s">
+      <c r="A378" s="65" t="s">
         <v>872</v>
       </c>
-      <c r="B378" s="64"/>
-      <c r="C378" s="64"/>
+      <c r="B378" s="65"/>
+      <c r="C378" s="65"/>
     </row>
     <row r="379" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
@@ -16189,11 +16790,11 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="64" t="s">
+      <c r="A385" s="65" t="s">
         <v>887</v>
       </c>
-      <c r="B385" s="64"/>
-      <c r="C385" s="64"/>
+      <c r="B385" s="65"/>
+      <c r="C385" s="65"/>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
@@ -16247,11 +16848,11 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="62" t="s">
+      <c r="A393" s="64" t="s">
         <v>903</v>
       </c>
-      <c r="B393" s="62"/>
-      <c r="C393" s="62"/>
+      <c r="B393" s="64"/>
+      <c r="C393" s="64"/>
     </row>
     <row r="394" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
@@ -16278,11 +16879,11 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="64" t="s">
+      <c r="A397" s="65" t="s">
         <v>910</v>
       </c>
-      <c r="B397" s="64"/>
-      <c r="C397" s="64"/>
+      <c r="B397" s="65"/>
+      <c r="C397" s="65"/>
     </row>
     <row r="398" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
@@ -16301,11 +16902,11 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="62" t="s">
+      <c r="A401" s="64" t="s">
         <v>966</v>
       </c>
-      <c r="B401" s="62"/>
-      <c r="C401" s="62"/>
+      <c r="B401" s="64"/>
+      <c r="C401" s="64"/>
     </row>
     <row r="403" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -16340,11 +16941,11 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="62" t="s">
+      <c r="A409" s="64" t="s">
         <v>967</v>
       </c>
-      <c r="B409" s="62"/>
-      <c r="C409" s="62"/>
+      <c r="B409" s="64"/>
+      <c r="C409" s="64"/>
     </row>
     <row r="410" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
@@ -16401,11 +17002,11 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="62" t="s">
+      <c r="A417" s="64" t="s">
         <v>1002</v>
       </c>
-      <c r="B417" s="62"/>
-      <c r="C417" s="62"/>
+      <c r="B417" s="64"/>
+      <c r="C417" s="64"/>
     </row>
     <row r="418" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
@@ -16502,11 +17103,11 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="64" t="s">
+      <c r="A429" s="65" t="s">
         <v>1030</v>
       </c>
-      <c r="B429" s="64"/>
-      <c r="C429" s="64"/>
+      <c r="B429" s="65"/>
+      <c r="C429" s="65"/>
     </row>
     <row r="430" spans="1:3" ht="308" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
@@ -16533,11 +17134,11 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="64" t="s">
+      <c r="A435" s="65" t="s">
         <v>1042</v>
       </c>
-      <c r="B435" s="64"/>
-      <c r="C435" s="64"/>
+      <c r="B435" s="65"/>
+      <c r="C435" s="65"/>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
@@ -16580,11 +17181,11 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="64" t="s">
+      <c r="A442" s="65" t="s">
         <v>1059</v>
       </c>
-      <c r="B442" s="64"/>
-      <c r="C442" s="64"/>
+      <c r="B442" s="65"/>
+      <c r="C442" s="65"/>
     </row>
     <row r="443" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
@@ -16627,11 +17228,11 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="64" t="s">
+      <c r="A449" s="65" t="s">
         <v>1064</v>
       </c>
-      <c r="B449" s="64"/>
-      <c r="C449" s="64"/>
+      <c r="B449" s="65"/>
+      <c r="C449" s="65"/>
     </row>
     <row r="450" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
@@ -16685,11 +17286,11 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="62" t="s">
+      <c r="A458" s="64" t="s">
         <v>1086</v>
       </c>
-      <c r="B458" s="62"/>
-      <c r="C458" s="62"/>
+      <c r="B458" s="64"/>
+      <c r="C458" s="64"/>
     </row>
     <row r="459" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
@@ -16719,11 +17320,11 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="64" t="s">
+      <c r="A462" s="65" t="s">
         <v>1087</v>
       </c>
-      <c r="B462" s="64"/>
-      <c r="C462" s="64"/>
+      <c r="B462" s="65"/>
+      <c r="C462" s="65"/>
     </row>
     <row r="463" spans="1:3" ht="378" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
@@ -16742,11 +17343,11 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="64" t="s">
+      <c r="A466" s="65" t="s">
         <v>1096</v>
       </c>
-      <c r="B466" s="64"/>
-      <c r="C466" s="64"/>
+      <c r="B466" s="65"/>
+      <c r="C466" s="65"/>
     </row>
     <row r="467" spans="1:3" ht="224" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
@@ -16795,7 +17396,7 @@
         <v>1317</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1316</v>
+        <v>1616</v>
       </c>
       <c r="C473" s="79" t="s">
         <v>1319</v>
@@ -16858,11 +17459,11 @@
       <c r="C479" s="78"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="62" t="s">
+      <c r="A480" s="64" t="s">
         <v>1559</v>
       </c>
-      <c r="B480" s="62"/>
-      <c r="C480" s="62"/>
+      <c r="B480" s="64"/>
+      <c r="C480" s="64"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
@@ -16911,11 +17512,11 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="62" t="s">
+      <c r="A486" s="64" t="s">
         <v>1560</v>
       </c>
-      <c r="B486" s="62"/>
-      <c r="C486" s="62"/>
+      <c r="B486" s="64"/>
+      <c r="C486" s="64"/>
     </row>
     <row r="487" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
@@ -17252,10 +17853,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3B2E3C-F508-4BEB-A92C-BE6576F671A4}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17392,11 +17993,11 @@
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="64" t="s">
         <v>1569</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
@@ -17425,10 +18026,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="64" t="s">
         <v>1431</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="64"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -17447,11 +18048,11 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="64" t="s">
         <v>1577</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28" spans="1:3" ht="168" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -17474,37 +18075,85 @@
         <v>1582</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1584</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="64" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
     </row>
     <row r="32" spans="1:3" ht="238" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>1602</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1603</v>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="64" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+    </row>
+    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1647</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A19:C19"/>
@@ -17515,8 +18164,9 @@
     <hyperlink ref="A8" r:id="rId1" xr:uid="{254B2BB8-DC48-46D4-B80E-73F7285469BF}"/>
     <hyperlink ref="A24" r:id="rId2" xr:uid="{33F82E2D-8B94-41FE-99E7-BFB1E7836CA6}"/>
     <hyperlink ref="A33" r:id="rId3" xr:uid="{8C60CE6B-2313-4CE5-B1C4-7AB085B3D1CA}"/>
+    <hyperlink ref="A35" r:id="rId4" location="send_a_password_reset_email" xr:uid="{1F139276-B102-4E34-AFFE-BBFB969B44B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>